--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1068.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1068.xlsx
@@ -914,24 +914,24 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2738,19 +2738,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$K$65:$K$2000</f>
+              <f>'1'!$K$65:$K$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$J$65:$J$2000</f>
+              <f>'1'!$J$65:$J$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2781,19 +2781,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$M$65:$M$2000</f>
+              <f>'1'!$M$65:$M$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$L$65:$L$2000</f>
+              <f>'1'!$L$65:$L$200000</f>
               <numCache>
                 <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -2824,19 +2824,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$O$65:$O$2000</f>
+              <f>'1'!$O$65:$O$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$N$65:$N$2000</f>
+              <f>'1'!$N$65:$N$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3181,19 +3181,19 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3399,7 +3399,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3508,7 +3508,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -3657,19 +3657,19 @@
           </trendline>
           <xVal>
             <numRef>
-              <f>'1'!$G$65:$G$2000</f>
+              <f>'1'!$G$65:$G$200000</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'1'!$F$65:$F$2000</f>
+              <f>'1'!$F$65:$F$200000</f>
               <numCache>
-                <formatCode>0.000</formatCode>
-                <ptCount val="1936"/>
+                <formatCode>General</formatCode>
+                <ptCount val="199936"/>
               </numCache>
             </numRef>
           </yVal>
@@ -3749,10 +3749,9 @@
             <numRef>
               <f>'1'!$A$81:$A$82</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3814,10 +3813,9 @@
             <numRef>
               <f>'1'!$A$75:$A$76</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
-                  <formatCode>General</formatCode>
                   <v>0</v>
                 </pt>
                 <pt idx="1">
@@ -3869,7 +3867,7 @@
             <numRef>
               <f>'1'!$A$85:$A$86</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -3923,7 +3921,7 @@
             <numRef>
               <f>'1'!$A$88:$A$89</f>
               <numCache>
-                <formatCode>0.000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>#N/A</v>
@@ -3978,7 +3976,7 @@
             <numRef>
               <f>'1'!$A$78:$A$79</f>
               <numCache>
-                <formatCode>0.0000</formatCode>
+                <formatCode>General</formatCode>
                 <ptCount val="2"/>
                 <pt idx="0">
                   <v>0</v>
@@ -4088,7 +4086,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.0000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4198,7 +4196,7 @@
             </a:ln>
           </spPr>
         </title>
-        <numFmt formatCode="0.000" sourceLinked="1"/>
+        <numFmt formatCode="General" sourceLinked="1"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
@@ -4886,8 +4884,8 @@
   </sheetPr>
   <dimension ref="A1:BF264"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -4917,13 +4915,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="150" t="inlineStr">
+      <c r="A1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
       </c>
-      <c r="L1" s="150" t="n"/>
-      <c r="M1" s="150" t="inlineStr">
+      <c r="L1" s="153" t="n"/>
+      <c r="M1" s="153" t="inlineStr">
         <is>
           <t>Общество с ограниченной ответственностью "Инженерная геология" (ООО "ИнжГео")</t>
         </is>
@@ -4974,13 +4972,13 @@
       <c r="BC1" s="40" t="n"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="150" t="inlineStr">
+      <c r="A2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
       </c>
-      <c r="L2" s="150" t="n"/>
-      <c r="M2" s="150" t="inlineStr">
+      <c r="L2" s="153" t="n"/>
+      <c r="M2" s="153" t="inlineStr">
         <is>
           <t>Юр. адрес: 117279, г. Москва, ул. Миклухо-Маклая, 36 а, этаж 5, пом. XXIII к. 76-84</t>
         </is>
@@ -5096,13 +5094,13 @@
       <c r="BD2" s="50" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="150" t="inlineStr">
+      <c r="A3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
       </c>
-      <c r="L3" s="150" t="n"/>
-      <c r="M3" s="150" t="inlineStr">
+      <c r="L3" s="153" t="n"/>
+      <c r="M3" s="153" t="inlineStr">
         <is>
           <t>Телефон/факс +7 (495) 132-30-00,  Адрес электронной почты inbox@inj-geo.ru</t>
         </is>
@@ -5173,27 +5171,27 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="150" t="n"/>
-      <c r="B4" s="150" t="n"/>
-      <c r="C4" s="150" t="n"/>
-      <c r="D4" s="150" t="n"/>
-      <c r="E4" s="150" t="n"/>
-      <c r="F4" s="150" t="n"/>
-      <c r="G4" s="150" t="n"/>
-      <c r="H4" s="150" t="n"/>
-      <c r="I4" s="150" t="n"/>
-      <c r="J4" s="150" t="n"/>
-      <c r="K4" s="150" t="n"/>
-      <c r="L4" s="150" t="n"/>
-      <c r="M4" s="150" t="n"/>
-      <c r="N4" s="150" t="n"/>
-      <c r="O4" s="150" t="n"/>
-      <c r="P4" s="150" t="n"/>
-      <c r="Q4" s="150" t="n"/>
-      <c r="R4" s="150" t="n"/>
-      <c r="S4" s="150" t="n"/>
-      <c r="T4" s="150" t="n"/>
-      <c r="U4" s="150" t="n"/>
+      <c r="A4" s="153" t="n"/>
+      <c r="B4" s="153" t="n"/>
+      <c r="C4" s="153" t="n"/>
+      <c r="D4" s="153" t="n"/>
+      <c r="E4" s="153" t="n"/>
+      <c r="F4" s="153" t="n"/>
+      <c r="G4" s="153" t="n"/>
+      <c r="H4" s="153" t="n"/>
+      <c r="I4" s="153" t="n"/>
+      <c r="J4" s="153" t="n"/>
+      <c r="K4" s="153" t="n"/>
+      <c r="L4" s="153" t="n"/>
+      <c r="M4" s="153" t="n"/>
+      <c r="N4" s="153" t="n"/>
+      <c r="O4" s="153" t="n"/>
+      <c r="P4" s="153" t="n"/>
+      <c r="Q4" s="153" t="n"/>
+      <c r="R4" s="153" t="n"/>
+      <c r="S4" s="153" t="n"/>
+      <c r="T4" s="153" t="n"/>
+      <c r="U4" s="153" t="n"/>
       <c r="X4" s="66">
         <f>X2-X1</f>
         <v/>
@@ -5256,13 +5254,13 @@
       <c r="BC4" s="58" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="150" t="inlineStr">
+      <c r="A5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
       </c>
-      <c r="L5" s="150" t="n"/>
-      <c r="M5" s="150" t="inlineStr">
+      <c r="L5" s="153" t="n"/>
+      <c r="M5" s="153" t="inlineStr">
         <is>
           <t>Испытательная лаборатория ООО «ИнжГео»</t>
         </is>
@@ -5377,13 +5375,13 @@
       <c r="BC5" s="58" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="154" t="inlineStr">
+      <c r="A6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
       </c>
-      <c r="L6" s="154" t="n"/>
-      <c r="M6" s="154" t="inlineStr">
+      <c r="L6" s="152" t="n"/>
+      <c r="M6" s="152" t="inlineStr">
         <is>
           <t>Адрес места осуществления деятельности лаборатории: г. Москва, просп. Вернадского, д. 51, стр. 1</t>
         </is>
@@ -5456,13 +5454,13 @@
       <c r="BF6" s="67" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="150" t="inlineStr">
+      <c r="A7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
       </c>
-      <c r="L7" s="150" t="n"/>
-      <c r="M7" s="150" t="inlineStr">
+      <c r="L7" s="153" t="n"/>
+      <c r="M7" s="153" t="inlineStr">
         <is>
           <t>Телефон +7(910)4557682, E-mail: slg85@mail.ru</t>
         </is>
@@ -5624,8 +5622,8 @@
       <c r="BF8" s="67" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="156" t="n"/>
-      <c r="M9" s="156" t="inlineStr">
+      <c r="A9" s="155" t="n"/>
+      <c r="M9" s="155" t="inlineStr">
         <is>
           <t>Протокол испытаний № 13-63/33 от 01-12-2022</t>
         </is>
@@ -6442,13 +6440,13 @@
       <c r="BC17" s="58" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="155" t="inlineStr">
+      <c r="A18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
       </c>
-      <c r="L18" s="155" t="n"/>
-      <c r="M18" s="155" t="inlineStr">
+      <c r="L18" s="154" t="n"/>
+      <c r="M18" s="154" t="inlineStr">
         <is>
           <t>Испытание грунтов методом трехосного сжатия</t>
         </is>
@@ -7328,13 +7326,13 @@
       <c r="BC26" s="58" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="155" t="inlineStr">
+      <c r="A27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
       </c>
-      <c r="L27" s="155" t="n"/>
-      <c r="M27" s="155" t="inlineStr">
+      <c r="L27" s="154" t="n"/>
+      <c r="M27" s="154" t="inlineStr">
         <is>
           <t xml:space="preserve">Результаты испытаний </t>
         </is>
@@ -9133,26 +9131,26 @@
       <c r="U59" s="10" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="152" t="inlineStr">
+      <c r="A60" s="156" t="inlineStr">
         <is>
           <t>Лист 1 , всего листов 2</t>
         </is>
       </c>
-      <c r="L60" s="152" t="n"/>
-      <c r="M60" s="152" t="inlineStr">
+      <c r="L60" s="156" t="n"/>
+      <c r="M60" s="156" t="inlineStr">
         <is>
           <t>Лист 2 , всего листов 2</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="153" t="inlineStr">
+      <c r="A61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
       </c>
-      <c r="L61" s="153" t="n"/>
-      <c r="M61" s="153" t="inlineStr">
+      <c r="L61" s="150" t="n"/>
+      <c r="M61" s="150" t="inlineStr">
         <is>
           <t>Частичное воспроизведение протокола испытаний без письменного разрешения  ООО «ИнжГео» ЗАПРЕЩАЕТСЯ</t>
         </is>
@@ -9257,7 +9255,7 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9272,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>-7.499999999999868e-05</v>
+        <v>3.499999999999337e-05</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>-7.499999999999868e-05</v>
+        <v>3.499999999999337e-05</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>-0.0002999999999999947</v>
+        <v>0.01728604797491129</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0003590014190976422</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02836965834093452</v>
+        <v>0.02291395481383174</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0003436167405718645</v>
+        <v>0.000332083811002473</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9314,29 +9312,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.008559400665973542</v>
+        <v>0.009083445604706614</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005701987410316041</v>
+        <v>0.0006055584985909719</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.008559400665973542</v>
+        <v>0.009083445604706614</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0005701987410316041</v>
+        <v>0.0006055584985909719</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.02160755996863911</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0005104339077698021</v>
+        <v>0.001121879434680133</v>
       </c>
       <c r="N66" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0009912021362649941</v>
+        <v>0.001186013610723118</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9357,26 +9355,26 @@
         <v>0.0174681646244358</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
         <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001745506350096747</v>
+        <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03653679942721627</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001276084769424506</v>
+        <v>0.001761310672799133</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05527476275499121</v>
+        <v>0.05947567016451488</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001466184747891787</v>
+        <v>0.00176195523738248</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9396,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01827626307770612</v>
+        <v>0.01810253063790158</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01827626307770612</v>
+        <v>0.01810253063790158</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002210648542146701</v>
+        <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03747532826752351</v>
+        <v>0.03825896940459994</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002203571834900386</v>
+        <v>0.002641966009198699</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05995088901118034</v>
+        <v>0.05940770088254682</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00219927712183768</v>
+        <v>0.002642932856073719</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9443,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01835785599008409</v>
+        <v>0.01909621121954354</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01835785599008409</v>
+        <v>0.01909621121954354</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002947531389528935</v>
+        <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03896900041592632</v>
+        <v>0.04184297436613127</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002938095779867182</v>
+        <v>0.003522621345598266</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05956276156616613</v>
+        <v>0.05976484877775873</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002932369495783573</v>
+        <v>0.003523910474764959</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9480,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0005701987410316041</v>
+        <v>0.0006055584985909719</v>
       </c>
       <c r="B70" t="n">
-        <v>0.008559400665973542</v>
+        <v>0.009083445604706614</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01923596027275902</v>
+        <v>0.02093428684850127</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01923596027275902</v>
+        <v>0.02093428684850127</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003684414236911169</v>
+        <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04097215091015605</v>
+        <v>0.04195752314566698</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003672619724833977</v>
+        <v>0.004403276681997833</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06595804959277041</v>
+        <v>0.06495348935545953</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003665461869729467</v>
+        <v>0.004404888093456199</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02103624396911595</v>
+        <v>0.02133886170228329</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02103624396911595</v>
+        <v>0.02133886170228329</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004421297084293402</v>
+        <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04296256224483544</v>
+        <v>0.04359673902339151</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004407143669800773</v>
+        <v>0.005283932018397399</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06737061324375926</v>
+        <v>0.06565411215704497</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004398554243675359</v>
+        <v>0.005285865712147438</v>
       </c>
     </row>
     <row r="72">
@@ -9550,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02106530857923913</v>
+        <v>0.02147921338196987</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02106530857923913</v>
+        <v>0.02147921338196987</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005158179931675636</v>
+        <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04358258570409682</v>
+        <v>0.04757505739459492</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005141667614767568</v>
+        <v>0.006164587354796966</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07055055374310948</v>
+        <v>0.06817820467784208</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005131646617621253</v>
+        <v>0.006166843330838678</v>
       </c>
     </row>
     <row r="73">
@@ -9596,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02189568175414014</v>
+        <v>0.02184593608771458</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02189568175414014</v>
+        <v>0.02184593608771458</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00589506277905787</v>
+        <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04765979057157085</v>
+        <v>0.04843699099206991</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005876191559734363</v>
+        <v>0.007045242691196532</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07154014785301377</v>
+        <v>0.07002296688856302</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005864738991567147</v>
+        <v>0.007047820949529918</v>
       </c>
     </row>
     <row r="74">
@@ -9633,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02313938965564771</v>
+        <v>0.02263775112950973</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02313938965564771</v>
+        <v>0.02263775112950973</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006631945626440103</v>
+        <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.049073824738813</v>
+        <v>0.04846197336567257</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006610715504701159</v>
+        <v>0.0079258980275961</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07411658363580748</v>
+        <v>0.07569986942113244</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006597831365513039</v>
+        <v>0.007928798568221157</v>
       </c>
     </row>
     <row r="75">
@@ -9677,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0238925038832242</v>
+        <v>0.02308530600024655</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0238925038832242</v>
+        <v>0.02308530600024655</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007368828473822338</v>
+        <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04981607165943092</v>
+        <v>0.04774796435238993</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007345239449667954</v>
+        <v>0.008806553363995667</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07669114768403468</v>
+        <v>0.07388023385409087</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007330923739458934</v>
+        <v>0.008809776186912399</v>
       </c>
     </row>
     <row r="76">
@@ -9719,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02425586490845112</v>
+        <v>0.02362174444600822</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02425586490845112</v>
+        <v>0.02362174444600822</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008105711321204571</v>
+        <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05179423870576505</v>
+        <v>0.05025802035378504</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008079763394634749</v>
+        <v>0.009687208700395232</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07812580380945172</v>
+        <v>0.07677367812188574</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008064016113404826</v>
+        <v>0.009690753805603637</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9756,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02472615071074907</v>
+        <v>0.02457414397211108</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02472615071074907</v>
+        <v>0.02457414397211108</v>
       </c>
       <c r="K77" t="n">
-        <v>0.008842594168586805</v>
+        <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05159998899733856</v>
+        <v>0.0522460978343067</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008814287339601545</v>
+        <v>0.0105678640367948</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07976193820941652</v>
+        <v>0.07509341007756948</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008797108487350718</v>
+        <v>0.01057173142429488</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9796,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02532255655922604</v>
+        <v>0.02464088518792898</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02532255655922604</v>
+        <v>0.02464088518792898</v>
       </c>
       <c r="K78" t="n">
-        <v>0.00957947701596904</v>
+        <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05365418050738457</v>
+        <v>0.05334297580850178</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00954881128456834</v>
+        <v>0.01144851937319437</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0790902444825583</v>
+        <v>0.07619983695018251</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009530200861296613</v>
+        <v>0.01145270904298612</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9838,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02492425109575953</v>
+        <v>0.02451204181601044</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02492425109575953</v>
+        <v>0.02451204181601044</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01031635986335127</v>
+        <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05297759531634091</v>
+        <v>0.05443324715151776</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01028333522953514</v>
+        <v>0.01232917470959393</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0791737688330898</v>
+        <v>0.08003860160821885</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01026329323524251</v>
+        <v>0.01233368666167736</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9869,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02640164820925896</v>
+        <v>0.02564998437333181</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02640164820925896</v>
+        <v>0.02564998437333181</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01105324271073351</v>
+        <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05313117145023927</v>
+        <v>0.05346850597341188</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01101785917450193</v>
+        <v>0.0132098300459935</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08303227245276712</v>
+        <v>0.08157229089168128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0109963856091884</v>
+        <v>0.0132146642803686</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9906,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02641842439010093</v>
+        <v>0.02610159880617052</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02641842439010093</v>
+        <v>0.02610159880617052</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01179012555811574</v>
+        <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05383334284844976</v>
+        <v>0.05523911376694576</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01175238311946873</v>
+        <v>0.01409048538239306</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08558895217068052</v>
+        <v>0.08067491927699516</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01172947798313429</v>
+        <v>0.01409564189905984</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9940,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02659185213678086</v>
+        <v>0.02632661240677683</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02659185213678086</v>
+        <v>0.02632661240677683</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01252700840549797</v>
+        <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05657469512469765</v>
+        <v>0.05529011024682867</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01248690706443552</v>
+        <v>0.01497114071879263</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08464912933679258</v>
+        <v>0.080418148777747</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01246257035708019</v>
+        <v>0.01497661951775108</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9971,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02633056125272874</v>
+        <v>0.02697753865476933</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02633056125272874</v>
+        <v>0.02697753865476933</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01326389125288021</v>
+        <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05470897368225533</v>
+        <v>0.05277798932178765</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01322143100940232</v>
+        <v>0.0158517960551922</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08465459464714714</v>
+        <v>0.07924734958082313</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01319566273102608</v>
+        <v>0.01585759713644231</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10007,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02753395983879019</v>
+        <v>0.02599992440521023</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02753395983879019</v>
+        <v>0.02599992440521023</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01400077410026244</v>
+        <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05765362632722432</v>
+        <v>0.05510632340591284</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01395595495436911</v>
+        <v>0.01673245139159176</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08867586833476426</v>
+        <v>0.08364656525179337</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01392875510497197</v>
+        <v>0.01673857475513356</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10047,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02810009452567228</v>
+        <v>0.02587245776397364</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02810009452567228</v>
+        <v>0.02587245776397364</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01473765694764468</v>
+        <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05760948702064025</v>
+        <v>0.05353796454891704</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01469047889933591</v>
+        <v>0.01761310672799133</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0880177901563402</v>
+        <v>0.08644069904176954</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01466184747891787</v>
+        <v>0.0176195523738248</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10089,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02818429806920944</v>
+        <v>0.02728348868970606</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02818429806920944</v>
+        <v>0.02728348868970606</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01547453979502691</v>
+        <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05683777636782616</v>
+        <v>0.0545544631807893</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0154250028443027</v>
+        <v>0.0184937620643909</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08839660792082288</v>
+        <v>0.08132083024913533</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01539493985286376</v>
+        <v>0.01850052999251603</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10120,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02793223879926637</v>
+        <v>0.02706372445002379</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02793223879926637</v>
+        <v>0.02706372445002379</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01621142264240914</v>
+        <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05725190582998144</v>
+        <v>0.05365444677820941</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0161595267892695</v>
+        <v>0.01937441740079046</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08748322978091411</v>
+        <v>0.08373174812052064</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01612803222680965</v>
+        <v>0.01938150761120727</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10155,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02829244282771995</v>
+        <v>0.02702143520054365</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02829244282771995</v>
+        <v>0.02702143520054365</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01694830548979138</v>
+        <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05831143988954779</v>
+        <v>0.05455954743396518</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01689405073423629</v>
+        <v>0.02025507273719003</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08698073990757593</v>
+        <v>0.08614559527239535</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01686112460075555</v>
+        <v>0.02026248522989851</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10189,4578 +10187,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.0279589782705746</v>
+        <v>0.02660490869707732</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0279589782705746</v>
+        <v>0.02660490869707732</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01768518833717361</v>
+        <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05795207469800312</v>
+        <v>0.05744107446952096</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01762857467920309</v>
+        <v>0.0211357280735896</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08626485283936852</v>
+        <v>0.08716979319171558</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01759421697470144</v>
+        <v>0.02114346284858975</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02805158841971243</v>
+        <v>0.0282091036750287</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02805158841971243</v>
+        <v>0.0282091036750287</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01842207118455584</v>
+        <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06035186239951423</v>
+        <v>0.05771012002617701</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01836309862416988</v>
+        <v>0.02201638340998916</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09190452307315627</v>
+        <v>0.08543262615552027</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01832730934864733</v>
+        <v>0.02202444046728099</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02832305064039214</v>
+        <v>0.02694114238699649</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02832305064039214</v>
+        <v>0.02694114238699649</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01915895403193808</v>
+        <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05875186627886689</v>
+        <v>0.05520067221139127</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01909762256913668</v>
+        <v>0.02289703874638873</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09046681692323105</v>
+        <v>0.08717070538857924</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01906040172259323</v>
+        <v>0.02290541808597223</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02854821719128298</v>
+        <v>0.02747438772967306</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02854821719128298</v>
+        <v>0.02747438772967306</v>
       </c>
       <c r="K92" t="n">
-        <v>0.01989583687932031</v>
+        <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05983150411122148</v>
+        <v>0.05709470107727124</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01983214651410348</v>
+        <v>0.0237776940827883</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08974637425488624</v>
+        <v>0.08482309054564374</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01979349409653912</v>
+        <v>0.02378639570466348</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02868815882725875</v>
+        <v>0.02771485438781529</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02868815882725875</v>
+        <v>0.02771485438781529</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02063271972670254</v>
+        <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.0585142157815324</v>
+        <v>0.05633429810559398</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02056667045907027</v>
+        <v>0.02465834941918786</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09128135470887344</v>
+        <v>0.08642300544972775</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02052658647048501</v>
+        <v>0.02466737332335471</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02931344814111282</v>
+        <v>0.02796684368590377</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02931344814111282</v>
+        <v>0.02796684368590377</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02136960257408478</v>
+        <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0596692663150061</v>
+        <v>0.05764990825601893</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02130119440403707</v>
+        <v>0.02553900475558743</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09035212324073066</v>
+        <v>0.08647125718531834</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02125967884443091</v>
+        <v>0.02554835094204595</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02905149181168604</v>
+        <v>0.02746376214630285</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02905149181168604</v>
+        <v>0.02746376214630285</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02210648542146701</v>
+        <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05940180125360553</v>
+        <v>0.05884785883261295</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02203571834900386</v>
+        <v>0.026419660091987</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08934202694378029</v>
+        <v>0.08966952831745745</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0219927712183768</v>
+        <v>0.02642932856073719</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02989313403591422</v>
+        <v>0.02860323566520406</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02989313403591422</v>
+        <v>0.02860323566520406</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02284336826884924</v>
+        <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06122657216495583</v>
+        <v>0.05786925037920382</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02277024229397066</v>
+        <v>0.02730031542838656</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09455725522547881</v>
+        <v>0.08767934050150455</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02272586359232269</v>
+        <v>0.02731030617942843</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02908723979719012</v>
+        <v>0.02856271674362885</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02908723979719012</v>
+        <v>0.02856271674362885</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02358025111623148</v>
+        <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0597432963961961</v>
+        <v>0.05734923557813773</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02350476623893745</v>
+        <v>0.02818097076478613</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09356232411819682</v>
+        <v>0.08671740612678025</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02345895596626859</v>
+        <v>0.02819128379811967</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03009043147873314</v>
+        <v>0.02869403819449053</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03009043147873314</v>
+        <v>0.02869403819449053</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02431713396361371</v>
+        <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06008176393936165</v>
+        <v>0.05924669834206484</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02423929018390425</v>
+        <v>0.0290616261011857</v>
       </c>
       <c r="N98" t="n">
-        <v>0.09151988335085315</v>
+        <v>0.08798890340229326</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02419204834021448</v>
+        <v>0.02907226141681091</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0291489695679521</v>
+        <v>0.02818978478504182</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0291489695679521</v>
+        <v>0.02818978478504182</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02505401681099595</v>
+        <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06134182332738855</v>
+        <v>0.05821011801381196</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02497381412887104</v>
+        <v>0.02994228143758526</v>
       </c>
       <c r="N99" t="n">
-        <v>0.09431049001759156</v>
+        <v>0.08821967432188271</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02492514071416037</v>
+        <v>0.02995323903550215</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02942059610462498</v>
+        <v>0.02784370827222853</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02942059610462498</v>
+        <v>0.02784370827222853</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02579089965837818</v>
+        <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06102048503647189</v>
+        <v>0.05972758588706328</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02570833807383784</v>
+        <v>0.03082293677398483</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0911417549567583</v>
+        <v>0.09093155722468471</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02565823308810626</v>
+        <v>0.03083421665419339</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0304418684108002</v>
+        <v>0.02822146735822864</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0304418684108002</v>
+        <v>0.02822146735822864</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02652778250576041</v>
+        <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06042962053614179</v>
+        <v>0.0607083888038884</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02644286201880464</v>
+        <v>0.0317035921103844</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09604122412961819</v>
+        <v>0.09306744804325451</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02639132546205216</v>
+        <v>0.03171519427288463</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03010699719467133</v>
+        <v>0.02875031371259038</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03010699719467133</v>
+        <v>0.02875031371259038</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02726466535314265</v>
+        <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06239535023341844</v>
+        <v>0.06098438253650074</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02717738596377143</v>
+        <v>0.03258424744678396</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09612275127161635</v>
+        <v>0.09289536168424739</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02712441783599805</v>
+        <v>0.03259617189157588</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03041485898492509</v>
+        <v>0.02914513614192002</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03041485898492509</v>
+        <v>0.02914513614192002</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02800154820052488</v>
+        <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06071751068381273</v>
+        <v>0.05785406658435893</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02791190990873822</v>
+        <v>0.03346490278318353</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09513906934231747</v>
+        <v>0.09093715827333732</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02785751020994395</v>
+        <v>0.03347714951026711</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03040950100443617</v>
+        <v>0.02928116972528938</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03040950100443617</v>
+        <v>0.02928116972528938</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02873843104790712</v>
+        <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06332933050256159</v>
+        <v>0.05935916269918579</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02864643385370502</v>
+        <v>0.0343455581195831</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09205823927046786</v>
+        <v>0.09165653488681003</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02859060258388984</v>
+        <v>0.03435812712895835</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02997154593880329</v>
+        <v>0.02919294779246795</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02997154593880329</v>
+        <v>0.02919294779246795</v>
       </c>
       <c r="K105" t="n">
-        <v>0.02947531389528935</v>
+        <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06206518993397006</v>
+        <v>0.06072868540158888</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02938095779867182</v>
+        <v>0.03522621345598267</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09556195534707085</v>
+        <v>0.09247843978743686</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02932369495783574</v>
+        <v>0.0352391047476496</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03024594575055191</v>
+        <v>0.02882293460064039</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03024594575055191</v>
+        <v>0.02882293460064039</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03021219674267159</v>
+        <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06211223353098133</v>
+        <v>0.05789512150401366</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03011548174363861</v>
+        <v>0.03610686879238223</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09523914021227287</v>
+        <v>0.09031817051287261</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03005678733178162</v>
+        <v>0.03612008236634083</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0308040635161238</v>
+        <v>0.02872344219642266</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0308040635161238</v>
+        <v>0.02872344219642266</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03094907959005382</v>
+        <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06415264608812923</v>
+        <v>0.06137519137469757</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03085000568860541</v>
+        <v>0.03698752412878179</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09603988437807831</v>
+        <v>0.09265532411901611</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03078987970572752</v>
+        <v>0.03700105998503207</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.030776192394338</v>
+        <v>0.02904990278253644</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="J108" t="n">
-        <v>0.030776192394338</v>
+        <v>0.02904990278253644</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03168596243743605</v>
+        <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06351796480471983</v>
+        <v>0.06167818442217474</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0315845296335722</v>
+        <v>0.03786817946518136</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09595856560322413</v>
+        <v>0.09314035799947951</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03152297207967342</v>
+        <v>0.03788203760372331</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03083068336863923</v>
+        <v>0.02950457718262005</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03083068336863923</v>
+        <v>0.02950457718262005</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03242284528481829</v>
+        <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06157026811933836</v>
+        <v>0.05900104568949005</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03231905357853899</v>
+        <v>0.03874883480158093</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0975386733768896</v>
+        <v>0.09336259653650503</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0322560644536193</v>
+        <v>0.03876301522241455</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03130090463198036</v>
+        <v>0.02983807560812198</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03130090463198036</v>
+        <v>0.02983807560812198</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03315972813220052</v>
+        <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06461518423158136</v>
+        <v>0.06112277010058687</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03305357752350579</v>
+        <v>0.0396294901379805</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0961155446741514</v>
+        <v>0.09110163726407017</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0329891568275652</v>
+        <v>0.03964399284110579</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0308921476785558</v>
+        <v>0.02999804646477429</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0308921476785558</v>
+        <v>0.02999804646477429</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03389661097958276</v>
+        <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06193389791294041</v>
+        <v>0.06132898087450439</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03378810146847259</v>
+        <v>0.04051014547438006</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09711395468911926</v>
+        <v>0.09418169124631548</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0337222492015111</v>
+        <v>0.04052497045979703</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03116992452323315</v>
+        <v>0.02953367633193607</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03116992452323315</v>
+        <v>0.02953367633193607</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03463349382696499</v>
+        <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06271664725190632</v>
+        <v>0.06207886777457222</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03452262541343938</v>
+        <v>0.04139080081077963</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09553800003487695</v>
+        <v>0.09399241516854306</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03445534157545699</v>
+        <v>0.04140594807848827</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03071987886035306</v>
+        <v>0.02941912458026177</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03071987886035306</v>
+        <v>0.02941912458026177</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03537037667434722</v>
+        <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06499029942049542</v>
+        <v>0.06075909376078367</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03525714935840618</v>
+        <v>0.04227145614717919</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09442634321839477</v>
+        <v>0.09401553413521785</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03518843394940287</v>
+        <v>0.0422869256971795</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03041006783026226</v>
+        <v>0.02942187044668931</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03041006783026226</v>
+        <v>0.02942187044668931</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03610725952172945</v>
+        <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06260769826786181</v>
+        <v>0.05996364230987239</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03599167330337297</v>
+        <v>0.04315211148357876</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09461377681330324</v>
+        <v>0.09312989050601228</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03592152632334877</v>
+        <v>0.04316790331587075</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03101214370060164</v>
+        <v>0.03012641400314228</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03101214370060164</v>
+        <v>0.03012641400314228</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03684414236911169</v>
+        <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06479276016178062</v>
+        <v>0.06140698749109882</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03672619724833977</v>
+        <v>0.04403276681997833</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09719194484761418</v>
+        <v>0.09290194296748411</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03665461869729467</v>
+        <v>0.04404888093456199</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03155984653872375</v>
+        <v>0.03007926193732663</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03155984653872375</v>
+        <v>0.03007926193732663</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03758102521649392</v>
+        <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06442391378983392</v>
+        <v>0.05957007214633614</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03746072119330657</v>
+        <v>0.04491342215637789</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09467812383668323</v>
+        <v>0.09382286378151306</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03738771107124056</v>
+        <v>0.04492985855325323</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03065106228444714</v>
+        <v>0.03002282734464838</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03065106228444714</v>
+        <v>0.03002282734464838</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03831790806387616</v>
+        <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06592061087295548</v>
+        <v>0.06276429371803041</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03819524513827336</v>
+        <v>0.04579407749277746</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09772762604359536</v>
+        <v>0.09605232824824472</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03812080344518645</v>
+        <v>0.04581083617194447</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03101493943723437</v>
+        <v>0.03016608706185848</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03101493943723437</v>
+        <v>0.03016608706185848</v>
       </c>
       <c r="K118" t="n">
-        <v>0.03905479091125839</v>
+        <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06321259995111078</v>
+        <v>0.06364790450252475</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03892976908324015</v>
+        <v>0.04667473282917703</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0948687364173933</v>
+        <v>0.0929476568068599</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03885389581913234</v>
+        <v>0.04669181379063571</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03119037998815972</v>
+        <v>0.02949092314304003</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03119037998815972</v>
+        <v>0.02949092314304003</v>
       </c>
       <c r="K119" t="n">
-        <v>0.03979167375864062</v>
+        <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06337114018896986</v>
+        <v>0.06191444406031305</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03966429302820695</v>
+        <v>0.0475553881655766</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09663473319814031</v>
+        <v>0.09115322610791809</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03958698819307824</v>
+        <v>0.04757279140932695</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03172902038965494</v>
+        <v>0.02980502070666942</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03172902038965494</v>
+        <v>0.02980502070666942</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04052855660602286</v>
+        <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06585477923563446</v>
+        <v>0.06061828696024707</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04039881697317375</v>
+        <v>0.04843604350197616</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0988193479357794</v>
+        <v>0.09157895023349538</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04032008056702413</v>
+        <v>0.04845376902801819</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03111431091734948</v>
+        <v>0.03043605776766758</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03111431091734948</v>
+        <v>0.03043605776766758</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04126543945340509</v>
+        <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0632967211049007</v>
+        <v>0.0600555857177861</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04113334091814054</v>
+        <v>0.04931669883837573</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09977210875771142</v>
+        <v>0.0964828720697305</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04105317294097002</v>
+        <v>0.04933474664670943</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03143290724536581</v>
+        <v>0.02992478094904104</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03143290724536581</v>
+        <v>0.02992478094904104</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04200232230078732</v>
+        <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06483518080013331</v>
+        <v>0.06354657343987202</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04186786486310734</v>
+        <v>0.05019735417477529</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09872419043351244</v>
+        <v>0.09420739515267346</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04178626531491592</v>
+        <v>0.05021572426540067</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0310677942321948</v>
+        <v>0.03061659054887472</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0310677942321948</v>
+        <v>0.03061659054887472</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04273920514816956</v>
+        <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06478126663889494</v>
+        <v>0.06273680337915694</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04260238880807413</v>
+        <v>0.05107800951117486</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09782403078935986</v>
+        <v>0.0945466462732531</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04251935768886182</v>
+        <v>0.05109670188409191</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03173102689862049</v>
+        <v>0.03117501439276067</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03173102689862049</v>
+        <v>0.03117501439276067</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04347608799555179</v>
+        <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06414349472275765</v>
+        <v>0.06083501076228037</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04333691275304093</v>
+        <v>0.05195866484757443</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09616125832319922</v>
+        <v>0.09444484577769402</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0432524500628077</v>
+        <v>0.05197767950278315</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03207108709494863</v>
+        <v>0.03123419582607437</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03207108709494863</v>
+        <v>0.03123419582607437</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04421297084293403</v>
+        <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06571278530720881</v>
+        <v>0.0639756009166188</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04407143669800773</v>
+        <v>0.052839320183974</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09673941741671144</v>
+        <v>0.09600492546345252</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0439855424367536</v>
+        <v>0.05285865712147438</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03245185726498867</v>
+        <v>0.02976057596982486</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03245185726498867</v>
+        <v>0.02976057596982486</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04494985369031625</v>
+        <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06499998949260039</v>
+        <v>0.06208707040669709</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04480596064297452</v>
+        <v>0.05371997552037356</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09626557208179354</v>
+        <v>0.09689083009625288</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04471863481069949</v>
+        <v>0.05373963474016562</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03174547190170295</v>
+        <v>0.03129690715025554</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03174547190170295</v>
+        <v>0.03129690715025554</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04568673653769849</v>
+        <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.064535984848476</v>
+        <v>0.06207684943458824</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04554048458794131</v>
+        <v>0.05460063085677313</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09734021856952474</v>
+        <v>0.09618486980250474</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04545172718464539</v>
+        <v>0.05462061235885687</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0313677627461348</v>
+        <v>0.03053120970031023</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0313677627461348</v>
+        <v>0.03053120970031023</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04642361938508072</v>
+        <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06473301234143999</v>
+        <v>0.06450943123482361</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04627500853290811</v>
+        <v>0.05548128619317269</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1007717740145058</v>
+        <v>0.09377367729836483</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04618481955859128</v>
+        <v>0.0555015899775481</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03186181166395222</v>
+        <v>0.02979845909591297</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03186181166395222</v>
+        <v>0.02979845909591297</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04716050223246296</v>
+        <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06357149423903199</v>
+        <v>0.06157647191217469</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04700953247787491</v>
+        <v>0.05636194152957226</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09877940303466654</v>
+        <v>0.09519959160044555</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04691791193253717</v>
+        <v>0.05638256759623934</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03140137467563651</v>
+        <v>0.03155436834408291</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03140137467563651</v>
+        <v>0.03155436834408291</v>
       </c>
       <c r="K130" t="n">
-        <v>0.04789738507984519</v>
+        <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06656926156010362</v>
+        <v>0.06331230252933995</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0477440564228417</v>
+        <v>0.05724259686597183</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09979544416612801</v>
+        <v>0.09406251208105726</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04765100430648306</v>
+        <v>0.05726354521493059</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0318393247933853</v>
+        <v>0.03020300958468793</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0318393247933853</v>
+        <v>0.03020300958468793</v>
       </c>
       <c r="K131" t="n">
-        <v>0.04863426792722743</v>
+        <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06449712490282603</v>
+        <v>0.06354471101289277</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0484785803678085</v>
+        <v>0.05812325220237139</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09726782422359076</v>
+        <v>0.09328915488337647</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04838409668042896</v>
+        <v>0.05814452283362182</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03206147642223599</v>
+        <v>0.03015428258824515</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03206147642223599</v>
+        <v>0.03015428258824515</v>
       </c>
       <c r="K132" t="n">
-        <v>0.04937115077460966</v>
+        <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06699051138294609</v>
+        <v>0.06269396788478807</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04921310431277529</v>
+        <v>0.05900390753877096</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1017754769305271</v>
+        <v>0.09600398548178224</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04911718905437485</v>
+        <v>0.05902550045231306</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0317923457749679</v>
+        <v>0.03150246920421326</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0317923457749679</v>
+        <v>0.03150246920421326</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05010803362199189</v>
+        <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.06558418824226697</v>
+        <v>0.065182140199777</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04994762825774209</v>
+        <v>0.05988456287517052</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09815171980053217</v>
+        <v>0.09401032588042102</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04985028142832074</v>
+        <v>0.05990647807100431</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03249250493843002</v>
+        <v>0.03182448457695021</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03249250493843002</v>
+        <v>0.03182448457695021</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05084491646937413</v>
+        <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06461369357594338</v>
+        <v>0.06555880902148256</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05068215220270889</v>
+        <v>0.06076521821157009</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1017646440159425</v>
+        <v>0.09527420136264403</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05058337380226664</v>
+        <v>0.06078745568969554</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03257166718423356</v>
+        <v>0.03076888540840775</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03257166718423356</v>
+        <v>0.03076888540840775</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05158179931675636</v>
+        <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06574123504286938</v>
+        <v>0.06294051605927065</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05141667614767568</v>
+        <v>0.06164587354796967</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0999966367210553</v>
+        <v>0.09645112597359284</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05131646617621253</v>
+        <v>0.06166843330838678</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03265933121448016</v>
+        <v>0.03017524781939901</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03265933121448016</v>
+        <v>0.03017524781939901</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0523186821641386</v>
+        <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06467925717817477</v>
+        <v>0.06439466976862435</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05215120009264247</v>
+        <v>0.06252652888436923</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09978577273827555</v>
+        <v>0.09556372168991345</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05204955855015842</v>
+        <v>0.06254941092707803</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03263617407694178</v>
+        <v>0.03092190993290481</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03263617407694178</v>
+        <v>0.03092190993290481</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05305556501152082</v>
+        <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06749138206475835</v>
+        <v>0.0641690257735793</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05288572403760927</v>
+        <v>0.0634071842207688</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09833890203123208</v>
+        <v>0.0962489795294017</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05278265092410431</v>
+        <v>0.06343038854576925</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.0316463605895515</v>
+        <v>0.03099609485826522</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0316463605895515</v>
+        <v>0.03099609485826522</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05379244785890307</v>
+        <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06814340283866147</v>
+        <v>0.0628252615823125</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05362024798257607</v>
+        <v>0.06428783955716835</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1007799204912794</v>
+        <v>0.09488862149394894</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05351574329805021</v>
+        <v>0.0643113661644605</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03246638589391465</v>
+        <v>0.03202298352722059</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03246638589391465</v>
+        <v>0.03202298352722059</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05452933070628529</v>
+        <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06640249003465198</v>
+        <v>0.0630753538631853</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05435477192754286</v>
+        <v>0.06516849489356792</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1025517310917791</v>
+        <v>0.09842850956720689</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05424883567199611</v>
+        <v>0.06519234378315175</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03236821531262313</v>
+        <v>0.0312182224489059</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03236821531262313</v>
+        <v>0.0312182224489059</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05526621355366754</v>
+        <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06661232761197083</v>
+        <v>0.06444383611324875</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05508929587250965</v>
+        <v>0.06604915022996749</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1028191832981983</v>
+        <v>0.09770698549648871</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05498192804594199</v>
+        <v>0.06607332140184298</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03252573943806789</v>
+        <v>0.0319501761039914</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03252573943806789</v>
+        <v>0.0319501761039914</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05600309640104977</v>
+        <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0668422457792173</v>
+        <v>0.06303718680403025</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05582381981747644</v>
+        <v>0.06692980556636706</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0988547680805989</v>
+        <v>0.1012923719308744</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05571502041988789</v>
+        <v>0.06695429902053422</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03266607053818031</v>
+        <v>0.03113345288089181</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03266607053818031</v>
+        <v>0.03113345288089181</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05673997924843199</v>
+        <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06815938669271943</v>
+        <v>0.06333792016821066</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05655834376244325</v>
+        <v>0.06781046090276663</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1033551203999121</v>
+        <v>0.09741520810880411</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05644811279383379</v>
+        <v>0.06783527663922546</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03267435209498347</v>
+        <v>0.03219430311116565</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03267435209498347</v>
+        <v>0.03219430311116565</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05747686209581424</v>
+        <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06642984445997663</v>
+        <v>0.06483559501352093</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05729286770741004</v>
+        <v>0.0686911162391662</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09906014120883605</v>
+        <v>0.09780316914520748</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05718120516777967</v>
+        <v>0.06871625425791669</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03238165824647797</v>
+        <v>0.03108720819311653</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03238165824647797</v>
+        <v>0.03108720819311653</v>
       </c>
       <c r="K144" t="n">
-        <v>0.05821374494319646</v>
+        <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06901596461582873</v>
+        <v>0.06334542930530629</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05802739165237684</v>
+        <v>0.06957177157556575</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1006302433702327</v>
+        <v>0.1002336865748304</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05791429754172557</v>
+        <v>0.06959723187660793</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03225384599577066</v>
+        <v>0.03171291192693548</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03225384599577066</v>
+        <v>0.03171291192693548</v>
       </c>
       <c r="K145" t="n">
-        <v>0.05895062779057871</v>
+        <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06852537951892962</v>
+        <v>0.06574869215468893</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05876191559734363</v>
+        <v>0.07045242691196534</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1031937831631589</v>
+        <v>0.09777415105890924</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05864738991567147</v>
+        <v>0.07047820949529919</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03293085995328497</v>
+        <v>0.03222266681124912</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03293085995328497</v>
+        <v>0.03222266681124912</v>
       </c>
       <c r="K146" t="n">
-        <v>0.05968751063796093</v>
+        <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06602952571922113</v>
+        <v>0.06399630231043427</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05949643954231042</v>
+        <v>0.07133308224836489</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1016775895202005</v>
+        <v>0.09990690300562938</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05938048228961736</v>
+        <v>0.07135918711399042</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03233726765343177</v>
+        <v>0.03238037528968751</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03233726765343177</v>
+        <v>0.03238037528968751</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06042439348534318</v>
+        <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06865594386239118</v>
+        <v>0.06547196104648942</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06023096348727722</v>
+        <v>0.07221373758476446</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1019609813561175</v>
+        <v>0.09649199505108996</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06011357466356325</v>
+        <v>0.07224016473268166</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03249871180564566</v>
+        <v>0.0314533659091031</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03249871180564566</v>
+        <v>0.0314533659091031</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0611612763327254</v>
+        <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06690747390592774</v>
+        <v>0.06762038898098308</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06096548743224402</v>
+        <v>0.07309439292116403</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1006099515367377</v>
+        <v>0.1029683588094958</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06084666703750915</v>
+        <v>0.0731211423513729</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0326913112787932</v>
+        <v>0.03126189130689891</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0326913112787932</v>
+        <v>0.03126189130689891</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06189815918010763</v>
+        <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06790892899792017</v>
+        <v>0.06745717467354709</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06170001137721082</v>
+        <v>0.07397504825756358</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1012067753148623</v>
+        <v>0.1026904528793565</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06157975941145503</v>
+        <v>0.07400211997006413</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03233546171980844</v>
+        <v>0.03240102680665079</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03233546171980844</v>
+        <v>0.03240102680665079</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06263504202748987</v>
+        <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06715869466039395</v>
+        <v>0.06774424030752874</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06243453532217761</v>
+        <v>0.07485570359396317</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1005039705851919</v>
+        <v>0.1026195107704498</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06231285178540093</v>
+        <v>0.07488309758875537</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03211963147779395</v>
+        <v>0.03239277494699704</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03211963147779395</v>
+        <v>0.03239277494699704</v>
       </c>
       <c r="K151" t="n">
-        <v>0.0633719248748721</v>
+        <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06770011625763617</v>
+        <v>0.06837358562407284</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0631690592671444</v>
+        <v>0.07573635893036272</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1044094577945591</v>
+        <v>0.09688368498744493</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06304594415934683</v>
+        <v>0.07576407520744662</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03320064469215854</v>
+        <v>0.03251000443820005</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03320064469215854</v>
+        <v>0.03251000443820005</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06410880772225434</v>
+        <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0667099733908465</v>
+        <v>0.06757711405850125</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0639035832121112</v>
+        <v>0.07661701426676229</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1025378355363123</v>
+        <v>0.1002041551625998</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06377903653329271</v>
+        <v>0.07664505282613786</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03291707649176387</v>
+        <v>0.03276165246576415</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03291707649176387</v>
+        <v>0.03276165246576415</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06484569056963657</v>
+        <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.0674351052521964</v>
+        <v>0.06752925874365306</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06463810715707799</v>
+        <v>0.07749766960316186</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1051567682173015</v>
+        <v>0.1006847979862439</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06451212890723861</v>
+        <v>0.0775260304448291</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03283247723743329</v>
+        <v>0.03171659491587439</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03283247723743329</v>
+        <v>0.03171659491587439</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06558257341701881</v>
+        <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06780820240286906</v>
+        <v>0.06868692776730131</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06537263110204479</v>
+        <v>0.07837832493956143</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1049994476790533</v>
+        <v>0.101397142623246</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06524522128118451</v>
+        <v>0.07840700806352034</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03229696404709644</v>
+        <v>0.03235684736867764</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03229696404709644</v>
+        <v>0.03235684736867764</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06631945626440104</v>
+        <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06954839159320778</v>
+        <v>0.06814310082656266</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06610715504701159</v>
+        <v>0.079258980275961</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1014069960851112</v>
+        <v>0.102867059365011</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06597831365513039</v>
+        <v>0.07928798568221157</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03324312778101265</v>
+        <v>0.0320581446954382</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03324312778101265</v>
+        <v>0.0320581446954382</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06705633911178327</v>
+        <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06788774024613517</v>
+        <v>0.06814111896550681</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06684167899197839</v>
+        <v>0.08013963561236055</v>
       </c>
       <c r="N156" t="n">
-        <v>0.105620316855213</v>
+        <v>0.09948843171785088</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06671140602907628</v>
+        <v>0.08016896330090281</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03312251822146244</v>
+        <v>0.03175928789949703</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03312251822146244</v>
+        <v>0.03175928789949703</v>
       </c>
       <c r="K157" t="n">
-        <v>0.06779322195916551</v>
+        <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06783820887220585</v>
+        <v>0.06804615022161503</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06757620293694518</v>
+        <v>0.08102029094876012</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1035146927037094</v>
+        <v>0.1023746118221109</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06744449840302219</v>
+        <v>0.08104994091959405</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03340105465080624</v>
+        <v>0.03173999041542352</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03340105465080624</v>
+        <v>0.03173999041542352</v>
       </c>
       <c r="K158" t="n">
-        <v>0.06853010480654774</v>
+        <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.06878726107055533</v>
+        <v>0.0666852657432421</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06831072688191198</v>
+        <v>0.08190094628515969</v>
       </c>
       <c r="N158" t="n">
-        <v>0.105052827715754</v>
+        <v>0.1040701510140487</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06817759077696807</v>
+        <v>0.0819309185382853</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03257003616482403</v>
+        <v>0.0329991514972818</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03257003616482403</v>
+        <v>0.0329991514972818</v>
       </c>
       <c r="K159" t="n">
-        <v>0.06926698765392998</v>
+        <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0674240547858439</v>
+        <v>0.06658688309041297</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06904525082687876</v>
+        <v>0.08278160162155926</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1052995639871757</v>
+        <v>0.1004940525472481</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06891068315091398</v>
+        <v>0.08281189615697654</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03363099246733951</v>
+        <v>0.03330903370505606</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03363099246733951</v>
+        <v>0.03330903370505606</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07000387050131221</v>
+        <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06814227705971299</v>
+        <v>0.06492966849821552</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06977977477184556</v>
+        <v>0.08366225695795883</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1056121162024763</v>
+        <v>0.09915657451812682</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06964377552485987</v>
+        <v>0.08369287377566778</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03307311862911633</v>
+        <v>0.03356199523501852</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03307311862911633</v>
+        <v>0.03356199523501852</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07074075334869444</v>
+        <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.0669973307203981</v>
+        <v>0.06836032361496402</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07051429871681236</v>
+        <v>0.08454291229435838</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1035825963695434</v>
+        <v>0.1003214288788713</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07037686789880575</v>
+        <v>0.08457385139435901</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03354904477898341</v>
+        <v>0.03319001271147178</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03354904477898341</v>
+        <v>0.03319001271147178</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07147763619607668</v>
+        <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07025101321287597</v>
+        <v>0.06783487432673818</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07124882266177916</v>
+        <v>0.08542356763075795</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1041160330877757</v>
+        <v>0.1020614450750744</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07110996027275165</v>
+        <v>0.08545482901305025</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03306409879011128</v>
+        <v>0.03347453935066151</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03306409879011128</v>
+        <v>0.03347453935066151</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07221451904345891</v>
+        <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06992573509832301</v>
+        <v>0.06716008295640152</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07198334660674595</v>
+        <v>0.08630422296715752</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1063919641413879</v>
+        <v>0.1046579462015242</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07184305264669755</v>
+        <v>0.08633580663174149</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03302982307778893</v>
+        <v>0.03334329239516992</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03302982307778893</v>
+        <v>0.03334329239516992</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07295140189084115</v>
+        <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.0677792588104022</v>
+        <v>0.06927982827645041</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07271787055171275</v>
+        <v>0.08718487830355709</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1033475338087519</v>
+        <v>0.1054086799119643</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07257614502064344</v>
+        <v>0.08721678425043274</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03306022696557635</v>
+        <v>0.032338076451986</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03306022696557635</v>
+        <v>0.032338076451986</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07368828473822338</v>
+        <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06707711862439927</v>
+        <v>0.06643892942235552</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07345239449667954</v>
+        <v>0.08806553363995666</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1026437431061457</v>
+        <v>0.10541610773719</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07330923739458933</v>
+        <v>0.08809776186912398</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03274032626497539</v>
+        <v>0.03217186515189611</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03274032626497539</v>
+        <v>0.03217186515189611</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07442516758560562</v>
+        <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06904416036842032</v>
+        <v>0.06790774296867616</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07418691844164634</v>
+        <v>0.08894618897635623</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1060370782762378</v>
+        <v>0.1009008332132281</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07404232976853523</v>
+        <v>0.08897873948781522</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03316254987529642</v>
+        <v>0.03361437437749311</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03316254987529642</v>
+        <v>0.03361437437749311</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07516205043298785</v>
+        <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0687969906547132</v>
+        <v>0.06965078710199815</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07492144238661314</v>
+        <v>0.08982684431275578</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1051044843643041</v>
+        <v>0.1005116120537323</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07477542214248112</v>
+        <v>0.08985971710650646</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03260570174913356</v>
+        <v>0.03226471983223</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03260570174913356</v>
+        <v>0.03226471983223</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07589893328037008</v>
+        <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06742466245477857</v>
+        <v>0.0662770718702429</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07565596633157994</v>
+        <v>0.09070749964915537</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1040363179954174</v>
+        <v>0.1009986324809684</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07550851451642701</v>
+        <v>0.09074069472519769</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03376170988915379</v>
+        <v>0.03330885172405151</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03376170988915379</v>
+        <v>0.03330885172405151</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07663581612775232</v>
+        <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06833379593584452</v>
+        <v>0.06864138845988005</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07639049027654672</v>
+        <v>0.09158815498555492</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1033150528002983</v>
+        <v>0.101669813180364</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0762416068903729</v>
+        <v>0.09162167234388893</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03348047329166023</v>
+        <v>0.0328630969193222</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03348047329166023</v>
+        <v>0.0328630969193222</v>
       </c>
       <c r="K170" t="n">
-        <v>0.07737269897513455</v>
+        <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06880285034631953</v>
+        <v>0.06576636559876853</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07712501422151352</v>
+        <v>0.09246881032195449</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1068531425613096</v>
+        <v>0.1056947126123389</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07697469926431881</v>
+        <v>0.09250264996258017</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03360740652674322</v>
+        <v>0.03311540447781271</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03360740652674322</v>
+        <v>0.03311540447781271</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07810958182251677</v>
+        <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06818726100909031</v>
+        <v>0.06869407370537503</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07785953816648031</v>
+        <v>0.09334946565835406</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1038274346257663</v>
+        <v>0.1014913234709174</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07770779163826469</v>
+        <v>0.09338362758127142</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03316606264733675</v>
+        <v>0.0333167909678547</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03316606264733675</v>
+        <v>0.0333167909678547</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07884646466989902</v>
+        <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06757787313172034</v>
+        <v>0.06894155752390904</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07859406211144711</v>
+        <v>0.09423012099475363</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1067706275619116</v>
+        <v>0.106486247303132</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07844088401221058</v>
+        <v>0.09426460519996266</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03297432517081691</v>
+        <v>0.03351750880507605</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03297432517081691</v>
+        <v>0.03351750880507605</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07958334751728124</v>
+        <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06746274108199793</v>
+        <v>0.06730648640935208</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07932858605641391</v>
+        <v>0.0951107763311532</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1056531144864015</v>
+        <v>0.1027567755657761</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07917397638615649</v>
+        <v>0.0951455828186539</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03289921658839436</v>
+        <v>0.03381747234001678</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03289921658839436</v>
+        <v>0.03381747234001678</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08032023036466347</v>
+        <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06872769953672517</v>
+        <v>0.06896587287374056</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08006311000138071</v>
+        <v>0.09599143166755275</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1044567452939909</v>
+        <v>0.1046136738308906</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07990706876010237</v>
+        <v>0.09602656043734513</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03381948536102188</v>
+        <v>0.03354967303097012</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03381948536102188</v>
+        <v>0.03354967303097012</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08105711321204571</v>
+        <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0674899454232861</v>
+        <v>0.06831327448525673</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08079763394634749</v>
+        <v>0.09687208700395232</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1050759580332025</v>
+        <v>0.1020873211593461</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08064016113404826</v>
+        <v>0.09690753805603637</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03294014143607993</v>
+        <v>0.03286321154624232</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03294014143607993</v>
+        <v>0.03286321154624232</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08179399605942794</v>
+        <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06748937160599297</v>
+        <v>0.07040841545515458</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08153215789131429</v>
+        <v>0.09775274234035189</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1073291595581382</v>
+        <v>0.104116045158787</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08137325350799417</v>
+        <v>0.09778851567472761</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03287202040026277</v>
+        <v>0.03383649207870931</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03287202040026277</v>
+        <v>0.03383649207870931</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08253087890681017</v>
+        <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06828144999730554</v>
+        <v>0.06991397188445189</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08226668183628108</v>
+        <v>0.09863339767675146</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1044980434092512</v>
+        <v>0.1031925409569369</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08210634588194005</v>
+        <v>0.09866949329341886</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03395795933333498</v>
+        <v>0.03433275096783713</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03395795933333498</v>
+        <v>0.03433275096783713</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08326776175419241</v>
+        <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0681484099323082</v>
+        <v>0.06748954645321928</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08300120578124788</v>
+        <v>0.09951405301315103</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1033909118604522</v>
+        <v>0.1079674152051763</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08283943825588595</v>
+        <v>0.0995504709121101</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03315290147229988</v>
+        <v>0.03393512020012406</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03315290147229988</v>
+        <v>0.03393512020012406</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08400464460157464</v>
+        <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06729804756908075</v>
+        <v>0.07055616851134613</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08373572972621468</v>
+        <v>0.1003947083495506</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1062648125688339</v>
+        <v>0.1025547788167276</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08357253062983185</v>
+        <v>0.1004314485308013</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03383783178977255</v>
+        <v>0.03374476849620928</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03383783178977255</v>
+        <v>0.03374476849620928</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08474152744895688</v>
+        <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06759652786711234</v>
+        <v>0.06855216910014417</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08447025367118148</v>
+        <v>0.1012753636859502</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1042359740679007</v>
+        <v>0.1018689441434073</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08430562300377772</v>
+        <v>0.1013124261494926</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03373534402505848</v>
+        <v>0.03294337982300523</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03373534402505848</v>
+        <v>0.03294337982300523</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08547841029633911</v>
+        <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06955554847337325</v>
+        <v>0.06912132717316072</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08520477761614827</v>
+        <v>0.1021560190223497</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1077942755587639</v>
+        <v>0.1036483032602741</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08503871537772363</v>
+        <v>0.1021934037681838</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03291816531351485</v>
+        <v>0.0340293728920515</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03291816531351485</v>
+        <v>0.0340293728920515</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08621529314372134</v>
+        <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06934711313505504</v>
+        <v>0.06844220786971572</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08593930156111507</v>
+        <v>0.1030366743587493</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1085265448949528</v>
+        <v>0.1055896649165206</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08577180775166952</v>
+        <v>0.1030743813868751</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03413839098432767</v>
+        <v>0.0342453939905364</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03413839098432767</v>
+        <v>0.0342453939905364</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08695217599110358</v>
+        <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06892804064173214</v>
+        <v>0.06908182236735286</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08667382550608185</v>
+        <v>0.1039173296951489</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1031869989816283</v>
+        <v>0.1037498466781512</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0865049001256154</v>
+        <v>0.1039553590055663</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03333183441244852</v>
+        <v>0.03311210583954181</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03333183441244852</v>
+        <v>0.03311210583954181</v>
       </c>
       <c r="K184" t="n">
-        <v>0.08768905883848581</v>
+        <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07012188955467719</v>
+        <v>0.06907321445039227</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08740834945104865</v>
+        <v>0.1047979850315484</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1055022222167257</v>
+        <v>0.1020645561238232</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08723799249956131</v>
+        <v>0.1048363366242575</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03315194604827945</v>
+        <v>0.03324225516145521</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03315194604827945</v>
+        <v>0.03324225516145521</v>
       </c>
       <c r="K185" t="n">
-        <v>0.08842594168586805</v>
+        <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06856586551275112</v>
+        <v>0.07033068561719763</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08814287339601545</v>
+        <v>0.105678640367948</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1071169043256819</v>
+        <v>0.1042471430061091</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0879710848735072</v>
+        <v>0.1057173142429488</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03396158422657683</v>
+        <v>0.03389125421657656</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03396158422657683</v>
+        <v>0.03389125421657656</v>
       </c>
       <c r="K186" t="n">
-        <v>0.08916282453325028</v>
+        <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06982104013455462</v>
+        <v>0.06975625328575175</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08887739734098225</v>
+        <v>0.1065592957043476</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1078311059029771</v>
+        <v>0.1046223652024743</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08870417724745309</v>
+        <v>0.10659829186164</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03343592496107434</v>
+        <v>0.03301273201446267</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03343592496107434</v>
+        <v>0.03301273201446267</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08989970738063251</v>
+        <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06943990431728717</v>
+        <v>0.07118754561549454</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08961192128594904</v>
+        <v>0.1074399510407471</v>
       </c>
       <c r="N187" t="n">
-        <v>0.107678670312987</v>
+        <v>0.1066497647284875</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08943726962139899</v>
+        <v>0.1074792694803312</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0341698557015031</v>
+        <v>0.03380104525069592</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0341698557015031</v>
+        <v>0.03380104525069592</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09063659022801475</v>
+        <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06829224970211395</v>
+        <v>0.06998967042908077</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09034644523091584</v>
+        <v>0.1083206063771467</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1057223782515094</v>
+        <v>0.1048440002686725</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09017036199534488</v>
+        <v>0.1083602470990225</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03320930405112163</v>
+        <v>0.03388296840171247</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03320930405112163</v>
+        <v>0.03388296840171247</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09137347307539698</v>
+        <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06992055083346385</v>
+        <v>0.06896551998473271</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09108096917588263</v>
+        <v>0.1092012617135463</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1065964862138878</v>
+        <v>0.1032469159533762</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09090345436929077</v>
+        <v>0.1092412247177137</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03347999081470901</v>
+        <v>0.03439259898230104</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03347999081470901</v>
+        <v>0.03439259898230104</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09211035592277922</v>
+        <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06966237053893115</v>
+        <v>0.06916299647939575</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09181549312084943</v>
+        <v>0.1100819170499458</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1068036084210838</v>
+        <v>0.1030092688707048</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09163654674323667</v>
+        <v>0.110122202336405</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03317279166264922</v>
+        <v>0.03445876778093655</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03317279166264922</v>
+        <v>0.03445876778093655</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09284723877016145</v>
+        <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07098231382581821</v>
+        <v>0.06926133753034899</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09255001706581623</v>
+        <v>0.1109625723863454</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1042257267481689</v>
+        <v>0.1028745755566111</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09236963911718256</v>
+        <v>0.1110031799550962</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03380793380239179</v>
+        <v>0.03447254047626951</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03380793380239179</v>
+        <v>0.03447254047626951</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09358412161754369</v>
+        <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06829260878630272</v>
+        <v>0.07140921052436153</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09328454101078303</v>
+        <v>0.111843227722745</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1078576148177384</v>
+        <v>0.1083261577869492</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09310273149112845</v>
+        <v>0.1118841575737875</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03367682177843123</v>
+        <v>0.03448690429528826</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03367682177843123</v>
+        <v>0.03448690429528826</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09432100446492592</v>
+        <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06815186750401253</v>
+        <v>0.07155590923129812</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09401906495574981</v>
+        <v>0.1127238830591445</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1076446962390351</v>
+        <v>0.1028430384774194</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09383582386507434</v>
+        <v>0.1127651351924787</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03336004633785915</v>
+        <v>0.03374702208023353</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03336004633785915</v>
+        <v>0.03374702208023353</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09505788731230815</v>
+        <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06988782843428359</v>
+        <v>0.07115645100060625</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09475358890071661</v>
+        <v>0.1136045383955441</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1058755138746575</v>
+        <v>0.1025783349799614</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09456891623902024</v>
+        <v>0.1136461128111699</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03382578059656388</v>
+        <v>0.03424738488890308</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03382578059656388</v>
+        <v>0.03424738488890308</v>
       </c>
       <c r="K195" t="n">
-        <v>0.09579477015969039</v>
+        <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06981315175060698</v>
+        <v>0.07162288844067632</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0954881128456834</v>
+        <v>0.1144851937319437</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1056937213772318</v>
+        <v>0.1065418360835399</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09530200861296613</v>
+        <v>0.1145270904298612</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03320636945153622</v>
+        <v>0.03366495963025495</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03320636945153622</v>
+        <v>0.03366495963025495</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09653165300707262</v>
+        <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.067862571198993</v>
+        <v>0.07017604148037526</v>
       </c>
       <c r="M196" t="n">
-        <v>0.0962226367906502</v>
+        <v>0.1153658490683432</v>
       </c>
       <c r="N196" t="n">
-        <v>0.106127267348694</v>
+        <v>0.1053084367682428</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09603510098691202</v>
+        <v>0.1154080680485524</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03428299544490929</v>
+        <v>0.03431651439101957</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03428299544490929</v>
+        <v>0.03431651439101957</v>
       </c>
       <c r="K197" t="n">
-        <v>0.09726853585445486</v>
+        <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06874836859925385</v>
+        <v>0.07024364940726815</v>
       </c>
       <c r="M197" t="n">
-        <v>0.096957160735617</v>
+        <v>0.1162465044047428</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1066932342114006</v>
+        <v>0.1056475049114193</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09676819336085792</v>
+        <v>0.1162890456672436</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03325495373964485</v>
+        <v>0.03395120675695568</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03325495373964485</v>
+        <v>0.03395120675695568</v>
       </c>
       <c r="K198" t="n">
-        <v>0.09800541870183709</v>
+        <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06949036071205922</v>
+        <v>0.0685832693944739</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0976916846805838</v>
+        <v>0.1171271597411424</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1051417570418304</v>
+        <v>0.1084188219163049</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09750128573480381</v>
+        <v>0.1171700232859349</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03314690138089876</v>
+        <v>0.03465415541658302</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03314690138089876</v>
+        <v>0.03465415541658302</v>
       </c>
       <c r="K199" t="n">
-        <v>0.09874230154921933</v>
+        <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06821023220971476</v>
+        <v>0.06847866602469496</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09842620862555058</v>
+        <v>0.1180078150775419</v>
       </c>
       <c r="N199" t="n">
-        <v>0.105868561931312</v>
+        <v>0.1034608826427679</v>
       </c>
       <c r="O199" t="n">
-        <v>0.0982343781087497</v>
+        <v>0.1180510009046261</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03425920170646092</v>
+        <v>0.03398931631023792</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03425920170646092</v>
+        <v>0.03398931631023792</v>
       </c>
       <c r="K200" t="n">
-        <v>0.09947918439660156</v>
+        <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06909667761739963</v>
+        <v>0.07073818129719778</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09916073257051738</v>
+        <v>0.1188884704139415</v>
       </c>
       <c r="N200" t="n">
-        <v>0.106700620019494</v>
+        <v>0.1054761757877226</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09896747048269561</v>
+        <v>0.1189319785233174</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03318716539875169</v>
+        <v>0.0345400867656885</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03318716539875169</v>
+        <v>0.0345400867656885</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1002160672439838</v>
+        <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06981742450771675</v>
+        <v>0.06950493437585611</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09989525651548417</v>
+        <v>0.119769125750341</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1078303361030957</v>
+        <v>0.1071395319598425</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09970056285664149</v>
+        <v>0.1198129561420086</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03400475340312359</v>
+        <v>0.03419809735487696</v>
       </c>
       <c r="G202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03400475340312359</v>
+        <v>0.03419809735487696</v>
       </c>
       <c r="K202" t="n">
-        <v>0.100952950091366</v>
+        <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07042534019311933</v>
+        <v>0.07025606068752366</v>
       </c>
       <c r="M202" t="n">
-        <v>0.100629780460451</v>
+        <v>0.1206497810867406</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1076236906483822</v>
+        <v>0.1056314448166897</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1004336552305874</v>
+        <v>0.1206939337606999</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03408538763355165</v>
+        <v>0.03327993131045037</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03408538763355165</v>
+        <v>0.03327993131045037</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1016898329387483</v>
+        <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0701674663599316</v>
+        <v>0.07037483116910384</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1013643044054178</v>
+        <v>0.1215304364231402</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1069102024971409</v>
+        <v>0.1052693301290509</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1011667476045333</v>
+        <v>0.1215749113793911</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03443073438383347</v>
+        <v>0.0342324384333192</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03443073438383347</v>
+        <v>0.0342324384333192</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1024267157861305</v>
+        <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.0679491814224584</v>
+        <v>0.07133596641672066</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1020988283503846</v>
+        <v>0.1224110917595398</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1056822455093551</v>
+        <v>0.1071765629811611</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1018998399784792</v>
+        <v>0.1224558889980823</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03351084651577138</v>
+        <v>0.03396096048016037</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03351084651577138</v>
+        <v>0.03396096048016037</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1031635986335127</v>
+        <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06973243237865559</v>
+        <v>0.07102672024178563</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1028333522953514</v>
+        <v>0.1232917470959393</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1077124095298033</v>
+        <v>0.1042948242997989</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1026329323524251</v>
+        <v>0.1233368666167736</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03369001421496623</v>
+        <v>0.03467990998046819</v>
       </c>
       <c r="G206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03369001421496623</v>
+        <v>0.03467990998046819</v>
       </c>
       <c r="K206" t="n">
-        <v>0.103900481480895</v>
+        <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.070385890543533</v>
+        <v>0.06865247262285148</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1035678762403182</v>
+        <v>0.1241724024323389</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1079652100984059</v>
+        <v>0.1092351196487473</v>
       </c>
       <c r="O206" t="n">
-        <v>0.103366024726371</v>
+        <v>0.1242178442354648</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03411429446900914</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03411429446900914</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1046373643282772</v>
+        <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06893122872965368</v>
+        <v>0.0712141847396402</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1043024001852849</v>
+        <v>0.1250530577687385</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1054549499815353</v>
+        <v>0.1057592698702197</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1040991171003168</v>
+        <v>0.1250988218541561</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0333375790197437</v>
+        <v>0.03404860065807579</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0333375790197437</v>
+        <v>0.03404860065807579</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1053742471756594</v>
+        <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06850932100231893</v>
+        <v>0.0684646746702004</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1050369241302517</v>
+        <v>0.125933713105138</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1080270932266681</v>
+        <v>0.1060305312548913</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1048322094742627</v>
+        <v>0.1259797994728473</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03437567659421863</v>
+        <v>0.03368860687472564</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03437567659421863</v>
+        <v>0.03368860687472564</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1061111300230416</v>
+        <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06979694083543883</v>
+        <v>0.0703703738865136</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1057714480752185</v>
+        <v>0.1268143684415376</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1031941602905302</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1055653018482086</v>
+        <v>0.1268607770915385</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03341849757570238</v>
+        <v>0.03367501523611773</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03341849757570238</v>
+        <v>0.03367501523611773</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1068480128704239</v>
+        <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06946772063841763</v>
+        <v>0.07114165421077645</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1065059720201853</v>
+        <v>0.1276950237779371</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1058812374946829</v>
+        <v>0.1081067554835008</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1062983942221545</v>
+        <v>0.1277417547102298</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03421621959345951</v>
+        <v>0.03382143232780765</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03421621959345951</v>
+        <v>0.03382143232780765</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1075848957178061</v>
+        <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06951384389496562</v>
+        <v>0.06996730223841283</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1072404959651521</v>
+        <v>0.1285756791143367</v>
       </c>
       <c r="N211" t="n">
-        <v>0.105644729553649</v>
+        <v>0.1087623294924603</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1070314865961004</v>
+        <v>0.128622732328921</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03343698578227598</v>
+        <v>0.03448343369472825</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03343698578227598</v>
+        <v>0.03448343369472825</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1083217785651884</v>
+        <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0700457082701241</v>
+        <v>0.07107949944180886</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1079750199101189</v>
+        <v>0.1294563344507363</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1073573724032481</v>
+        <v>0.1054943069932442</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1077645789700463</v>
+        <v>0.1295037099476122</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03406505235422175</v>
+        <v>0.03360044150605671</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03406505235422175</v>
+        <v>0.03360044150605671</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1090586614125706</v>
+        <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06849951302866719</v>
+        <v>0.07100819692605423</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1087095438550857</v>
+        <v>0.1303369897871358</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1086998651533522</v>
+        <v>0.1072351072487041</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1084976713439922</v>
+        <v>0.1303846875663035</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03415353433495392</v>
+        <v>0.03394631533776767</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03415353433495392</v>
+        <v>0.03394631533776767</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1097955442599528</v>
+        <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07061047342931337</v>
+        <v>0.07022961427414226</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1094440678000525</v>
+        <v>0.1312176451235354</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1084545129581189</v>
+        <v>0.1029638410682823</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1092307637179381</v>
+        <v>0.1312656651849947</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03400737889670212</v>
+        <v>0.0341212027369385</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03400737889670212</v>
+        <v>0.0341212027369385</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1105324271073351</v>
+        <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0700623589588745</v>
+        <v>0.07270041714675246</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1101785917450193</v>
+        <v>0.132098300459935</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1065296149828508</v>
+        <v>0.1077767214877655</v>
       </c>
       <c r="O215" t="n">
-        <v>0.109963856091884</v>
+        <v>0.132146642803686</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03311466888246783</v>
+        <v>0.0337167570659319</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03311466888246783</v>
+        <v>0.0337167570659319</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1112693099547173</v>
+        <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07059663089226684</v>
+        <v>0.0713056105565954</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1109131156899861</v>
+        <v>0.1329789557963346</v>
       </c>
       <c r="N216" t="n">
-        <v>0.107431337239119</v>
+        <v>0.1104959676273157</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1106969484658299</v>
+        <v>0.1330276204223772</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03386886222371377</v>
+        <v>0.03427714357518823</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03386886222371377</v>
+        <v>0.03427714357518823</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1120061928020995</v>
+        <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06971496110000164</v>
+        <v>0.0698158287017176</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1116476396349529</v>
+        <v>0.1338596111327341</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1065055217753744</v>
+        <v>0.1075444514652581</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1114300408397758</v>
+        <v>0.1339085980410684</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03459800108215901</v>
+        <v>0.03380444684326497</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03459800108215901</v>
+        <v>0.03380444684326497</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1127430756494818</v>
+        <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06840674785374301</v>
+        <v>0.0696347005397514</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1123821635799197</v>
+        <v>0.1347402664691337</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1086682995912585</v>
+        <v>0.1047257159438589</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1121631332137217</v>
+        <v>0.1347895756597597</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03360783248106844</v>
+        <v>0.03434774007956393</v>
       </c>
       <c r="G219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03360783248106844</v>
+        <v>0.03434774007956393</v>
       </c>
       <c r="K219" t="n">
-        <v>0.113479958496864</v>
+        <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07057158436301017</v>
+        <v>0.07031203320364962</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1131166875248865</v>
+        <v>0.1356209218055333</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1068779815229606</v>
+        <v>0.1083947023549131</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1128962255876676</v>
+        <v>0.1356705532784509</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03352170404204621</v>
+        <v>0.03355180836588514</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03352170404204621</v>
+        <v>0.03355180836588514</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1142168413442462</v>
+        <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06959874084131151</v>
+        <v>0.06872407730456337</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1138512114698533</v>
+        <v>0.1365015771419328</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1099224674160847</v>
+        <v>0.106361169430542</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1136293179616135</v>
+        <v>0.1365515308971422</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03371147878402746</v>
+        <v>0.03386799852304098</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03371147878402746</v>
+        <v>0.03386799852304098</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1149537241916285</v>
+        <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06806438212970678</v>
+        <v>0.06946683466359813</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1145857354148201</v>
+        <v>0.1373822324783324</v>
       </c>
       <c r="N221" t="n">
-        <v>0.108306030259512</v>
+        <v>0.1071463513739256</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1143624103355593</v>
+        <v>0.1374325085158334</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03420729076686668</v>
+        <v>0.03434600125577192</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03420729076686668</v>
+        <v>0.03434600125577192</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1156906070390107</v>
+        <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06983735358171789</v>
+        <v>0.07087477577878429</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1153202593597869</v>
+        <v>0.1382628878147319</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1099428987358141</v>
+        <v>0.1096413458995643</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1150955027095053</v>
+        <v>0.1383134861345247</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03333689757920603</v>
+        <v>0.03431679966027609</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03333689757920603</v>
+        <v>0.03431679966027609</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1164274898863929</v>
+        <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07155500898712</v>
+        <v>0.06978260575047376</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1160547833047537</v>
+        <v>0.1391435431511315</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1067392961856315</v>
+        <v>0.1100182671852935</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1158285950834511</v>
+        <v>0.1391944637532159</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03395574516938552</v>
+        <v>0.03426606766468245</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03395574516938552</v>
+        <v>0.03426606766468245</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1171643727337752</v>
+        <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07025365040776241</v>
+        <v>0.06894260893550866</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1167893072497205</v>
+        <v>0.1400241984875311</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1070348966816452</v>
+        <v>0.1037846871315216</v>
       </c>
       <c r="O224" t="n">
-        <v>0.116561687457397</v>
+        <v>0.1400754413719071</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03383849496522501</v>
+        <v>0.03519318160499524</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03383849496522501</v>
+        <v>0.03519318160499524</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1179012555811574</v>
+        <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07078934712587504</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1175238311946873</v>
+        <v>0.1409048538239307</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1048432889780353</v>
+        <v>0.1086974092862802</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1172947798313429</v>
+        <v>0.1409564189905984</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03417068431898278</v>
+        <v>0.03375302176348864</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03417068431898278</v>
+        <v>0.03375302176348864</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1186381384285396</v>
+        <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06864430267343749</v>
+        <v>0.06930787154706317</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1182583551396541</v>
+        <v>0.1417855091603302</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1053590444391713</v>
+        <v>0.1108102329572662</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1180278722052888</v>
+        <v>0.1418373966092896</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0344827428892638</v>
+        <v>0.03396503792076262</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0344827428892638</v>
+        <v>0.03396503792076262</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1193750212759219</v>
+        <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06986448295971331</v>
+        <v>0.07014728501790662</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1189928790846208</v>
+        <v>0.1426661644967298</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1074283949796103</v>
+        <v>0.1104529939450521</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1187609645792347</v>
+        <v>0.1427183742279808</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03442808994617981</v>
+        <v>0.03412452417852611</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03442808994617981</v>
+        <v>0.03412452417852611</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1201119041233041</v>
+        <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.071172329080984</v>
+        <v>0.06930449976698863</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1197274030295876</v>
+        <v>0.1435468198331293</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1083822993945595</v>
+        <v>0.1074578053189308</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1194940569531806</v>
+        <v>0.1435993518466721</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03357974402956718</v>
+        <v>0.03410756911381517</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03357974402956718</v>
+        <v>0.03410756911381517</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1208487869706864</v>
+        <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06969591292795926</v>
+        <v>0.0730687493549515</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1204619269745544</v>
+        <v>0.1444274751695289</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1089950239602301</v>
+        <v>0.1041742475675237</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1202271493271265</v>
+        <v>0.1444803294653633</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03462400195412131</v>
+        <v>0.03452049778444294</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03462400195412131</v>
+        <v>0.03452049778444294</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1215856698180686</v>
+        <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06950550967470831</v>
+        <v>0.07073962634308573</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1211964509195212</v>
+        <v>0.1453081305059285</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1080665093690978</v>
+        <v>0.1113350553209323</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1209602417010724</v>
+        <v>0.1453613070840546</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.0337176075650962</v>
+        <v>0.03513807270275988</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0337176075650962</v>
+        <v>0.03513807270275988</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1223225526654508</v>
+        <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06924661530114973</v>
+        <v>0.07085910511552077</v>
       </c>
       <c r="M231" t="n">
-        <v>0.121930974864488</v>
+        <v>0.1461887858423281</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1064864545074388</v>
+        <v>0.1060008725282998</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1216933340750183</v>
+        <v>0.1462422847027458</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03400063113348813</v>
+        <v>0.0343024614319405</v>
       </c>
       <c r="G232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03400063113348813</v>
+        <v>0.0343024614319405</v>
       </c>
       <c r="K232" t="n">
-        <v>0.123059435512833</v>
+        <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0700171772595507</v>
+        <v>0.07171902067430713</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1226654988094548</v>
+        <v>0.1470694411787276</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1102270252140078</v>
+        <v>0.1107098403801614</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1224264264489642</v>
+        <v>0.147123262321437</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03419633314293349</v>
+        <v>0.03411155699891229</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03419633314293349</v>
+        <v>0.03411155699891229</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1237963183602153</v>
+        <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06992067003616664</v>
+        <v>0.07147072864040441</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1234000227544216</v>
+        <v>0.1479500965151272</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1092671831632206</v>
+        <v>0.1101521510789975</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1231595188229101</v>
+        <v>0.1480042399401283</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03479926141571929</v>
+        <v>0.03518583311477853</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03479926141571929</v>
+        <v>0.03518583311477853</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1245332012075975</v>
+        <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07145610865307775</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1241345466993884</v>
+        <v>0.1488307518515267</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1072607607392205</v>
+        <v>0.1080576959129</v>
       </c>
       <c r="O234" t="n">
-        <v>0.123892611196856</v>
+        <v>0.1488852175588195</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03409801244446249</v>
+        <v>0.03454519059234853</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03409801244446249</v>
+        <v>0.03454519059234853</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1252700840549797</v>
+        <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07165180014853245</v>
+        <v>0.07083030707784235</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1248690706443552</v>
+        <v>0.1497114071879263</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1058055390494081</v>
+        <v>0.1069370050626354</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1246257035708019</v>
+        <v>0.1497661951775107</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03369516958469407</v>
+        <v>0.03397344306290816</v>
       </c>
       <c r="G236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03369516958469407</v>
+        <v>0.03397344306290816</v>
       </c>
       <c r="K236" t="n">
-        <v>0.126006966902362</v>
+        <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06984599241811545</v>
+        <v>0.07338349442423328</v>
       </c>
       <c r="M236" t="n">
-        <v>0.125603594589322</v>
+        <v>0.1505920625243259</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1073683393539226</v>
+        <v>0.1111455611744138</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1253587959447477</v>
+        <v>0.150647172796202</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03351631308065053</v>
+        <v>0.03526923250874597</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03351631308065053</v>
+        <v>0.03526923250874597</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1267438497497442</v>
+        <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06961876656213895</v>
+        <v>0.06939607526818053</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1263381185342888</v>
+        <v>0.1514727178607254</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1074129239436057</v>
+        <v>0.1045745798440673</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1260918883186937</v>
+        <v>0.1515281504148932</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03456060714582443</v>
+        <v>0.03402702542785427</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03456060714582443</v>
+        <v>0.03402702542785427</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1274807325971264</v>
+        <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07013695915598853</v>
+        <v>0.06984272226678068</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1270726424792556</v>
+        <v>0.152353373197125</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1052645513240832</v>
+        <v>0.107801853345171</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1268249806926395</v>
+        <v>0.1524091280335845</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03439035100449912</v>
+        <v>0.03486796909701705</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03439035100449912</v>
+        <v>0.03486796909701705</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1282176154445087</v>
+        <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07128357145893605</v>
+        <v>0.07060896497933947</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1278071664242224</v>
+        <v>0.1532340285335246</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1051470272299523</v>
+        <v>0.1049696954949626</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1275580730665854</v>
+        <v>0.1532901056522757</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03400861345531782</v>
+        <v>0.03472512856852501</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03400861345531782</v>
+        <v>0.03472512856852501</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1289544982918909</v>
+        <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0694544699766185</v>
+        <v>0.07130900610739563</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1285416903691892</v>
+        <v>0.1541146838699242</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1083375810879649</v>
+        <v>0.1114198296490921</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1282911654405313</v>
+        <v>0.154171083270967</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03441596176115129</v>
+        <v>0.03464295533109626</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03441596176115129</v>
+        <v>0.03464295533109626</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1296913811392731</v>
+        <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07040426522013396</v>
+        <v>0.07179748455313234</v>
       </c>
       <c r="M241" t="n">
-        <v>0.129276214314156</v>
+        <v>0.1549953392063237</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1074992040254664</v>
+        <v>0.1079502566014826</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1290242578144772</v>
+        <v>0.1550520608896582</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03410873763143292</v>
+        <v>0.03477772969188649</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03410873763143292</v>
+        <v>0.03477772969188649</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1304282639866554</v>
+        <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07141998207374076</v>
+        <v>0.07021222883204659</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1300107382591228</v>
+        <v>0.1558759945427233</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1054753982367694</v>
+        <v>0.10783458892462</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1297573501884231</v>
+        <v>0.1559330385083494</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0344561919739514</v>
+        <v>0.03488807638231226</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0344561919739514</v>
+        <v>0.03488807638231226</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1311651468340376</v>
+        <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07212465942602639</v>
+        <v>0.07315006153298645</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1307452622040896</v>
+        <v>0.1567566498791229</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1087939795882462</v>
+        <v>0.1056292174012922</v>
       </c>
       <c r="O243" t="n">
-        <v>0.130490442562369</v>
+        <v>0.1568140161270407</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03384577920687282</v>
+        <v>0.03409387856849706</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03384577920687282</v>
+        <v>0.03409387856849706</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1319020296814198</v>
+        <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07108172170781507</v>
+        <v>0.07333702845235668</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1314797861490564</v>
+        <v>0.1576373052155224</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1073083036899943</v>
+        <v>0.1110905858885771</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1312235349363149</v>
+        <v>0.1576949937457319</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03452413012150475</v>
+        <v>0.03531658870991922</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03452413012150475</v>
+        <v>0.03531658870991922</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1326389125288021</v>
+        <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07175566115262633</v>
+        <v>0.07170373073167174</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1322143100940232</v>
+        <v>0.158517960551922</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1054636725124709</v>
+        <v>0.1105872926983347</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1319566273102608</v>
+        <v>0.1585759713644231</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03396756648973435</v>
+        <v>0.0350881385425113</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03396756648973435</v>
+        <v>0.0350881385425113</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1333757953761843</v>
+        <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06959484285354073</v>
+        <v>0.0730752749129876</v>
       </c>
       <c r="M246" t="n">
-        <v>0.13294883403899</v>
+        <v>0.1593986158883215</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1066450769636899</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1326897196842067</v>
+        <v>0.1594569489831144</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03403958581845877</v>
+        <v>0.03417663717797777</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03403958581845877</v>
+        <v>0.03417663717797777</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1341126782235665</v>
+        <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07010052399843653</v>
+        <v>0.07352587683883582</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1336833579839568</v>
+        <v>0.1602792712247211</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1073208685642862</v>
+        <v>0.1060152925234589</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1334228120581526</v>
+        <v>0.1603379266018056</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03358973624251371</v>
+        <v>0.03529656894595051</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03358973624251371</v>
+        <v>0.03529656894595051</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1348495610709488</v>
+        <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06938094087152658</v>
+        <v>0.07035851511313915</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1344178819289236</v>
+        <v>0.1611599265611207</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1059319278893902</v>
+        <v>0.1105551236192681</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1341559044320985</v>
+        <v>0.1612189042204969</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03496469105232611</v>
+        <v>0.034026405928561</v>
       </c>
       <c r="G249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03496469105232611</v>
+        <v>0.034026405928561</v>
       </c>
       <c r="K249" t="n">
-        <v>0.135586443918331</v>
+        <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07071948071957102</v>
+        <v>0.0717607714540521</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1351524058738904</v>
+        <v>0.1620405818975202</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1104754193541064</v>
+        <v>0.1059977976054386</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1348889968060444</v>
+        <v>0.1620998818391881</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0342420660596618</v>
+        <v>0.03529657770134771</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0342420660596618</v>
+        <v>0.03529657770134771</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1363233267657132</v>
+        <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07000823944758428</v>
+        <v>0.07361849177833737</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1358869298188571</v>
+        <v>0.1629212372339198</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1065774154444435</v>
+        <v>0.1094687623264457</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1356220891799903</v>
+        <v>0.1629808594578794</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03483955260674734</v>
+        <v>0.03563928513418768</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03483955260674734</v>
+        <v>0.03563928513418768</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1370602096130955</v>
+        <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07047147783097299</v>
+        <v>0.07050279223660655</v>
       </c>
       <c r="M251" t="n">
-        <v>0.136621453763824</v>
+        <v>0.1638018925703194</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1090737256456992</v>
+        <v>0.1089233615353091</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1363551815539361</v>
+        <v>0.1638618370765706</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03496427340922574</v>
+        <v>0.03548815611723154</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03496427340922574</v>
+        <v>0.03548815611723154</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1377970924604777</v>
+        <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06990695991908227</v>
+        <v>0.07311280955903854</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1373559777087907</v>
+        <v>0.1646825479067189</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1058629517194866</v>
+        <v>0.1102509442490586</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1370882739278821</v>
+        <v>0.1647428146952618</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03477209351814629</v>
+        <v>0.03512901570684132</v>
       </c>
       <c r="G253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03477209351814629</v>
+        <v>0.03512901570684132</v>
       </c>
       <c r="K253" t="n">
-        <v>0.13853397530786</v>
+        <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07050417814676377</v>
+        <v>0.06974018517607644</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1380905016537575</v>
+        <v>0.1655632032431185</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1067274547854403</v>
+        <v>0.1095768947756425</v>
       </c>
       <c r="O253" t="n">
-        <v>0.137821366301828</v>
+        <v>0.1656237923139531</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03468319750388274</v>
+        <v>0.03457876056264192</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03468319750388274</v>
+        <v>0.03457876056264192</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1392708581552422</v>
+        <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06969330591120729</v>
+        <v>0.0711161826500033</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1388250255987243</v>
+        <v>0.1664438585795181</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1070939908108764</v>
+        <v>0.1074217148134742</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1385544586757738</v>
+        <v>0.1665047699326443</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03397341001278682</v>
+        <v>0.03444970667743651</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03397341001278682</v>
+        <v>0.03444970667743651</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1400077410026244</v>
+        <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06989332641855145</v>
+        <v>0.07238077303250032</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1395595495436911</v>
+        <v>0.1673245139159177</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1080862412122307</v>
+        <v>0.1100168036295446</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1392875510497197</v>
+        <v>0.1673857475513356</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03422865184179187</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03422865184179187</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1407446238500066</v>
+        <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07176577554241645</v>
+        <v>0.07209008856517418</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1402940734886579</v>
+        <v>0.1682051692523172</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1107583418279849</v>
+        <v>0.1093229037993426</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1400206434236656</v>
+        <v>0.1682667251700268</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0347203088171939</v>
+        <v>0.03511386959799959</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="J257" t="n">
-        <v>0.0347203088171939</v>
+        <v>0.03511386959799959</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1414815066973889</v>
+        <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06927020266932837</v>
+        <v>0.06956678109000541</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1410285974336247</v>
+        <v>0.1690858245887168</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1065767726966949</v>
+        <v>0.1062984893072267</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1407537357976115</v>
+        <v>0.169147702788718</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03468222925368322</v>
+        <v>0.0349984259712781</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03468222925368322</v>
+        <v>0.0349984259712781</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1422183895447711</v>
+        <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06933667647678052</v>
+        <v>0.07128320614118827</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1417631213785915</v>
+        <v>0.1699664799251163</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1079556354866494</v>
+        <v>0.1090945061759576</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1414868281715574</v>
+        <v>0.1700286804074093</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03476292171899509</v>
+        <v>0.03520327781221211</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03476292171899509</v>
+        <v>0.03520327781221211</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1429552723921534</v>
+        <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07125660626753255</v>
+        <v>0.07319868550974168</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1424976453235583</v>
+        <v>0.1708471352615159</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1094370300782863</v>
+        <v>0.1108040692638907</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1422199205455033</v>
+        <v>0.1709096580261005</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03437015773965008</v>
+        <v>0.03500843592171111</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03437015773965008</v>
+        <v>0.03500843592171111</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1436921552395356</v>
+        <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07035788942269722</v>
+        <v>0.07219338873779765</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1432321692685251</v>
+        <v>0.1717277905979155</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1065961442067619</v>
+        <v>0.1056432811589657</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1429530129194492</v>
+        <v>0.1717906356447918</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03466676733763771</v>
+        <v>0.03465086936924429</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03466676733763771</v>
+        <v>0.03465086936924429</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1444290380869178</v>
+        <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0694700662923507</v>
+        <v>0.06972182785332481</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1439666932134919</v>
+        <v>0.172608445934315</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1056246155153046</v>
+        <v>0.1113025250907853</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1436861052933951</v>
+        <v>0.172671613263483</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03435030746538112</v>
+        <v>0.03407082033728073</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03435030746538112</v>
+        <v>0.03407082033728073</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1451659209343001</v>
+        <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07006955653102043</v>
+        <v>0.07138975120333743</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1447012171584587</v>
+        <v>0.1734891012707146</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1064229951056077</v>
+        <v>0.1109117456294483</v>
       </c>
       <c r="O262" t="n">
-        <v>0.144419197667341</v>
+        <v>0.1735525908821742</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03530376186087446</v>
+        <v>0.03540705004857243</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03530376186087446</v>
+        <v>0.03540705004857243</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1459028037816823</v>
+        <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07019285054117969</v>
+        <v>0.07337898923550243</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1454357411034255</v>
+        <v>0.1743697566071142</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1096885319573832</v>
+        <v>0.1055916935958375</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1451522900412869</v>
+        <v>0.1744335685008655</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03444097569159921</v>
+        <v>0.03416068580507793</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03444097569159921</v>
+        <v>0.03416068580507793</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1466396866290645</v>
+        <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07044864365611186</v>
+        <v>0.07329021157458565</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1461702650483923</v>
+        <v>0.1752504119435137</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1053052465706653</v>
+        <v>0.1060129807918278</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1458853824152328</v>
+        <v>0.1753145461195567</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1068.xlsx
+++ b/prot/356379915/ООО Регионстрой/Трехосные_КД_ПП/1068.xlsx
@@ -4882,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
@@ -8805,7 +8805,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.06746816462443581</v>
+        <v>0.1006139320975862</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9252,10 +9252,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9270,29 +9270,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>3.499999999999337e-05</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>3.499999999999337e-05</v>
+        <v>-8.99999999999998e-05</v>
       </c>
       <c r="K65" s="171" t="n">
         <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.01728604797491129</v>
+        <v>0.01476516597857006</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0003590014190976422</v>
+        <v>0.0003066470454792361</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.02291395481383174</v>
+        <v>0.02564180657738313</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.000332083811002473</v>
+        <v>0.0003798757668716118</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9312,17 +9312,17 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.009083445604706614</v>
+        <v>0.009534698318798336</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006055584985909719</v>
+        <v>0.0005561715176697933</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.009083445604706614</v>
+        <v>0.008908763958462261</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006055584985909719</v>
+        <v>0.0005939131428488382</v>
       </c>
       <c r="L66" s="172" t="n">
         <v>0.03601259994773187</v>
@@ -9334,7 +9334,7 @@
         <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001186013610723118</v>
+        <v>0.001212369468739187</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9352,10 +9352,10 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.01816121240506933</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001746803361320112</v>
+        <v>0.001112343035339587</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
@@ -9365,16 +9365,16 @@
         <v>0.001746803361320112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03653679942721627</v>
+        <v>0.03610857067395279</v>
       </c>
       <c r="M67" s="170" t="n">
         <v>0.001761310672799133</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05947567016451488</v>
+        <v>0.05860169336810173</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00176195523738248</v>
+        <v>0.001762220120377616</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9394,29 +9394,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01810253063790158</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00265138697291689</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01810253063790158</v>
+        <v>0.0187598650494499</v>
       </c>
       <c r="K68" s="171" t="n">
         <v>0.00265138697291689</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03825896940459994</v>
+        <v>0.03839411864120762</v>
       </c>
       <c r="M68" s="170" t="n">
         <v>0.002641966009198699</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05940770088254682</v>
+        <v>0.05977267454789859</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002642932856073719</v>
+        <v>0.002643330180566424</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9441,29 +9441,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01909621121954354</v>
+        <v>0.0308831288469745</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003535182630555853</v>
+        <v>0.002224686070679173</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01909621121954354</v>
+        <v>0.01887396396568435</v>
       </c>
       <c r="K69" s="171" t="n">
         <v>0.003535182630555853</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04184297436613127</v>
+        <v>0.04284901505705313</v>
       </c>
       <c r="M69" s="170" t="n">
         <v>0.003522621345598266</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05976484877775873</v>
+        <v>0.06311496930222882</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003523910474764959</v>
+        <v>0.003524440240755232</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9478,62 +9478,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006055584985909719</v>
+        <v>0.001687118416436514</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009083445604706614</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02093428684850127</v>
+        <v>0.03644359093644176</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004418978288194817</v>
+        <v>0.002780857588348967</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02093428684850127</v>
+        <v>0.02042807148856346</v>
       </c>
       <c r="K70" s="171" t="n">
         <v>0.004418978288194817</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04195752314566698</v>
+        <v>0.04261899348614887</v>
       </c>
       <c r="M70" s="170" t="n">
         <v>0.004403276681997833</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06495348935545953</v>
+        <v>0.06246679956648249</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004404888093456199</v>
+        <v>0.004405550300944039</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02133886170228329</v>
+        <v>0.04149206577244127</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00530277394583378</v>
+        <v>0.00333702910601876</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02133886170228329</v>
+        <v>0.02063628617659045</v>
       </c>
       <c r="K71" s="171" t="n">
         <v>0.00530277394583378</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04359673902339151</v>
+        <v>0.04489673721635734</v>
       </c>
       <c r="M71" s="170" t="n">
         <v>0.005283932018397399</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06565411215704497</v>
+        <v>0.06972927804250384</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.005285865712147438</v>
+        <v>0.005286660361132847</v>
       </c>
     </row>
     <row r="72">
@@ -9548,29 +9548,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02147921338196987</v>
+        <v>0.04572541325551524</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.006186569603472743</v>
+        <v>0.003893200623688553</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02147921338196987</v>
+        <v>0.0222723026729849</v>
       </c>
       <c r="K72" s="171" t="n">
         <v>0.006186569603472743</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04757505739459492</v>
+        <v>0.0476577753639687</v>
       </c>
       <c r="M72" s="170" t="n">
         <v>0.006164587354796966</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06817820467784208</v>
+        <v>0.07160260363496718</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.006166843330838678</v>
+        <v>0.006167770421321655</v>
       </c>
     </row>
     <row r="73">
@@ -9594,29 +9594,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02184593608771458</v>
+        <v>0.04884049328620589</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.007070365261111706</v>
+        <v>0.004449372141358346</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02184593608771458</v>
+        <v>0.02268842629646578</v>
       </c>
       <c r="K73" s="171" t="n">
         <v>0.007070365261111706</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04843699099206991</v>
+        <v>0.04857204596052417</v>
       </c>
       <c r="M73" s="170" t="n">
         <v>0.007045242691196532</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07002296688856302</v>
+        <v>0.06896943156041713</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.007047820949529918</v>
+        <v>0.007048880481510463</v>
       </c>
     </row>
     <row r="74">
@@ -9631,29 +9631,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02263775112950973</v>
+        <v>0.05061393209758616</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007954160918750669</v>
+        <v>0.005061355249309544</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02263775112950973</v>
+        <v>0.02335718905647038</v>
       </c>
       <c r="K74" s="171" t="n">
         <v>0.007954160918750669</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04846197336567257</v>
+        <v>0.04704748655800464</v>
       </c>
       <c r="M74" s="170" t="n">
         <v>0.0079258980275961</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.07569986942113244</v>
+        <v>0.0742846655997233</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007928798568221157</v>
+        <v>0.007929990541699272</v>
       </c>
     </row>
     <row r="75">
@@ -9675,29 +9675,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02308530600024655</v>
+        <v>0.05124516877195633</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008837956576389633</v>
+        <v>0.005561715176697933</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02308530600024655</v>
+        <v>0.02379639615839481</v>
       </c>
       <c r="K75" s="171" t="n">
         <v>0.008837956576389633</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04774796435238993</v>
+        <v>0.04756557087095417</v>
       </c>
       <c r="M75" s="170" t="n">
         <v>0.008806553363995667</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07388023385409087</v>
+        <v>0.07759441468766975</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008809776186912399</v>
+        <v>0.008811100601888078</v>
       </c>
     </row>
     <row r="76">
@@ -9717,29 +9717,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02362174444600822</v>
+        <v>0.05193486225656946</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009721752234028597</v>
+        <v>0.006117886694367726</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02362174444600822</v>
+        <v>0.02364671148562084</v>
       </c>
       <c r="K76" s="171" t="n">
         <v>0.009721752234028597</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05025802035378504</v>
+        <v>0.05063415509945762</v>
       </c>
       <c r="M76" s="170" t="n">
         <v>0.009687208700395232</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07677367812188574</v>
+        <v>0.07750005011488315</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009690753805603637</v>
+        <v>0.009692210662076886</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9754,28 +9754,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02457414397211108</v>
+        <v>0.05261207473045341</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01060554789166756</v>
+        <v>0.00667405821203752</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02457414397211108</v>
+        <v>0.02380108184216176</v>
       </c>
       <c r="K77" t="n">
         <v>0.01060554789166756</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0522460978343067</v>
+        <v>0.05107850605453915</v>
       </c>
       <c r="M77" t="n">
         <v>0.0105678640367948</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07509341007756948</v>
+        <v>0.07503787542248469</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01057173142429488</v>
+        <v>0.01057332072226569</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9794,28 +9794,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02464088518792898</v>
+        <v>0.05327691334593873</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01148934354930652</v>
+        <v>0.007230229729707312</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02464088518792898</v>
+        <v>0.02530821879425964</v>
       </c>
       <c r="K78" t="n">
         <v>0.01148934354930652</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05334297580850178</v>
+        <v>0.05277619668957703</v>
       </c>
       <c r="M78" t="n">
         <v>0.01144851937319437</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07619983695018251</v>
+        <v>0.08075888158851652</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01145270904298612</v>
+        <v>0.0114544307824545</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9836,28 +9836,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02451204181601044</v>
+        <v>0.05392948525535586</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01237313920694549</v>
+        <v>0.007786401247377107</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02451204181601044</v>
+        <v>0.02568719502936931</v>
       </c>
       <c r="K79" t="n">
         <v>0.01237313920694549</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05443324715151776</v>
+        <v>0.0512590117682778</v>
       </c>
       <c r="M79" t="n">
         <v>0.01232917470959393</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08003860160821885</v>
+        <v>0.07928062262362667</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01233368666167736</v>
+        <v>0.01233554084264331</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9867,28 +9867,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02564998437333181</v>
+        <v>0.05456989761103528</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01325693486458445</v>
+        <v>0.0083425727650469</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02564998437333181</v>
+        <v>0.02620243441406803</v>
       </c>
       <c r="K80" t="n">
         <v>0.01325693486458445</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05346850597341188</v>
+        <v>0.05342343279375433</v>
       </c>
       <c r="M80" t="n">
         <v>0.0132098300459935</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08157229089168128</v>
+        <v>0.08257684346974892</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0132146642803686</v>
+        <v>0.01321665090283212</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9904,28 +9904,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02610159880617052</v>
+        <v>0.0551982575653075</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01414073052222341</v>
+        <v>0.008898744282716692</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02610159880617052</v>
+        <v>0.02595034434412492</v>
       </c>
       <c r="K81" t="n">
         <v>0.01414073052222341</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05523911376694576</v>
+        <v>0.053554938431503</v>
       </c>
       <c r="M81" t="n">
         <v>0.01409048538239306</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08067491927699516</v>
+        <v>0.08434178002808757</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01409564189905984</v>
+        <v>0.01409776096302093</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9938,28 +9938,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02632661240677683</v>
+        <v>0.05581467227050298</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01502452617986238</v>
+        <v>0.009454915800386486</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02632661240677683</v>
+        <v>0.02550044242900787</v>
       </c>
       <c r="K82" t="n">
         <v>0.01502452617986238</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05529011024682867</v>
+        <v>0.05439559234670305</v>
       </c>
       <c r="M82" t="n">
         <v>0.01497114071879263</v>
       </c>
       <c r="N82" t="n">
-        <v>0.080418148777747</v>
+        <v>0.08472893408841914</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01497661951775108</v>
+        <v>0.01497887102320973</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9969,28 +9969,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02697753865476933</v>
+        <v>0.05641924887895221</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01590832183750134</v>
+        <v>0.01001108731805628</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02697753865476933</v>
+        <v>0.02609178473759964</v>
       </c>
       <c r="K83" t="n">
         <v>0.01590832183750134</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05277798932178765</v>
+        <v>0.0549703582600575</v>
       </c>
       <c r="M83" t="n">
         <v>0.0158517960551922</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07924734958082313</v>
+        <v>0.08520312393098833</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01585759713644231</v>
+        <v>0.01585998108339854</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10005,28 +10005,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02599992440521023</v>
+        <v>0.05701209454298568</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0167921174951403</v>
+        <v>0.01056725883572607</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02599992440521023</v>
+        <v>0.02672810915374169</v>
       </c>
       <c r="K84" t="n">
         <v>0.0167921174951403</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05510632340591284</v>
+        <v>0.05404066094857077</v>
       </c>
       <c r="M84" t="n">
         <v>0.01673245139159176</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08364656525179337</v>
+        <v>0.08191642119143938</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01673857475513356</v>
+        <v>0.01674109114358735</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10045,28 +10045,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02587245776397364</v>
+        <v>0.05759331641493387</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01767591315277927</v>
+        <v>0.01112343035339587</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02587245776397364</v>
+        <v>0.02601959118118555</v>
       </c>
       <c r="K85" t="n">
         <v>0.01767591315277927</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05353796454891704</v>
+        <v>0.0564659622726405</v>
       </c>
       <c r="M85" t="n">
         <v>0.01761310672799133</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08644069904176954</v>
+        <v>0.0855815700252171</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0176195523738248</v>
+        <v>0.01762220120377616</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10087,28 +10087,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02728348868970606</v>
+        <v>0.05816302164712729</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01855970881041823</v>
+        <v>0.01167960187106566</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02728348868970606</v>
+        <v>0.02719939938544305</v>
       </c>
       <c r="K86" t="n">
         <v>0.01855970881041823</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0545544631807893</v>
+        <v>0.05598223213002845</v>
       </c>
       <c r="M86" t="n">
         <v>0.0184937620643909</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08132083024913533</v>
+        <v>0.08270634027724572</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01850052999251603</v>
+        <v>0.01850331126396497</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10118,28 +10118,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02706372445002379</v>
+        <v>0.0587213173918964</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01944350446805719</v>
+        <v>0.01223577338873545</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02706372445002379</v>
+        <v>0.02729517652822612</v>
       </c>
       <c r="K87" t="n">
         <v>0.01944350446805719</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05365444677820941</v>
+        <v>0.05659813240773412</v>
       </c>
       <c r="M87" t="n">
         <v>0.01937441740079046</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08373174812052064</v>
+        <v>0.08234393205734097</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01938150761120727</v>
+        <v>0.01938442132415377</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10153,28 +10153,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02702143520054365</v>
+        <v>0.0592683108015717</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02032730012569616</v>
+        <v>0.01279194490640525</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02702143520054365</v>
+        <v>0.02636549398792774</v>
       </c>
       <c r="K88" t="n">
         <v>0.02032730012569616</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05455954743396518</v>
+        <v>0.05768534462479821</v>
       </c>
       <c r="M88" t="n">
         <v>0.02025507273719003</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08614559527239535</v>
+        <v>0.08707457867430896</v>
       </c>
       <c r="O88" t="n">
-        <v>0.02026248522989851</v>
+        <v>0.02026553138434258</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10187,4780 +10187,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02660490869707732</v>
+        <v>0.05980410902848367</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02121109578333512</v>
+        <v>0.01334811642407504</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02660490869707732</v>
+        <v>0.02740990792269969</v>
       </c>
       <c r="K89" t="n">
         <v>0.02121109578333512</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05744107446952096</v>
+        <v>0.05632516959081327</v>
       </c>
       <c r="M89" t="n">
         <v>0.0211357280735896</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08716979319171558</v>
+        <v>0.08148818496733162</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02114346284858975</v>
+        <v>0.02114664144453139</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0282091036750287</v>
+        <v>0.06032881922496279</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02209489144097408</v>
+        <v>0.01390428794174483</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0282091036750287</v>
+        <v>0.0275296554827254</v>
       </c>
       <c r="K90" t="n">
         <v>0.02209489144097408</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05771012002617701</v>
+        <v>0.05852026994071099</v>
       </c>
       <c r="M90" t="n">
         <v>0.02201638340998916</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08543262615552027</v>
+        <v>0.08417206856388038</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02202444046728099</v>
+        <v>0.0220277515047202</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02694114238699649</v>
+        <v>0.06084254854333954</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02297868709861305</v>
+        <v>0.01446045945941462</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02694114238699649</v>
+        <v>0.02819550306139132</v>
       </c>
       <c r="K91" t="n">
         <v>0.02297868709861305</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05520067221139127</v>
+        <v>0.05575975396594207</v>
       </c>
       <c r="M91" t="n">
         <v>0.02289703874638873</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08717070538857924</v>
+        <v>0.08523758186766156</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02290541808597223</v>
+        <v>0.022908861564909</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02747438772967306</v>
+        <v>0.06134540413594443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02386248275625201</v>
+        <v>0.01501663097708442</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02747438772967306</v>
+        <v>0.02824292229179795</v>
       </c>
       <c r="K92" t="n">
         <v>0.02386248275625201</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05709470107727124</v>
+        <v>0.05710206166682014</v>
       </c>
       <c r="M92" t="n">
         <v>0.0237776940827883</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08482309054564374</v>
+        <v>0.08349914220991683</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02378639570466348</v>
+        <v>0.02378997162509781</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02771485438781529</v>
+        <v>0.06183749315510791</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02474627841389097</v>
+        <v>0.01557280249475421</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02771485438781529</v>
+        <v>0.02801981559960136</v>
       </c>
       <c r="K93" t="n">
         <v>0.02474627841389097</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05633429810559398</v>
+        <v>0.05797467342514134</v>
       </c>
       <c r="M93" t="n">
         <v>0.02465834941918786</v>
       </c>
       <c r="N93" t="n">
-        <v>0.08642300544972775</v>
+        <v>0.08931765647348733</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02466737332335471</v>
+        <v>0.02467108168528662</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02796684368590377</v>
+        <v>0.06231892275316048</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02563007407152994</v>
+        <v>0.01612897401242401</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02796684368590377</v>
+        <v>0.0272597641576152</v>
       </c>
       <c r="K94" t="n">
         <v>0.02563007407152994</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05764990825601893</v>
+        <v>0.05687768053973344</v>
       </c>
       <c r="M94" t="n">
         <v>0.02553900475558743</v>
       </c>
       <c r="N94" t="n">
-        <v>0.08647125718531834</v>
+        <v>0.0907392672026755</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02554835094204595</v>
+        <v>0.02555219174547543</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02746376214630285</v>
+        <v>0.06278980008243265</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0265138697291689</v>
+        <v>0.0166851455300938</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02746376214630285</v>
+        <v>0.02747780593195574</v>
       </c>
       <c r="K95" t="n">
         <v>0.0265138697291689</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05884785883261295</v>
+        <v>0.05911848442162154</v>
       </c>
       <c r="M95" t="n">
         <v>0.026419660091987</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08966952831745745</v>
+        <v>0.08573484597231973</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02642932856073719</v>
+        <v>0.02643330180566424</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02860323566520406</v>
+        <v>0.06325023229525488</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02739766538680786</v>
+        <v>0.01724131704776359</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02860323566520406</v>
+        <v>0.02887891577193809</v>
       </c>
       <c r="K96" t="n">
         <v>0.02739766538680786</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05786925037920382</v>
+        <v>0.05652292074173448</v>
       </c>
       <c r="M96" t="n">
         <v>0.02730031542838656</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08767934050150455</v>
+        <v>0.08841150527817931</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02731030617942843</v>
+        <v>0.02731441186585305</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02856271674362885</v>
+        <v>0.06370032654395764</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02828146104444683</v>
+        <v>0.01779748856543338</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02856271674362885</v>
+        <v>0.02888410123671094</v>
       </c>
       <c r="K97" t="n">
         <v>0.02828146104444683</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05734923557813773</v>
+        <v>0.05777602019333541</v>
       </c>
       <c r="M97" t="n">
         <v>0.02818097076478613</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08671740612678025</v>
+        <v>0.09075556017825209</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02819128379811967</v>
+        <v>0.02819552192604185</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02869403819449053</v>
+        <v>0.06414018998087144</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02916525670208579</v>
+        <v>0.01835366008310318</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02869403819449053</v>
+        <v>0.02825237763375224</v>
       </c>
       <c r="K98" t="n">
         <v>0.02916525670208579</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05924669834206484</v>
+        <v>0.06039871918107587</v>
       </c>
       <c r="M98" t="n">
         <v>0.0290616261011857</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08798890340229326</v>
+        <v>0.09119563669963743</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02907226141681091</v>
+        <v>0.02907663198623066</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02818978478504182</v>
+        <v>0.06456992975832677</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03004905235972475</v>
+        <v>0.01890983160077297</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02818978478504182</v>
+        <v>0.0277932545491119</v>
       </c>
       <c r="K99" t="n">
         <v>0.03004905235972475</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05821011801381196</v>
+        <v>0.05867473271508292</v>
       </c>
       <c r="M99" t="n">
         <v>0.02994228143758526</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08821967432188271</v>
+        <v>0.08757196814375384</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02995323903550215</v>
+        <v>0.02995774204641947</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02784370827222853</v>
+        <v>0.06498965302865412</v>
       </c>
       <c r="G100" t="n">
-        <v>0.03093284801736372</v>
+        <v>0.01946600311844277</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02784370827222853</v>
+        <v>0.02790988707341438</v>
       </c>
       <c r="K100" t="n">
         <v>0.03093284801736372</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05972758588706328</v>
+        <v>0.05898571991523233</v>
       </c>
       <c r="M100" t="n">
         <v>0.03082293677398483</v>
       </c>
       <c r="N100" t="n">
-        <v>0.09093155722468471</v>
+        <v>0.08866498690266522</v>
       </c>
       <c r="O100" t="n">
-        <v>0.03083421665419339</v>
+        <v>0.03083885210660828</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02822146735822864</v>
+        <v>0.06539946694418394</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03181664367500268</v>
+        <v>0.02002217463611256</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02822146735822864</v>
+        <v>0.02878061084291698</v>
       </c>
       <c r="K101" t="n">
         <v>0.03181664367500268</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0607083888038884</v>
+        <v>0.06040173779386993</v>
       </c>
       <c r="M101" t="n">
         <v>0.0317035921103844</v>
       </c>
       <c r="N101" t="n">
-        <v>0.09306744804325451</v>
+        <v>0.09163324098449388</v>
       </c>
       <c r="O101" t="n">
-        <v>0.03171519427288463</v>
+        <v>0.03171996216679709</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02875031371259038</v>
+        <v>0.06579947865724674</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03270043933264164</v>
+        <v>0.02057834615378235</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02875031371259038</v>
+        <v>0.02807161249514908</v>
       </c>
       <c r="K102" t="n">
         <v>0.03270043933264164</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06098438253650074</v>
+        <v>0.05734963796400683</v>
       </c>
       <c r="M102" t="n">
         <v>0.03258424744678396</v>
       </c>
       <c r="N102" t="n">
-        <v>0.09289536168424739</v>
+        <v>0.08697686249585201</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03259617189157588</v>
+        <v>0.03260107222698589</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02914513614192002</v>
+        <v>0.06618979532017299</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03358423499028061</v>
+        <v>0.02113451767145215</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02914513614192002</v>
+        <v>0.02919772817370139</v>
       </c>
       <c r="K103" t="n">
         <v>0.03358423499028061</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05785406658435893</v>
+        <v>0.06127961501047891</v>
       </c>
       <c r="M103" t="n">
         <v>0.03346490278318353</v>
       </c>
       <c r="N103" t="n">
-        <v>0.09093715827333732</v>
+        <v>0.08985100843202909</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03347714951026711</v>
+        <v>0.0334821822871747</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02928116972528938</v>
+        <v>0.06657052408529321</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03446803064791957</v>
+        <v>0.02169068918912194</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02928116972528938</v>
+        <v>0.02880146906292626</v>
       </c>
       <c r="K104" t="n">
         <v>0.03446803064791957</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05935916269918579</v>
+        <v>0.05940038411653925</v>
       </c>
       <c r="M104" t="n">
         <v>0.0343455581195831</v>
       </c>
       <c r="N104" t="n">
-        <v>0.09165653488681003</v>
+        <v>0.09019274811726363</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03435812712895835</v>
+        <v>0.03436329234736351</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02919294779246795</v>
+        <v>0.06694177210493786</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03535182630555853</v>
+        <v>0.02224686070679173</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02919294779246795</v>
+        <v>0.02824761315323644</v>
       </c>
       <c r="K105" t="n">
         <v>0.03535182630555853</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06072868540158888</v>
+        <v>0.05816838655938003</v>
       </c>
       <c r="M105" t="n">
         <v>0.03522621345598267</v>
       </c>
       <c r="N105" t="n">
-        <v>0.09247843978743686</v>
+        <v>0.08929561412640363</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0352391047476496</v>
+        <v>0.03524440240755231</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02882293460064039</v>
+        <v>0.06730364653143742</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0362356219631975</v>
+        <v>0.02280303222446153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02882293460064039</v>
+        <v>0.02838691319182866</v>
       </c>
       <c r="K106" t="n">
         <v>0.0362356219631975</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05789512150401366</v>
+        <v>0.05838975476343186</v>
       </c>
       <c r="M106" t="n">
         <v>0.03610686879238223</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09031817051287261</v>
+        <v>0.09000720344947749</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03612008236634083</v>
+        <v>0.03612551246774112</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02872344219642266</v>
+        <v>0.06765625451712236</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03711941762083646</v>
+        <v>0.02335920374213132</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02872344219642266</v>
+        <v>0.02946147446701412</v>
       </c>
       <c r="K107" t="n">
         <v>0.03711941762083646</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06137519137469757</v>
+        <v>0.05871645355107788</v>
       </c>
       <c r="M107" t="n">
         <v>0.03698752412878179</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09265532411901611</v>
+        <v>0.09210513854191971</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03700105998503207</v>
+        <v>0.03700662252792993</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02904990278253644</v>
+        <v>0.06799970321432322</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03800321327847542</v>
+        <v>0.02391537525980111</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02904990278253644</v>
+        <v>0.02964708920150998</v>
       </c>
       <c r="K108" t="n">
         <v>0.03800321327847542</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06167818442217474</v>
+        <v>0.06041843991569981</v>
       </c>
       <c r="M108" t="n">
         <v>0.03786817946518136</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09314035799947951</v>
+        <v>0.08921963724253856</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03788203760372331</v>
+        <v>0.03788773258811874</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02950457718262005</v>
+        <v>0.06833409977537044</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03888700893611439</v>
+        <v>0.0244715467774709</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02950457718262005</v>
+        <v>0.02906388372208353</v>
       </c>
       <c r="K109" t="n">
         <v>0.03888700893611439</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05900104568949005</v>
+        <v>0.05871120807997146</v>
       </c>
       <c r="M109" t="n">
         <v>0.03874883480158093</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09336259653650503</v>
+        <v>0.09189610106030666</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03876301522241455</v>
+        <v>0.03876884264830754</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02983807560812198</v>
+        <v>0.06865955135259451</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03977080459375335</v>
+        <v>0.0250277182951407</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02983807560812198</v>
+        <v>0.02961522951921046</v>
       </c>
       <c r="K110" t="n">
         <v>0.03977080459375335</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06112277010058687</v>
+        <v>0.05990509621702159</v>
       </c>
       <c r="M110" t="n">
         <v>0.0396294901379805</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09110163726407017</v>
+        <v>0.0886358503585844</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03964399284110579</v>
+        <v>0.03964995270849635</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02999804646477429</v>
+        <v>0.06897616509832592</v>
       </c>
       <c r="G111" t="n">
-        <v>0.04065460025139232</v>
+        <v>0.02558388981281049</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02999804646477429</v>
+        <v>0.02913686915432415</v>
       </c>
       <c r="K111" t="n">
         <v>0.04065460025139232</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06132898087450439</v>
+        <v>0.05947875555258345</v>
       </c>
       <c r="M111" t="n">
         <v>0.04051014547438006</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09418169124631548</v>
+        <v>0.09321980425872023</v>
       </c>
       <c r="O111" t="n">
-        <v>0.04052497045979703</v>
+        <v>0.04053106276868516</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02953367633193607</v>
+        <v>0.06928404816489518</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04153839590903128</v>
+        <v>0.02614006133048028</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02953367633193607</v>
+        <v>0.03027151655030767</v>
       </c>
       <c r="K112" t="n">
         <v>0.04153839590903128</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06207886777457222</v>
+        <v>0.05889288937116458</v>
       </c>
       <c r="M112" t="n">
         <v>0.04139080081077963</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09399241516854306</v>
+        <v>0.09129263114468278</v>
       </c>
       <c r="O112" t="n">
-        <v>0.04140594807848827</v>
+        <v>0.04141217282887397</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02941912458026177</v>
+        <v>0.06958330770463274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04242219156667024</v>
+        <v>0.02669623284815008</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02941912458026177</v>
+        <v>0.02974629809835416</v>
       </c>
       <c r="K113" t="n">
         <v>0.04242219156667024</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06075909376078367</v>
+        <v>0.05919394085992327</v>
       </c>
       <c r="M113" t="n">
         <v>0.04227145614717919</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09401553413521785</v>
+        <v>0.09521480464844706</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0422869256971795</v>
+        <v>0.04229328288906278</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02942187044668931</v>
+        <v>0.0698740508698691</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0433059872243092</v>
+        <v>0.02725240436581987</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02942187044668931</v>
+        <v>0.02921005903901093</v>
       </c>
       <c r="K114" t="n">
         <v>0.0433059872243092</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05996364230987239</v>
+        <v>0.06137582904454042</v>
       </c>
       <c r="M114" t="n">
         <v>0.04315211148357876</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09312989050601228</v>
+        <v>0.0934626240336669</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04316790331587075</v>
+        <v>0.04317439294925159</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03012641400314228</v>
+        <v>0.07015638481293474</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04418978288194816</v>
+        <v>0.02780857588348966</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03012641400314228</v>
+        <v>0.02936724388980724</v>
       </c>
       <c r="K115" t="n">
         <v>0.04418978288194816</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06140698749109882</v>
+        <v>0.06072578995558642</v>
       </c>
       <c r="M115" t="n">
         <v>0.04403276681997833</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09290194296748411</v>
+        <v>0.08982065909857684</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04404888093456199</v>
+        <v>0.0440555030094404</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03007926193732663</v>
+        <v>0.07043041668616015</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04507357853958713</v>
+        <v>0.02836474740115946</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03007926193732663</v>
+        <v>0.0293353059001949</v>
       </c>
       <c r="K116" t="n">
         <v>0.04507357853958713</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05957007214633614</v>
+        <v>0.05942173674554724</v>
       </c>
       <c r="M116" t="n">
         <v>0.04491342215637789</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09382286378151306</v>
+        <v>0.09084949607182846</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04492985855325323</v>
+        <v>0.04493661306962921</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03002282734464838</v>
+        <v>0.07069625364187583</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04595737419722609</v>
+        <v>0.02892091891882925</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03002282734464838</v>
+        <v>0.03051118590460278</v>
       </c>
       <c r="K117" t="n">
         <v>0.04595737419722609</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06276429371803041</v>
+        <v>0.05942901192804873</v>
       </c>
       <c r="M117" t="n">
         <v>0.04579407749277746</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09605232824824472</v>
+        <v>0.09682953049694115</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04581083617194447</v>
+        <v>0.04581772312981801</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03016608706185848</v>
+        <v>0.07095400283241224</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04684116985486506</v>
+        <v>0.02947709043649904</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03016608706185848</v>
+        <v>0.03000939414514775</v>
       </c>
       <c r="K118" t="n">
         <v>0.04684116985486506</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06364790450252475</v>
+        <v>0.05964108738972929</v>
       </c>
       <c r="M118" t="n">
         <v>0.04667473282917703</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0929476568068599</v>
+        <v>0.09139142740495459</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04669181379063571</v>
+        <v>0.04669883319000682</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02949092314304003</v>
+        <v>0.07120377141009987</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04772496551250402</v>
+        <v>0.03003326195416884</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02949092314304003</v>
+        <v>0.03000409961587237</v>
       </c>
       <c r="K119" t="n">
         <v>0.04772496551250402</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06191444406031305</v>
+        <v>0.06110494034493985</v>
       </c>
       <c r="M119" t="n">
         <v>0.0475553881655766</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09115322610791809</v>
+        <v>0.09182453592610584</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04757279140932695</v>
+        <v>0.04757994325019563</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02980502070666942</v>
+        <v>0.07144566652726921</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04860876117014298</v>
+        <v>0.03058943347183863</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02980502070666942</v>
+        <v>0.02965996394735279</v>
       </c>
       <c r="K120" t="n">
         <v>0.04860876117014298</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06061828696024707</v>
+        <v>0.060597044934179</v>
       </c>
       <c r="M120" t="n">
         <v>0.04843604350197616</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09157895023349538</v>
+        <v>0.09264291392923502</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04845376902801819</v>
+        <v>0.04846105331038444</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03043605776766758</v>
+        <v>0.07167979533625077</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04949255682778195</v>
+        <v>0.03114560498950843</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03043605776766758</v>
+        <v>0.02952495135447525</v>
       </c>
       <c r="K121" t="n">
         <v>0.04949255682778195</v>
       </c>
       <c r="L121" t="n">
-        <v>0.0600555857177861</v>
+        <v>0.06185212398120907</v>
       </c>
       <c r="M121" t="n">
         <v>0.04931669883837573</v>
       </c>
       <c r="N121" t="n">
-        <v>0.0964828720697305</v>
+        <v>0.0911317933075047</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04933474664670943</v>
+        <v>0.04934216337057324</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02992478094904104</v>
+        <v>0.07190626498937497</v>
       </c>
       <c r="G122" t="n">
-        <v>0.05037635248542091</v>
+        <v>0.03170177650717822</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02992478094904104</v>
+        <v>0.03047392623149149</v>
       </c>
       <c r="K122" t="n">
         <v>0.05037635248542091</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06354657343987202</v>
+        <v>0.06467374885988134</v>
       </c>
       <c r="M122" t="n">
         <v>0.05019735417477529</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09420739515267346</v>
+        <v>0.09394789050125674</v>
       </c>
       <c r="O122" t="n">
-        <v>0.05021572426540067</v>
+        <v>0.05022327343076205</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03061659054887472</v>
+        <v>0.07212518263897234</v>
       </c>
       <c r="G123" t="n">
-        <v>0.05126014814305987</v>
+        <v>0.03225794802484801</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03061659054887472</v>
+        <v>0.02979726724524673</v>
       </c>
       <c r="K123" t="n">
         <v>0.05126014814305987</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06273680337915694</v>
+        <v>0.06433074759059884</v>
       </c>
       <c r="M123" t="n">
         <v>0.05107800951117486</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0945466462732531</v>
+        <v>0.09516020404779996</v>
       </c>
       <c r="O123" t="n">
-        <v>0.05109670188409191</v>
+        <v>0.05110438349095086</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03117501439276067</v>
+        <v>0.0723366554373734</v>
       </c>
       <c r="G124" t="n">
-        <v>0.05214394380069883</v>
+        <v>0.0328141195425178</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03117501439276067</v>
+        <v>0.03111866843844262</v>
       </c>
       <c r="K124" t="n">
         <v>0.05214394380069883</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06083501076228037</v>
+        <v>0.06329208997042163</v>
       </c>
       <c r="M124" t="n">
         <v>0.05195866484757443</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09444484577769402</v>
+        <v>0.09655438001600369</v>
       </c>
       <c r="O124" t="n">
-        <v>0.05197767950278315</v>
+        <v>0.05198549355113966</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03123419582607437</v>
+        <v>0.07254079053690855</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0530277394583378</v>
+        <v>0.0333702910601876</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03123419582607437</v>
+        <v>0.03057501800357473</v>
       </c>
       <c r="K125" t="n">
         <v>0.0530277394583378</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0639756009166188</v>
+        <v>0.0620597472282732</v>
       </c>
       <c r="M125" t="n">
         <v>0.052839320183974</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09600492546345252</v>
+        <v>0.09332924884330296</v>
       </c>
       <c r="O125" t="n">
-        <v>0.05285865712147438</v>
+        <v>0.05286660361132847</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02976057596982486</v>
+        <v>0.07273769508990836</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05391153511597677</v>
+        <v>0.03392646257785739</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02976057596982486</v>
+        <v>0.03058772521730721</v>
       </c>
       <c r="K126" t="n">
         <v>0.05391153511597677</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06208707040669709</v>
+        <v>0.06420125348808869</v>
       </c>
       <c r="M126" t="n">
         <v>0.05371997552037356</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09689083009625288</v>
+        <v>0.09250706516190899</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05373963474016562</v>
+        <v>0.05374771367151729</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03129690715025554</v>
+        <v>0.07292747624870324</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05479533077361572</v>
+        <v>0.03448263409552719</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03129690715025554</v>
+        <v>0.03117270109142814</v>
       </c>
       <c r="K127" t="n">
         <v>0.05479533077361572</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06207684943458824</v>
+        <v>0.06220350977481837</v>
       </c>
       <c r="M127" t="n">
         <v>0.05460063085677313</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09618486980250474</v>
+        <v>0.09432021393971074</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05462061235885687</v>
+        <v>0.05462882373170609</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03053120970031023</v>
+        <v>0.07311024116562373</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05567912643125469</v>
+        <v>0.03503880561319698</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03053120970031023</v>
+        <v>0.03110764849573519</v>
       </c>
       <c r="K128" t="n">
         <v>0.05567912643125469</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06450943123482361</v>
+        <v>0.06298595068860885</v>
       </c>
       <c r="M128" t="n">
         <v>0.05548128619317269</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09377367729836483</v>
+        <v>0.09592706386004934</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0555015899775481</v>
+        <v>0.05550993379189489</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02979845909591297</v>
+        <v>0.07328609699300032</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05656292208889365</v>
+        <v>0.03559497713086677</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02979845909591297</v>
+        <v>0.03138550545588148</v>
       </c>
       <c r="K129" t="n">
         <v>0.05656292208889365</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06157647191217469</v>
+        <v>0.0626639029193454</v>
       </c>
       <c r="M129" t="n">
         <v>0.05636194152957226</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09519959160044555</v>
+        <v>0.09694275110231315</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05638256759623934</v>
+        <v>0.0563910438520837</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03155436834408291</v>
+        <v>0.07345515088316344</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05744671774653261</v>
+        <v>0.03615114864853657</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03155436834408291</v>
+        <v>0.03102568823675013</v>
       </c>
       <c r="K130" t="n">
         <v>0.05744671774653261</v>
       </c>
       <c r="L130" t="n">
-        <v>0.06331230252933995</v>
+        <v>0.06276346343538736</v>
       </c>
       <c r="M130" t="n">
         <v>0.05724259686597183</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09406251208105726</v>
+        <v>0.09823570834778206</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05726354521493059</v>
+        <v>0.05727215391227252</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03020300958468793</v>
+        <v>0.07361750998844363</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05833051340417158</v>
+        <v>0.03670732016620636</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03020300958468793</v>
+        <v>0.03104250056077543</v>
       </c>
       <c r="K131" t="n">
         <v>0.05833051340417158</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06354471101289277</v>
+        <v>0.06223377753830656</v>
       </c>
       <c r="M131" t="n">
         <v>0.05812325220237139</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09328915488337647</v>
+        <v>0.09403742957133793</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05814452283362182</v>
+        <v>0.05815326397246132</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03015428258824515</v>
+        <v>0.07377328146117133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05921430906181054</v>
+        <v>0.03726349168387615</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03015428258824515</v>
+        <v>0.03083504497689156</v>
       </c>
       <c r="K132" t="n">
         <v>0.05921430906181054</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06269396788478807</v>
+        <v>0.06407096881121155</v>
       </c>
       <c r="M132" t="n">
         <v>0.05900390753877096</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09600398548178224</v>
+        <v>0.09910204950149537</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05902550045231306</v>
+        <v>0.05903437403265013</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03150246920421326</v>
+        <v>0.07392257245367706</v>
       </c>
       <c r="G133" t="n">
-        <v>0.06009810471944951</v>
+        <v>0.03781966320154594</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03150246920421326</v>
+        <v>0.03106195168241781</v>
       </c>
       <c r="K133" t="n">
         <v>0.06009810471944951</v>
       </c>
       <c r="L133" t="n">
-        <v>0.065182140199777</v>
+        <v>0.06461126027051312</v>
       </c>
       <c r="M133" t="n">
         <v>0.05988456287517052</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09401032588042102</v>
+        <v>0.09671411555990927</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05990647807100431</v>
+        <v>0.05991548409283894</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03182448457695021</v>
+        <v>0.07406549011829129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.06098190037708846</v>
+        <v>0.03837583471921574</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03182448457695021</v>
+        <v>0.03094837009807641</v>
       </c>
       <c r="K134" t="n">
         <v>0.06098190037708846</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06555880902148256</v>
+        <v>0.06369469412979167</v>
       </c>
       <c r="M134" t="n">
         <v>0.06076521821157009</v>
       </c>
       <c r="N134" t="n">
-        <v>0.09527420136264403</v>
+        <v>0.1006152196532339</v>
       </c>
       <c r="O134" t="n">
-        <v>0.06078745568969554</v>
+        <v>0.06079659415302775</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03076888540840775</v>
+        <v>0.07420214160734452</v>
       </c>
       <c r="G135" t="n">
-        <v>0.06186569603472743</v>
+        <v>0.03893200623688553</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03076888540840775</v>
+        <v>0.03059069651650408</v>
       </c>
       <c r="K135" t="n">
         <v>0.06186569603472743</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06294051605927065</v>
+        <v>0.06495617684856095</v>
       </c>
       <c r="M135" t="n">
         <v>0.06164587354796967</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09645112597359284</v>
+        <v>0.09565642178813982</v>
       </c>
       <c r="O135" t="n">
-        <v>0.06166843330838678</v>
+        <v>0.06167770421321656</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03017524781939901</v>
+        <v>0.07433263407316722</v>
       </c>
       <c r="G136" t="n">
-        <v>0.06274949169236639</v>
+        <v>0.03948817775455532</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03017524781939901</v>
+        <v>0.03153495933343727</v>
       </c>
       <c r="K136" t="n">
         <v>0.06274949169236639</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06439466976862435</v>
+        <v>0.06566074103655495</v>
       </c>
       <c r="M136" t="n">
         <v>0.06252652888436923</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09556372168991345</v>
+        <v>0.1011544746185177</v>
       </c>
       <c r="O136" t="n">
-        <v>0.06254941092707803</v>
+        <v>0.06255881427340536</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03092190993290481</v>
+        <v>0.07445707466808987</v>
       </c>
       <c r="G137" t="n">
-        <v>0.06363328735000535</v>
+        <v>0.04004434927222512</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03092190993290481</v>
+        <v>0.03124631066691227</v>
       </c>
       <c r="K137" t="n">
         <v>0.06363328735000535</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0641690257735793</v>
+        <v>0.06546432679059905</v>
       </c>
       <c r="M137" t="n">
         <v>0.0634071842207688</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0962489795294017</v>
+        <v>0.09902027599402147</v>
       </c>
       <c r="O137" t="n">
-        <v>0.06343038854576925</v>
+        <v>0.06343992433359417</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03099609485826522</v>
+        <v>0.07457557054444297</v>
       </c>
       <c r="G138" t="n">
-        <v>0.06451708300764432</v>
+        <v>0.04060052078989491</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03099609485826522</v>
+        <v>0.03069955733582369</v>
       </c>
       <c r="K138" t="n">
         <v>0.06451708300764432</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0628252615823125</v>
+        <v>0.0637770354637511</v>
       </c>
       <c r="M138" t="n">
         <v>0.06428783955716835</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09488862149394894</v>
+        <v>0.09549007925659242</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0643113661644605</v>
+        <v>0.06432103439378298</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03202298352722059</v>
+        <v>0.074688228854557</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06540087866528328</v>
+        <v>0.0411566923075647</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03202298352722059</v>
+        <v>0.03101874276028065</v>
       </c>
       <c r="K139" t="n">
         <v>0.06540087866528328</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0630753538631853</v>
+        <v>0.06493025940785344</v>
       </c>
       <c r="M139" t="n">
         <v>0.06516849489356792</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09842850956720689</v>
+        <v>0.09464588972004051</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06519234378315175</v>
+        <v>0.06520214445397178</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0312182224489059</v>
+        <v>0.07479515675076247</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06628467432292225</v>
+        <v>0.0417128638252345</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0312182224489059</v>
+        <v>0.03051926397305903</v>
       </c>
       <c r="K140" t="n">
         <v>0.06628467432292225</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06444383611324875</v>
+        <v>0.06511049866404636</v>
       </c>
       <c r="M140" t="n">
         <v>0.06604915022996749</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09770698549648871</v>
+        <v>0.1008492981822155</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06607332140184298</v>
+        <v>0.06608325451416058</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.0319501761039914</v>
+        <v>0.0748964613853898</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06716846998056121</v>
+        <v>0.04226903534290429</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0319501761039914</v>
+        <v>0.03157905098472948</v>
       </c>
       <c r="K141" t="n">
         <v>0.06716846998056121</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06303718680403025</v>
+        <v>0.06505480930338123</v>
       </c>
       <c r="M141" t="n">
         <v>0.06692980556636706</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1012923719308744</v>
+        <v>0.09602285826565971</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06695429902053422</v>
+        <v>0.0669643645743494</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03113345288089181</v>
+        <v>0.07499224991076951</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06805226563820017</v>
+        <v>0.04282520686057409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03113345288089181</v>
+        <v>0.03098234973122027</v>
       </c>
       <c r="K142" t="n">
         <v>0.06805226563820017</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06333792016821066</v>
+        <v>0.06356567242354</v>
       </c>
       <c r="M142" t="n">
         <v>0.06781046090276663</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09741520810880411</v>
+        <v>0.09955883929477383</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06783527663922546</v>
+        <v>0.06784547463453822</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03219430311116565</v>
+        <v>0.07508262947923214</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06893606129583914</v>
+        <v>0.04338137837824388</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03219430311116565</v>
+        <v>0.03224527463150453</v>
       </c>
       <c r="K143" t="n">
         <v>0.06893606129583914</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06483559501352093</v>
+        <v>0.06554043128335543</v>
       </c>
       <c r="M143" t="n">
         <v>0.0686911162391662</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09780316914520748</v>
+        <v>0.1019494858669286</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06871625425791669</v>
+        <v>0.06872658469472702</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03108720819311653</v>
+        <v>0.0751677072431081</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0698198569534781</v>
+        <v>0.04393754989591368</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03108720819311653</v>
+        <v>0.03223207212815241</v>
       </c>
       <c r="K144" t="n">
         <v>0.0698198569534781</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06334542930530629</v>
+        <v>0.06711779840311966</v>
       </c>
       <c r="M144" t="n">
         <v>0.06957177157556575</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1002336865748304</v>
+        <v>0.09513502634943888</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06959723187660793</v>
+        <v>0.06960769475491582</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03171291192693548</v>
+        <v>0.07524759035472789</v>
       </c>
       <c r="G145" t="n">
-        <v>0.07070365261111707</v>
+        <v>0.04449372141358347</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03171291192693548</v>
+        <v>0.03124004968477428</v>
       </c>
       <c r="K145" t="n">
         <v>0.07070365261111707</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06574869215468893</v>
+        <v>0.06384474222658057</v>
       </c>
       <c r="M145" t="n">
         <v>0.07045242691196534</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09777415105890924</v>
+        <v>0.09604847877188344</v>
       </c>
       <c r="O145" t="n">
-        <v>0.07047820949529919</v>
+        <v>0.07048880481510462</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03222266681124912</v>
+        <v>0.075322385966422</v>
       </c>
       <c r="G146" t="n">
-        <v>0.07158744826875603</v>
+        <v>0.04504989293125326</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03222266681124912</v>
+        <v>0.0310795311438162</v>
       </c>
       <c r="K146" t="n">
         <v>0.07158744826875603</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06399630231043427</v>
+        <v>0.06544802881260103</v>
       </c>
       <c r="M146" t="n">
         <v>0.07133308224836489</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09990690300562938</v>
+        <v>0.1013477178826629</v>
       </c>
       <c r="O146" t="n">
-        <v>0.07135918711399042</v>
+        <v>0.07136991487529344</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03238037528968751</v>
+        <v>0.07539220123052096</v>
       </c>
       <c r="G147" t="n">
-        <v>0.07247124392639499</v>
+        <v>0.04560606444892305</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03238037528968751</v>
+        <v>0.03210336326913581</v>
       </c>
       <c r="K147" t="n">
         <v>0.07247124392639499</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06547196104648942</v>
+        <v>0.0675177272439085</v>
       </c>
       <c r="M147" t="n">
         <v>0.07221373758476446</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09649199505108996</v>
+        <v>0.1001823552846672</v>
       </c>
       <c r="O147" t="n">
-        <v>0.07224016473268166</v>
+        <v>0.07225102493548224</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0314533659091031</v>
+        <v>0.07545714329935518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.07335503958403396</v>
+        <v>0.04616223596659284</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0314533659091031</v>
+        <v>0.0324540013577901</v>
       </c>
       <c r="K148" t="n">
         <v>0.07335503958403396</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06762038898098308</v>
+        <v>0.06648883413546292</v>
       </c>
       <c r="M148" t="n">
         <v>0.07309439292116403</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1029683588094958</v>
+        <v>0.09895434724604713</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0731211423513729</v>
+        <v>0.07313213499567105</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03126189130689891</v>
+        <v>0.07551731932525522</v>
       </c>
       <c r="G149" t="n">
-        <v>0.07423883524167292</v>
+        <v>0.04671840748426264</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03126189130689891</v>
+        <v>0.03160142558809213</v>
       </c>
       <c r="K149" t="n">
         <v>0.07423883524167292</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06745717467354709</v>
+        <v>0.06675995041075283</v>
       </c>
       <c r="M149" t="n">
         <v>0.07397504825756358</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1026904528793565</v>
+        <v>0.1030019513931045</v>
       </c>
       <c r="O149" t="n">
-        <v>0.07400211997006413</v>
+        <v>0.07401324505585986</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03240102680665079</v>
+        <v>0.0755728364605515</v>
       </c>
       <c r="G150" t="n">
-        <v>0.07512263089931188</v>
+        <v>0.04727457900193243</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03240102680665079</v>
+        <v>0.03161250023433833</v>
       </c>
       <c r="K150" t="n">
         <v>0.07512263089931188</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06774424030752874</v>
+        <v>0.06482128623654992</v>
       </c>
       <c r="M150" t="n">
         <v>0.07485570359396317</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1026195107704498</v>
+        <v>0.0981811809481889</v>
       </c>
       <c r="O150" t="n">
-        <v>0.07488309758875537</v>
+        <v>0.07489435511604868</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03239277494699704</v>
+        <v>0.0756238018575745</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07600642655695085</v>
+        <v>0.04783075051960223</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03239277494699704</v>
+        <v>0.03209822998909988</v>
       </c>
       <c r="K151" t="n">
         <v>0.07600642655695085</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06837358562407284</v>
+        <v>0.06599589838721351</v>
       </c>
       <c r="M151" t="n">
         <v>0.07573635893036272</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09688368498744493</v>
+        <v>0.1026606849997841</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07576407520744662</v>
+        <v>0.07577546517623748</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03251000443820005</v>
+        <v>0.0756703226686548</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0768902222145898</v>
+        <v>0.04838692203727202</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03251000443820005</v>
+        <v>0.03194937636038735</v>
       </c>
       <c r="K152" t="n">
         <v>0.0768902222145898</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06757711405850125</v>
+        <v>0.06418247110872832</v>
       </c>
       <c r="M152" t="n">
         <v>0.07661701426676229</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1002041551625998</v>
+        <v>0.09774916176935144</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07664505282613786</v>
+        <v>0.07665657523642629</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03276165246576415</v>
+        <v>0.07571250604612279</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07777401787222878</v>
+        <v>0.04894309355494181</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03276165246576415</v>
+        <v>0.03206322017073103</v>
       </c>
       <c r="K153" t="n">
         <v>0.07777401787222878</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06752925874365306</v>
+        <v>0.06707426726620122</v>
       </c>
       <c r="M153" t="n">
         <v>0.07749766960316186</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1006847979862439</v>
+        <v>0.09907065190326803</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0775260304448291</v>
+        <v>0.07753768529661509</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03171659491587439</v>
+        <v>0.07575045914230902</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07865781352986773</v>
+        <v>0.0494992650726116</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03171659491587439</v>
+        <v>0.03180012099030056</v>
       </c>
       <c r="K154" t="n">
         <v>0.07865781352986773</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06868692776730131</v>
+        <v>0.06405483334177417</v>
       </c>
       <c r="M154" t="n">
         <v>0.07837832493956143</v>
       </c>
       <c r="N154" t="n">
-        <v>0.101397142623246</v>
+        <v>0.1037660516541982</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07840700806352034</v>
+        <v>0.07841879535680391</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03235684736867764</v>
+        <v>0.07578428910954389</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0795416091875067</v>
+        <v>0.05005543659028139</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03235684736867764</v>
+        <v>0.03198919632790552</v>
       </c>
       <c r="K155" t="n">
         <v>0.0795416091875067</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06814310082656266</v>
+        <v>0.06708990632920458</v>
       </c>
       <c r="M155" t="n">
         <v>0.079258980275961</v>
       </c>
       <c r="N155" t="n">
-        <v>0.102867059365011</v>
+        <v>0.1025831257138772</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07928798568221157</v>
+        <v>0.07929990541699271</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0320581446954382</v>
+        <v>0.07581410310015796</v>
       </c>
       <c r="G156" t="n">
-        <v>0.08042540484514565</v>
+        <v>0.05061160810795119</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0320581446954382</v>
+        <v>0.03135704882171639</v>
       </c>
       <c r="K156" t="n">
         <v>0.08042540484514565</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06814111896550681</v>
+        <v>0.06875343580043078</v>
       </c>
       <c r="M156" t="n">
         <v>0.08013963561236055</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09948843171785088</v>
+        <v>0.09873902323051681</v>
       </c>
       <c r="O156" t="n">
-        <v>0.08016896330090281</v>
+        <v>0.08018101547718151</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03175928789949703</v>
+        <v>0.07584000826648171</v>
       </c>
       <c r="G157" t="n">
-        <v>0.08130920050278463</v>
+        <v>0.05116777962562098</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03175928789949703</v>
+        <v>0.03168404901366607</v>
       </c>
       <c r="K157" t="n">
         <v>0.08130920050278463</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06804615022161503</v>
+        <v>0.06783299890473662</v>
       </c>
       <c r="M157" t="n">
         <v>0.08102029094876012</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1023746118221109</v>
+        <v>0.0989385960695095</v>
       </c>
       <c r="O157" t="n">
-        <v>0.08104994091959405</v>
+        <v>0.08106212553737033</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03173999041542352</v>
+        <v>0.07586211176084559</v>
       </c>
       <c r="G158" t="n">
-        <v>0.08219299616042358</v>
+        <v>0.05172395114329078</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03173999041542352</v>
+        <v>0.03237416531016141</v>
       </c>
       <c r="K158" t="n">
         <v>0.08219299616042358</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0666852657432421</v>
+        <v>0.06544703648898362</v>
       </c>
       <c r="M158" t="n">
         <v>0.08190094628515969</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1040701510140487</v>
+        <v>0.0992045743785987</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0819309185382853</v>
+        <v>0.08194323559755914</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0329991514972818</v>
+        <v>0.07588052073558013</v>
       </c>
       <c r="G159" t="n">
-        <v>0.08307679181806256</v>
+        <v>0.05228012266096057</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0329991514972818</v>
+        <v>0.03294956424100053</v>
       </c>
       <c r="K159" t="n">
         <v>0.08307679181806256</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06658688309041297</v>
+        <v>0.0672433040288736</v>
       </c>
       <c r="M159" t="n">
         <v>0.08278160162155926</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1004940525472481</v>
+        <v>0.1004746306045585</v>
       </c>
       <c r="O159" t="n">
-        <v>0.08281189615697654</v>
+        <v>0.08282434565774795</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03330903370505606</v>
+        <v>0.07589534234301576</v>
       </c>
       <c r="G160" t="n">
-        <v>0.08396058747570151</v>
+        <v>0.05283629417863037</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03330903370505606</v>
+        <v>0.03177007828173661</v>
       </c>
       <c r="K160" t="n">
         <v>0.08396058747570151</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06492966849821552</v>
+        <v>0.06543853401935715</v>
       </c>
       <c r="M160" t="n">
         <v>0.08366225695795883</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09915657451812682</v>
+        <v>0.1027405899881708</v>
       </c>
       <c r="O160" t="n">
-        <v>0.08369287377566778</v>
+        <v>0.08370545571793675</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03356199523501852</v>
+        <v>0.075906683735483</v>
       </c>
       <c r="G161" t="n">
-        <v>0.08484438313334049</v>
+        <v>0.05339246569630016</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03356199523501852</v>
+        <v>0.0323110570893612</v>
       </c>
       <c r="K161" t="n">
         <v>0.08484438313334049</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06836032361496402</v>
+        <v>0.06899124519454833</v>
       </c>
       <c r="M161" t="n">
         <v>0.08454291229435838</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1003214288788713</v>
+        <v>0.1016749375078548</v>
       </c>
       <c r="O161" t="n">
-        <v>0.08457385139435901</v>
+        <v>0.08458656577812555</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03319001271147178</v>
+        <v>0.07591465206531234</v>
       </c>
       <c r="G162" t="n">
-        <v>0.08572817879097944</v>
+        <v>0.05394863721396995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03319001271147178</v>
+        <v>0.03339765628632539</v>
       </c>
       <c r="K162" t="n">
         <v>0.08572817879097944</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06783487432673818</v>
+        <v>0.0669124787009179</v>
       </c>
       <c r="M162" t="n">
         <v>0.08542356763075795</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1020614450750744</v>
+        <v>0.1040207565328527</v>
       </c>
       <c r="O162" t="n">
-        <v>0.08545482901305025</v>
+        <v>0.08546767583831437</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03347453935066151</v>
+        <v>0.07591935448483428</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0866119744486184</v>
+        <v>0.05450480873163974</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03347453935066151</v>
+        <v>0.03273656576783203</v>
       </c>
       <c r="K163" t="n">
         <v>0.0866119744486184</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06716008295640152</v>
+        <v>0.06541793121688055</v>
       </c>
       <c r="M163" t="n">
         <v>0.08630422296715752</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1046579462015242</v>
+        <v>0.09978934827731356</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08633580663174149</v>
+        <v>0.08634878589850317</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03334329239516992</v>
+        <v>0.07592089814637923</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08749577010625736</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03334329239516992</v>
+        <v>0.03217331674509183</v>
       </c>
       <c r="K164" t="n">
         <v>0.08749577010625736</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06927982827645041</v>
+        <v>0.0694362539774766</v>
       </c>
       <c r="M164" t="n">
         <v>0.08718487830355709</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1054086799119643</v>
+        <v>0.1012491999021732</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08721678425043274</v>
+        <v>0.08722989595869197</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.032338076451986</v>
+        <v>0.07542089814637924</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08837956576389633</v>
+        <v>0.05506098024930954</v>
       </c>
       <c r="J165" t="n">
-        <v>0.032338076451986</v>
+        <v>0.03284545969945636</v>
       </c>
       <c r="K165" t="n">
         <v>0.08837956576389633</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06643892942235552</v>
+        <v>0.06669667143259572</v>
       </c>
       <c r="M165" t="n">
         <v>0.08806553363995666</v>
       </c>
       <c r="N165" t="n">
-        <v>0.10541610773719</v>
+        <v>0.09917221070541749</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08809776186912398</v>
+        <v>0.08811100601888079</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03217186515189611</v>
+        <v>0.07479456727029606</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08926336142153529</v>
+        <v>0.05509309270869517</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03217186515189611</v>
+        <v>0.0323129683546822</v>
       </c>
       <c r="K166" t="n">
         <v>0.08926336142153529</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06790774296867616</v>
+        <v>0.06819497160858379</v>
       </c>
       <c r="M166" t="n">
         <v>0.08894618897635623</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1009008332132281</v>
+        <v>0.1018048789255664</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08897873948781522</v>
+        <v>0.08899211607906961</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03361437437749311</v>
+        <v>0.07416650187732679</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09014715707917426</v>
+        <v>0.05512433942523363</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03361437437749311</v>
+        <v>0.03349708357855637</v>
       </c>
       <c r="K167" t="n">
         <v>0.09014715707917426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06965078710199815</v>
+        <v>0.06728003958101264</v>
       </c>
       <c r="M167" t="n">
         <v>0.08982684431275578</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1005116120537323</v>
+        <v>0.1037655088035212</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08985971710650646</v>
+        <v>0.08987322613925841</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03226471983223</v>
+        <v>0.07353670196747153</v>
       </c>
       <c r="G168" t="n">
-        <v>0.09103095273681322</v>
+        <v>0.05515472039892497</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03226471983223</v>
+        <v>0.03326273074868605</v>
       </c>
       <c r="K168" t="n">
         <v>0.09103095273681322</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0662770718702429</v>
+        <v>0.0691307704326429</v>
       </c>
       <c r="M168" t="n">
         <v>0.09070749964915537</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1009986324809684</v>
+        <v>0.1018800901829403</v>
       </c>
       <c r="O168" t="n">
-        <v>0.09074069472519769</v>
+        <v>0.09075433619944721</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03330885172405151</v>
+        <v>0.0729051675407302</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09191474839445218</v>
+        <v>0.05518423562976914</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03330885172405151</v>
+        <v>0.03308436679425615</v>
       </c>
       <c r="K169" t="n">
         <v>0.09191474839445218</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06864138845988005</v>
+        <v>0.06892873196947083</v>
       </c>
       <c r="M169" t="n">
         <v>0.09158815498555492</v>
       </c>
       <c r="N169" t="n">
-        <v>0.101669813180364</v>
+        <v>0.1017324512307828</v>
       </c>
       <c r="O169" t="n">
-        <v>0.09162167234388893</v>
+        <v>0.09163544625963602</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0328630969193222</v>
+        <v>0.07227189859710287</v>
       </c>
       <c r="G170" t="n">
-        <v>0.09279854405209115</v>
+        <v>0.0552128851177662</v>
       </c>
       <c r="J170" t="n">
-        <v>0.0328630969193222</v>
+        <v>0.03273796585266964</v>
       </c>
       <c r="K170" t="n">
         <v>0.09279854405209115</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06576636559876853</v>
+        <v>0.07020770677409904</v>
       </c>
       <c r="M170" t="n">
         <v>0.09246881032195449</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1056947126123389</v>
+        <v>0.102655817822194</v>
       </c>
       <c r="O170" t="n">
-        <v>0.09250264996258017</v>
+        <v>0.09251655631982483</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03311540447781271</v>
+        <v>0.07163689513658951</v>
       </c>
       <c r="G171" t="n">
-        <v>0.09368233970973011</v>
+        <v>0.0552406688629161</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03311540447781271</v>
+        <v>0.03354784545458495</v>
       </c>
       <c r="K171" t="n">
         <v>0.09368233970973011</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06869407370537503</v>
+        <v>0.06960863328956352</v>
       </c>
       <c r="M171" t="n">
         <v>0.09334946565835406</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1014913234709174</v>
+        <v>0.1013940791269168</v>
       </c>
       <c r="O171" t="n">
-        <v>0.09338362758127142</v>
+        <v>0.09339766638001364</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0333167909678547</v>
+        <v>0.0710001571591901</v>
       </c>
       <c r="G172" t="n">
-        <v>0.09456613536736906</v>
+        <v>0.05526758686521886</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0333167909678547</v>
+        <v>0.0331085331778395</v>
       </c>
       <c r="K172" t="n">
         <v>0.09456613536736906</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06894155752390904</v>
+        <v>0.07007234922573477</v>
       </c>
       <c r="M172" t="n">
         <v>0.09423012099475363</v>
       </c>
       <c r="N172" t="n">
-        <v>0.106486247303132</v>
+        <v>0.09991924757162629</v>
       </c>
       <c r="O172" t="n">
-        <v>0.09426460519996266</v>
+        <v>0.09427877644020244</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03351750880507605</v>
+        <v>0.07036168466490468</v>
       </c>
       <c r="G173" t="n">
-        <v>0.09544993102500804</v>
+        <v>0.05529363912467447</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03351750880507605</v>
+        <v>0.03295096828052384</v>
       </c>
       <c r="K173" t="n">
         <v>0.09544993102500804</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06730648640935208</v>
+        <v>0.06718472448508142</v>
       </c>
       <c r="M173" t="n">
         <v>0.0951107763311532</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1027567755657761</v>
+        <v>0.1037005691532597</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0951455828186539</v>
+        <v>0.09515988650039126</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03381747234001678</v>
+        <v>0.06972147765373318</v>
       </c>
       <c r="G174" t="n">
-        <v>0.09633372668264699</v>
+        <v>0.05531882564128293</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03381747234001678</v>
+        <v>0.0340258389577785</v>
       </c>
       <c r="K174" t="n">
         <v>0.09633372668264699</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06896587287374056</v>
+        <v>0.06819067258326228</v>
       </c>
       <c r="M174" t="n">
         <v>0.09599143166755275</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1046136738308906</v>
+        <v>0.1037348505867731</v>
       </c>
       <c r="O174" t="n">
-        <v>0.09602656043734513</v>
+        <v>0.09604099656058007</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03354967303097012</v>
+        <v>0.0690795361256757</v>
       </c>
       <c r="G175" t="n">
-        <v>0.09721752234028597</v>
+        <v>0.05534314641504428</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03354967303097012</v>
+        <v>0.0330325972673019</v>
       </c>
       <c r="K175" t="n">
         <v>0.09721752234028597</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06831327448525673</v>
+        <v>0.0676004038530543</v>
       </c>
       <c r="M175" t="n">
         <v>0.09687208700395232</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1020873211593461</v>
+        <v>0.1036739400597005</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09690753805603637</v>
+        <v>0.09692210662076887</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03286321154624232</v>
+        <v>0.06843586008073217</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09810131799792492</v>
+        <v>0.05536660144595845</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03286321154624232</v>
+        <v>0.0337728196423845</v>
       </c>
       <c r="K176" t="n">
         <v>0.09810131799792492</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07040841545515458</v>
+        <v>0.06727070291539827</v>
       </c>
       <c r="M176" t="n">
         <v>0.09775274234035189</v>
       </c>
       <c r="N176" t="n">
-        <v>0.104116045158787</v>
+        <v>0.1005204941815142</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09778851567472761</v>
+        <v>0.09780321668095766</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03383649207870931</v>
+        <v>0.0677904495189026</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09898511365556389</v>
+        <v>0.0553891907340255</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03383649207870931</v>
+        <v>0.03326050061592223</v>
       </c>
       <c r="K177" t="n">
         <v>0.09898511365556389</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06991397188445189</v>
+        <v>0.06744833262049321</v>
       </c>
       <c r="M177" t="n">
         <v>0.09863339767675146</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1031925409569369</v>
+        <v>0.1029718862070177</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09866949329341886</v>
+        <v>0.09868432674114648</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03433275096783713</v>
+        <v>0.06714330444018703</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09986890931320284</v>
+        <v>0.05541091427924542</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03433275096783713</v>
+        <v>0.03258751904659886</v>
       </c>
       <c r="K178" t="n">
         <v>0.09986890931320284</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06748954645321928</v>
+        <v>0.07080379722537117</v>
       </c>
       <c r="M178" t="n">
         <v>0.09951405301315103</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1079674152051763</v>
+        <v>0.1071304635823931</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0995504709121101</v>
+        <v>0.0995654368013353</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03393512020012406</v>
+        <v>0.06649442484458537</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1007527049708418</v>
+        <v>0.05543177208161817</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03393512020012406</v>
+        <v>0.03379334493655271</v>
       </c>
       <c r="K179" t="n">
         <v>0.1007527049708418</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07055616851134613</v>
+        <v>0.06758204658216946</v>
       </c>
       <c r="M179" t="n">
         <v>0.1003947083495506</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1025547788167276</v>
+        <v>0.100937378663001</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1004314485308013</v>
+        <v>0.1004465468615241</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03374476849620928</v>
+        <v>0.06584381073209773</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1016365006284808</v>
+        <v>0.0554517641411438</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03374476849620928</v>
+        <v>0.03392865693274767</v>
       </c>
       <c r="K180" t="n">
         <v>0.1016365006284808</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06855216910014417</v>
+        <v>0.06977040428014486</v>
       </c>
       <c r="M180" t="n">
         <v>0.1012753636859502</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1018689441434073</v>
+        <v>0.1077398979465381</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1013124261494926</v>
+        <v>0.1013276569217129</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03294337982300523</v>
+        <v>0.06519146210272403</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1025202962861197</v>
+        <v>0.05547089045782225</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03294337982300523</v>
+        <v>0.03251691951451971</v>
       </c>
       <c r="K181" t="n">
         <v>0.1025202962861197</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06912132717316072</v>
+        <v>0.06709121443766913</v>
       </c>
       <c r="M181" t="n">
         <v>0.1021560190223497</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1036483032602741</v>
+        <v>0.1048635824942487</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1021934037681838</v>
+        <v>0.1022087669819017</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0340293728920515</v>
+        <v>0.06453737895646432</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1034040919437587</v>
+        <v>0.0554891510316536</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0340293728920515</v>
+        <v>0.03354457114669659</v>
       </c>
       <c r="K182" t="n">
         <v>0.1034040919437587</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06844220786971572</v>
+        <v>0.0702412703177949</v>
       </c>
       <c r="M182" t="n">
         <v>0.1030366743587493</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1055896649165206</v>
+        <v>0.1057333031746736</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1030743813868751</v>
+        <v>0.1030898770420905</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0342453939905364</v>
+        <v>0.06388156129331854</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1042878876013977</v>
+        <v>0.05550654586263776</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0342453939905364</v>
+        <v>0.03355123554492392</v>
       </c>
       <c r="K183" t="n">
         <v>0.1042878876013977</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06908182236735286</v>
+        <v>0.06932323096336096</v>
       </c>
       <c r="M183" t="n">
         <v>0.1039173296951489</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1037498466781512</v>
+        <v>0.1052603413211388</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1039553590055663</v>
+        <v>0.1039709871022793</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03311210583954181</v>
+        <v>0.06322400911328677</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1051716832590366</v>
+        <v>0.05552307495077482</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03311210583954181</v>
+        <v>0.03372459773483896</v>
       </c>
       <c r="K184" t="n">
         <v>0.1051716832590366</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06907321445039227</v>
+        <v>0.06920007313897494</v>
       </c>
       <c r="M184" t="n">
         <v>0.1047979850315484</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1020645561238232</v>
+        <v>0.1082749874193433</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1048363366242575</v>
+        <v>0.1048520971624681</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03324225516145521</v>
+        <v>0.06256472241636896</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1060554789166756</v>
+        <v>0.05553873829606473</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03324225516145521</v>
+        <v>0.03403831839520477</v>
       </c>
       <c r="K185" t="n">
         <v>0.1060554789166756</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07033068561719763</v>
+        <v>0.06912059875867749</v>
       </c>
       <c r="M185" t="n">
         <v>0.105678640367948</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1042471430061091</v>
+        <v>0.1060876137386906</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1057173142429488</v>
+        <v>0.1057332072226569</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03389125421657656</v>
+        <v>0.0619037012025651</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1069392745743146</v>
+        <v>0.05555353589850748</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03389125421657656</v>
+        <v>0.03424204452263609</v>
       </c>
       <c r="K186" t="n">
         <v>0.1069392745743146</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06975625328575175</v>
+        <v>0.06726216357612405</v>
       </c>
       <c r="M186" t="n">
         <v>0.1065592957043476</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1046223652024743</v>
+        <v>0.1062656176729594</v>
       </c>
       <c r="O186" t="n">
-        <v>0.10659829186164</v>
+        <v>0.1066143172828458</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03301273201446267</v>
+        <v>0.06124094547187522</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1078230702319535</v>
+        <v>0.05556746775810311</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03301273201446267</v>
+        <v>0.03418536340397439</v>
       </c>
       <c r="K187" t="n">
         <v>0.1078230702319535</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07118754561549454</v>
+        <v>0.06756028977387327</v>
       </c>
       <c r="M187" t="n">
         <v>0.1074399510407471</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1066497647284875</v>
+        <v>0.1012618156247828</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1074792694803312</v>
+        <v>0.1074954273430346</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03380104525069592</v>
+        <v>0.0605764552242993</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1087068658895925</v>
+        <v>0.05558053387485157</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03380104525069592</v>
+        <v>0.0331639751539937</v>
       </c>
       <c r="K188" t="n">
         <v>0.1087068658895925</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06998967042908077</v>
+        <v>0.07004891427214063</v>
       </c>
       <c r="M188" t="n">
         <v>0.1083206063771467</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1048440002686725</v>
+        <v>0.1039874606758743</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1083602470990225</v>
+        <v>0.1083765374032234</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03388296840171247</v>
+        <v>0.05991023045983734</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1095906615472314</v>
+        <v>0.05559273424875291</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03388296840171247</v>
+        <v>0.03438730360220665</v>
       </c>
       <c r="K189" t="n">
         <v>0.1095906615472314</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06896551998473271</v>
+        <v>0.06924354024489035</v>
       </c>
       <c r="M189" t="n">
         <v>0.1092012617135463</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1032469159533762</v>
+        <v>0.1015701988884713</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1092412247177137</v>
+        <v>0.1092576474634122</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03439259898230104</v>
+        <v>0.05924227117848935</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1104744572048704</v>
+        <v>0.05560406887980709</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03439259898230104</v>
+        <v>0.03417582446451485</v>
       </c>
       <c r="K190" t="n">
         <v>0.1104744572048704</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06916299647939575</v>
+        <v>0.06840346293597296</v>
       </c>
       <c r="M190" t="n">
         <v>0.1100819170499458</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1030092688707048</v>
+        <v>0.1039066164433233</v>
       </c>
       <c r="O190" t="n">
-        <v>0.110122202336405</v>
+        <v>0.110138757523601</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03445876778093655</v>
+        <v>0.05857257738025537</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1113582528625094</v>
+        <v>0.05561453776801416</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03445876778093655</v>
+        <v>0.03451614573631502</v>
       </c>
       <c r="K191" t="n">
         <v>0.1113582528625094</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06926133753034899</v>
+        <v>0.07054665192838719</v>
       </c>
       <c r="M191" t="n">
         <v>0.1109625723863454</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1028745755566111</v>
+        <v>0.1056428951652487</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1110031799550962</v>
+        <v>0.1110198675837898</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03447254047626951</v>
+        <v>0.05790114906513533</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1122420485201483</v>
+        <v>0.05562414091337406</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03447254047626951</v>
+        <v>0.03313964774315814</v>
       </c>
       <c r="K192" t="n">
         <v>0.1122420485201483</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07140921052436153</v>
+        <v>0.06978167166183644</v>
       </c>
       <c r="M192" t="n">
         <v>0.111843227722745</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1083261577869492</v>
+        <v>0.106552429877858</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1118841575737875</v>
+        <v>0.1119009776439786</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03448690429528826</v>
+        <v>0.05722798623312925</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1131258441777873</v>
+        <v>0.05563287831588681</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03448690429528826</v>
+        <v>0.03475478541922454</v>
       </c>
       <c r="K193" t="n">
         <v>0.1131258441777873</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07155590923129812</v>
+        <v>0.07115993797622036</v>
       </c>
       <c r="M193" t="n">
         <v>0.1127238830591445</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1028430384774194</v>
+        <v>0.1069077210941433</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1127651351924787</v>
+        <v>0.1127820877041674</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03374702208023353</v>
+        <v>0.05655308888423713</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1140096398354263</v>
+        <v>0.05564074997555243</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03374702208023353</v>
+        <v>0.03297380626641293</v>
       </c>
       <c r="K194" t="n">
         <v>0.1140096398354263</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07115645100060625</v>
+        <v>0.06846206745631619</v>
       </c>
       <c r="M194" t="n">
         <v>0.1136045383955441</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1025783349799614</v>
+        <v>0.1053194939994375</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1136461128111699</v>
+        <v>0.1136631977643562</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03424738488890308</v>
+        <v>0.05587645701845902</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1148934354930652</v>
+        <v>0.05564775589237092</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03424738488890308</v>
+        <v>0.03435500087758753</v>
       </c>
       <c r="K195" t="n">
         <v>0.1148934354930652</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07162288844067632</v>
+        <v>0.07121864466478195</v>
       </c>
       <c r="M195" t="n">
         <v>0.1144851937319437</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1065418360835399</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1145270904298612</v>
+        <v>0.114544307824545</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03366495963025495</v>
+        <v>0.05519809063579482</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1157772311507042</v>
+        <v>0.05565389606634224</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03366495963025495</v>
+        <v>0.03416819693990659</v>
       </c>
       <c r="K196" t="n">
         <v>0.1157772311507042</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07017604148037526</v>
+        <v>0.06842134633054203</v>
       </c>
       <c r="M196" t="n">
         <v>0.1153658490683432</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1053084367682428</v>
+        <v>0.1045802557575821</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1154080680485524</v>
+        <v>0.1154254178847338</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03431651439101957</v>
+        <v>0.05451798973624461</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1166610268083432</v>
+        <v>0.05565917049746642</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03431651439101957</v>
+        <v>0.03449464928526565</v>
       </c>
       <c r="K197" t="n">
         <v>0.1166610268083432</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07024364940726815</v>
+        <v>0.07161877176041434</v>
       </c>
       <c r="M197" t="n">
         <v>0.1162465044047428</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1056475049114193</v>
+        <v>0.1032964313755735</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1162890456672436</v>
+        <v>0.1163065279449226</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03395120675695568</v>
+        <v>0.0538361543198084</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1175448224659821</v>
+        <v>0.05566357918574347</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03395120675695568</v>
+        <v>0.03420595041393998</v>
       </c>
       <c r="K198" t="n">
         <v>0.1175448224659821</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0685832693944739</v>
+        <v>0.06952656774557833</v>
       </c>
       <c r="M198" t="n">
         <v>0.1171271597411424</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1084188219163049</v>
+        <v>0.102437009083136</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1171700232859349</v>
+        <v>0.1171876380051114</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03465415541658302</v>
+        <v>0.05315258438648612</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1184286181236211</v>
+        <v>0.05566712213117338</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03465415541658302</v>
+        <v>0.03467274793230765</v>
       </c>
       <c r="K199" t="n">
         <v>0.1184286181236211</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06847866602469496</v>
+        <v>0.07123365801131587</v>
       </c>
       <c r="M199" t="n">
         <v>0.1180078150775419</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1034608826427679</v>
+        <v>0.1080097130797925</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1180510009046261</v>
+        <v>0.1180687480653003</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03398931631023792</v>
+        <v>0.05246727993627781</v>
       </c>
       <c r="G200" t="n">
-        <v>0.11931241378126</v>
+        <v>0.05566979933375613</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03398931631023792</v>
+        <v>0.03353428339828783</v>
       </c>
       <c r="K200" t="n">
         <v>0.11931241378126</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07073818129719778</v>
+        <v>0.0718651803996968</v>
       </c>
       <c r="M200" t="n">
         <v>0.1188884704139415</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1054761757877226</v>
+        <v>0.1059232841674831</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1189319785233174</v>
+        <v>0.1189498581254891</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0345400867656885</v>
+        <v>0.05178024096918349</v>
       </c>
       <c r="G201" t="n">
-        <v>0.120196209438899</v>
+        <v>0.05567161079349175</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0345400867656885</v>
+        <v>0.03419520453843088</v>
       </c>
       <c r="K201" t="n">
         <v>0.120196209438899</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06950493437585611</v>
+        <v>0.06966423974300825</v>
       </c>
       <c r="M201" t="n">
         <v>0.119769125750341</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1071395319598425</v>
+        <v>0.1029678247003436</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1198129561420086</v>
+        <v>0.1198309681856779</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03419809735487696</v>
+        <v>0.05109146748520314</v>
       </c>
       <c r="G202" t="n">
-        <v>0.121080005096538</v>
+        <v>0.05567255651038025</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03419809735487696</v>
+        <v>0.03488059191408588</v>
       </c>
       <c r="K202" t="n">
         <v>0.121080005096538</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07025606068752366</v>
+        <v>0.07144947041432653</v>
       </c>
       <c r="M202" t="n">
         <v>0.1206497810867406</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1056314448166897</v>
+        <v>0.1039895836905076</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1206939337606999</v>
+        <v>0.1207120782458667</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03327993131045037</v>
+        <v>0.05040095948433673</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1219638007541769</v>
+        <v>0.05567263648442157</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03327993131045037</v>
+        <v>0.03477699792987789</v>
       </c>
       <c r="K203" t="n">
         <v>0.1219638007541769</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07037483116910384</v>
+        <v>0.07241788014525674</v>
       </c>
       <c r="M203" t="n">
         <v>0.1215304364231402</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1052693301290509</v>
+        <v>0.1084872964229274</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1215749113793911</v>
+        <v>0.1215931883060555</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0342324384333192</v>
+        <v>0.04970871696658428</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1228475964118159</v>
+        <v>0.05567185071561574</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0342324384333192</v>
+        <v>0.03384825650404347</v>
       </c>
       <c r="K204" t="n">
         <v>0.1228475964118159</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07133596641672066</v>
+        <v>0.07188873319236624</v>
       </c>
       <c r="M204" t="n">
         <v>0.1224110917595398</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1071765629811611</v>
+        <v>0.1073051343155241</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1224558889980823</v>
+        <v>0.1224742983662443</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03396096048016037</v>
+        <v>0.04901473993194584</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1237313920694549</v>
+        <v>0.0556701992039628</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03396096048016037</v>
+        <v>0.03454196160803741</v>
       </c>
       <c r="K205" t="n">
         <v>0.1237313920694549</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07102672024178563</v>
+        <v>0.06864813576310175</v>
       </c>
       <c r="M205" t="n">
         <v>0.1232917470959393</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1042948242997989</v>
+        <v>0.1078198691004316</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1233368666167736</v>
+        <v>0.1233554084264331</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03467990998046819</v>
+        <v>0.04831902838042135</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1246151877270938</v>
+        <v>0.05566768194946272</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03467990998046819</v>
+        <v>0.0339829881953651</v>
       </c>
       <c r="K206" t="n">
         <v>0.1246151877270938</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06865247262285148</v>
+        <v>0.06807900210619044</v>
       </c>
       <c r="M206" t="n">
         <v>0.1241724024323389</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1092351196487473</v>
+        <v>0.1053446677569228</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1242178442354648</v>
+        <v>0.1242365184866219</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.04762158231201082</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1254989833847328</v>
+        <v>0.05566429895211546</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03391113287276243</v>
       </c>
       <c r="K207" t="n">
         <v>0.1254989833847328</v>
       </c>
       <c r="L207" t="n">
-        <v>0.0712141847396402</v>
+        <v>0.07084654968266629</v>
       </c>
       <c r="M207" t="n">
         <v>0.1250530577687385</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1057592698702197</v>
+        <v>0.1064939192133096</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1250988218541561</v>
+        <v>0.1251176285468107</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03404860065807579</v>
+        <v>0.04692240172671427</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1263827790423717</v>
+        <v>0.05566005021192109</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03404860065807579</v>
+        <v>0.0342907333849502</v>
       </c>
       <c r="K208" t="n">
         <v>0.1263827790423717</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0684646746702004</v>
+        <v>0.07235844925297605</v>
       </c>
       <c r="M208" t="n">
         <v>0.125933713105138</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1060305312548913</v>
+        <v>0.1081721735166631</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1259797994728473</v>
+        <v>0.1259987386069995</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03368860687472564</v>
+        <v>0.04622148662453168</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1272665747000107</v>
+        <v>0.05565493572887957</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03368860687472564</v>
+        <v>0.03496132386879904</v>
       </c>
       <c r="K209" t="n">
         <v>0.1272665747000107</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0703703738865136</v>
+        <v>0.07109865894884534</v>
       </c>
       <c r="M209" t="n">
         <v>0.1268143684415376</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1031941602905302</v>
+        <v>0.1095213893070592</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1268607770915385</v>
+        <v>0.1268798486671883</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03367501523611773</v>
+        <v>0.04551883700546307</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1281503703576497</v>
+        <v>0.05564895550299089</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03367501523611773</v>
+        <v>0.03433493790433591</v>
       </c>
       <c r="K210" t="n">
         <v>0.1281503703576497</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07114165421077645</v>
+        <v>0.07012627796676812</v>
       </c>
       <c r="M210" t="n">
         <v>0.1276950237779371</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1081067554835008</v>
+        <v>0.1091348505441935</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1277417547102298</v>
+        <v>0.1277609587273771</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03382143232780765</v>
+        <v>0.04481445286950839</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1290341660152886</v>
+        <v>0.05564210953425509</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03382143232780765</v>
+        <v>0.03514416219994713</v>
       </c>
       <c r="K211" t="n">
         <v>0.1290341660152886</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06996730223841283</v>
+        <v>0.07050624756116114</v>
       </c>
       <c r="M211" t="n">
         <v>0.1285756791143367</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1087623294924603</v>
+        <v>0.1035392764230579</v>
       </c>
       <c r="O211" t="n">
-        <v>0.128622732328921</v>
+        <v>0.128642068787566</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03448343369472825</v>
+        <v>0.04410833421666772</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1299179616729276</v>
+        <v>0.05563439782267213</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03448343369472825</v>
+        <v>0.03338693505127062</v>
       </c>
       <c r="K212" t="n">
         <v>0.1299179616729276</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07107949944180886</v>
+        <v>0.06883505473011314</v>
       </c>
       <c r="M212" t="n">
         <v>0.1294563344507363</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1054943069932442</v>
+        <v>0.1093528407399207</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1295037099476122</v>
+        <v>0.1295231788477547</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03360044150605671</v>
+        <v>0.04340048104694101</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1308017573305666</v>
+        <v>0.05562582036824204</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03360044150605671</v>
+        <v>0.03409100134753704</v>
       </c>
       <c r="K213" t="n">
         <v>0.1308017573305666</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07100819692605423</v>
+        <v>0.07092905298283836</v>
       </c>
       <c r="M213" t="n">
         <v>0.1303369897871358</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1072351072487041</v>
+        <v>0.1071698191280521</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1303846875663035</v>
+        <v>0.1304042889079436</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03394631533776767</v>
+        <v>0.04269089336032825</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1316855529882055</v>
+        <v>0.05561637717096479</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03394631533776767</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K214" t="n">
         <v>0.1316855529882055</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07022961427414226</v>
+        <v>0.0700994641548485</v>
       </c>
       <c r="M214" t="n">
         <v>0.1312176451235354</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1029638410682823</v>
+        <v>0.1095460808837007</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1312656651849947</v>
+        <v>0.1312853989681324</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0341212027369385</v>
+        <v>0.04197957115682949</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1325693486458445</v>
+        <v>0.05560606823084042</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0341212027369385</v>
+        <v>0.03470946261755228</v>
       </c>
       <c r="K215" t="n">
         <v>0.1325693486458445</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07270041714675246</v>
+        <v>0.0691107984436917</v>
       </c>
       <c r="M215" t="n">
         <v>0.132098300459935</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1077767214877655</v>
+        <v>0.1046880849873203</v>
       </c>
       <c r="O215" t="n">
-        <v>0.132146642803686</v>
+        <v>0.1321665090283212</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0337167570659319</v>
+        <v>0.04126651443644466</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1334531443034835</v>
+        <v>0.0555948935478689</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0337167570659319</v>
+        <v>0.03456943236408674</v>
       </c>
       <c r="K216" t="n">
         <v>0.1334531443034835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0713056105565954</v>
+        <v>0.07137190280139516</v>
       </c>
       <c r="M216" t="n">
         <v>0.1329789557963346</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1104959676273157</v>
+        <v>0.1099525323938113</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1330276204223772</v>
+        <v>0.13304761908851</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03427714357518823</v>
+        <v>0.04055172319917383</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1343369399611224</v>
+        <v>0.05558285312205023</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03427714357518823</v>
+        <v>0.03496557694224678</v>
       </c>
       <c r="K217" t="n">
         <v>0.1343369399611224</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0698158287017176</v>
+        <v>0.07249008070942925</v>
       </c>
       <c r="M217" t="n">
         <v>0.1338596111327341</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1075444514652581</v>
+        <v>0.1097246608820396</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1339085980410684</v>
+        <v>0.1339287291486988</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03380444684326497</v>
+        <v>0.03983519744501694</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1352207356187614</v>
+        <v>0.05556994695338442</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03380444684326497</v>
+        <v>0.03495446274240063</v>
       </c>
       <c r="K218" t="n">
         <v>0.1352207356187614</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0696347005397514</v>
+        <v>0.07160204979546159</v>
       </c>
       <c r="M218" t="n">
         <v>0.1347402664691337</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1047257159438589</v>
+        <v>0.1031597066256337</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1347895756597597</v>
+        <v>0.1348098392088876</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03434774007956393</v>
+        <v>0.03911693717397403</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1361045312764003</v>
+        <v>0.05555617504187147</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03434774007956393</v>
+        <v>0.03414086738447671</v>
       </c>
       <c r="K219" t="n">
         <v>0.1361045312764003</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07031203320364962</v>
+        <v>0.07055727168582679</v>
       </c>
       <c r="M219" t="n">
         <v>0.1356209218055333</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1083947023549131</v>
+        <v>0.106335087794769</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1356705532784509</v>
+        <v>0.1356909492690764</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03355180836588514</v>
+        <v>0.0383969423860451</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1369883269340393</v>
+        <v>0.05554153738751139</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03355180836588514</v>
+        <v>0.03441227935102956</v>
       </c>
       <c r="K220" t="n">
         <v>0.1369883269340393</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06872407730456337</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M220" t="n">
         <v>0.1365015771419328</v>
       </c>
       <c r="N220" t="n">
-        <v>0.106361169430542</v>
+        <v>0.1065763010123463</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1365515308971422</v>
+        <v>0.1365720593292652</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03386799852304098</v>
+        <v>0.03767521308123013</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1378721225916783</v>
+        <v>0.05552603399030415</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03386799852304098</v>
+        <v>0.03434127976787382</v>
       </c>
       <c r="K221" t="n">
         <v>0.1378721225916783</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06946683466359813</v>
+        <v>0.06881488690786089</v>
       </c>
       <c r="M221" t="n">
         <v>0.1373822324783324</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1071463513739256</v>
+        <v>0.1095717229818221</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1374325085158334</v>
+        <v>0.137453169389454</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03434600125577192</v>
+        <v>0.03695174925952911</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1387559182493172</v>
+        <v>0.05550966485024977</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03434600125577192</v>
+        <v>0.03501380383135881</v>
       </c>
       <c r="K222" t="n">
         <v>0.1387559182493172</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07087477577878429</v>
+        <v>0.06886003844186545</v>
       </c>
       <c r="M222" t="n">
         <v>0.1382628878147319</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1096413458995643</v>
+        <v>0.1045457057918693</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1383134861345247</v>
+        <v>0.1383342794496429</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03431679966027609</v>
+        <v>0.03622655092094208</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1396397139069562</v>
+        <v>0.05549242996734825</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03431679966027609</v>
+        <v>0.03404478335481524</v>
       </c>
       <c r="K223" t="n">
         <v>0.1396397139069562</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06978260575047376</v>
+        <v>0.0708117806615835</v>
       </c>
       <c r="M223" t="n">
         <v>0.1391435431511315</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1100182671852935</v>
+        <v>0.1073336018607004</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1391944637532159</v>
+        <v>0.1392153895098316</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03426606766468245</v>
+        <v>0.03549961806546902</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1405235095645952</v>
+        <v>0.05547432934159957</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03426606766468245</v>
+        <v>0.0352425962059999</v>
       </c>
       <c r="K224" t="n">
         <v>0.1405235095645952</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06894260893550866</v>
+        <v>0.0694745090903989</v>
       </c>
       <c r="M224" t="n">
         <v>0.1400241984875311</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1037846871315216</v>
+        <v>0.1108646754202365</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1400754413719071</v>
+        <v>0.1400964995700205</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03519318160499524</v>
+        <v>0.03477095069310991</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1414073052222341</v>
+        <v>0.05545536297300377</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03519318160499524</v>
+        <v>0.03381298458190182</v>
       </c>
       <c r="K225" t="n">
         <v>0.1414073052222341</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07078934712587504</v>
+        <v>0.06980663158634751</v>
       </c>
       <c r="M225" t="n">
         <v>0.1409048538239307</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1086974092862802</v>
+        <v>0.109406956795752</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1409564189905984</v>
+        <v>0.1409776096302092</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03375302176348864</v>
+        <v>0.03404054880386478</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1422911008798731</v>
+        <v>0.05543553086156081</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03375302176348864</v>
+        <v>0.03457666980726461</v>
       </c>
       <c r="K226" t="n">
         <v>0.1422911008798731</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06930787154706317</v>
+        <v>0.07032680837907704</v>
       </c>
       <c r="M226" t="n">
         <v>0.1417855091603302</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1108102329572662</v>
+        <v>0.1065341137280426</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1418373966092896</v>
+        <v>0.1418587196903981</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03396503792076262</v>
+        <v>0.03330841239773362</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1431748965375121</v>
+        <v>0.05541483300727072</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03396503792076262</v>
+        <v>0.03389888393502362</v>
       </c>
       <c r="K227" t="n">
         <v>0.1431748965375121</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07014728501790662</v>
+        <v>0.07142206991317604</v>
       </c>
       <c r="M227" t="n">
         <v>0.1426661644967298</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1104529939450521</v>
+        <v>0.1059316563106603</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1427183742279808</v>
+        <v>0.1427398297505869</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03412452417852611</v>
+        <v>0.03257454147471642</v>
       </c>
       <c r="G228" t="n">
-        <v>0.144058692195151</v>
+        <v>0.05539326941013349</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03412452417852611</v>
+        <v>0.03534320700426041</v>
       </c>
       <c r="K228" t="n">
         <v>0.144058692195151</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06930449976698863</v>
+        <v>0.07299190929344018</v>
       </c>
       <c r="M228" t="n">
         <v>0.1435468198331293</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1074578053189308</v>
+        <v>0.1089171398003427</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1435993518466721</v>
+        <v>0.1436209398107757</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03410756911381517</v>
+        <v>0.03183893603481319</v>
       </c>
       <c r="G229" t="n">
-        <v>0.14494248785279</v>
+        <v>0.05537084007014911</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03410756911381517</v>
+        <v>0.03469851680544182</v>
       </c>
       <c r="K229" t="n">
         <v>0.14494248785279</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0730687493549515</v>
+        <v>0.07266946156915416</v>
       </c>
       <c r="M229" t="n">
         <v>0.1444274751695289</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1041742475675237</v>
+        <v>0.1061008863455078</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1444803294653633</v>
+        <v>0.1445020498709645</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03452049778444294</v>
+        <v>0.03110159607802393</v>
       </c>
       <c r="G230" t="n">
-        <v>0.145826283510429</v>
+        <v>0.05534754498731758</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03452049778444294</v>
+        <v>0.03539778766380293</v>
       </c>
       <c r="K230" t="n">
         <v>0.145826283510429</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07073962634308573</v>
+        <v>0.0692014936311669</v>
       </c>
       <c r="M230" t="n">
         <v>0.1453081305059285</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1113350553209323</v>
+        <v>0.1049353598379088</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1453613070840546</v>
+        <v>0.1453831599311533</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03513807270275988</v>
+        <v>0.03036252160434863</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1467100791680679</v>
+        <v>0.05532338416163892</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03513807270275988</v>
+        <v>0.03466913239121203</v>
       </c>
       <c r="K231" t="n">
         <v>0.1467100791680679</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07085910511552077</v>
+        <v>0.06928651191327923</v>
       </c>
       <c r="M231" t="n">
         <v>0.1461887858423281</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1060008725282998</v>
+        <v>0.1097537373704512</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1462422847027458</v>
+        <v>0.1462642699913421</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0343024614319405</v>
+        <v>0.02962171261378732</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1475938748257069</v>
+        <v>0.05529835759311312</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0343024614319405</v>
+        <v>0.03535262250133249</v>
       </c>
       <c r="K232" t="n">
         <v>0.1475938748257069</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07171902067430713</v>
+        <v>0.07118863019320698</v>
       </c>
       <c r="M232" t="n">
         <v>0.1470694411787276</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1107098403801614</v>
+        <v>0.1078069881538443</v>
       </c>
       <c r="O232" t="n">
-        <v>0.147123262321437</v>
+        <v>0.1471453800515309</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03411155699891229</v>
+        <v>0.02887916910633995</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1484776704833458</v>
+        <v>0.05527246528174017</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03411155699891229</v>
+        <v>0.0344673158502672</v>
       </c>
       <c r="K233" t="n">
         <v>0.1484776704833458</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07147072864040441</v>
+        <v>0.07112944181889475</v>
       </c>
       <c r="M233" t="n">
         <v>0.1479500965151272</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1101521510789975</v>
+        <v>0.1078732629354763</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1480042399401283</v>
+        <v>0.1480264901117197</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03518583311477853</v>
+        <v>0.02813489108200656</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1493614661409848</v>
+        <v>0.05524570722752007</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03518583311477853</v>
+        <v>0.03408781997181971</v>
       </c>
       <c r="K234" t="n">
         <v>0.1493614661409848</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.07168930950915584</v>
       </c>
       <c r="M234" t="n">
         <v>0.1488307518515267</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1080576959129</v>
+        <v>0.1073915383775777</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1488852175588195</v>
+        <v>0.1489076001719085</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03454519059234853</v>
+        <v>0.02738887854078714</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1502452617986238</v>
+        <v>0.05521808343045283</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03454519059234853</v>
+        <v>0.0347993853926863</v>
       </c>
       <c r="K235" t="n">
         <v>0.1502452617986238</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07083030707784235</v>
+        <v>0.07284692102105195</v>
       </c>
       <c r="M235" t="n">
         <v>0.1497114071879263</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1069370050626354</v>
+        <v>0.1076896315042564</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1497661951775107</v>
+        <v>0.1497887102320974</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03397344306290816</v>
+        <v>0.02664113148268168</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1511290574562627</v>
+        <v>0.05518959389053846</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03397344306290816</v>
+        <v>0.03486834219217146</v>
       </c>
       <c r="K236" t="n">
         <v>0.1511290574562627</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07338349442423328</v>
+        <v>0.07060120933885636</v>
       </c>
       <c r="M236" t="n">
         <v>0.1505920625243259</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1111455611744138</v>
+        <v>0.109386723901952</v>
       </c>
       <c r="O236" t="n">
-        <v>0.150647172796202</v>
+        <v>0.1506698202922861</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03526923250874597</v>
+        <v>0.0258916499076902</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1520128531139017</v>
+        <v>0.05516023860777693</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03526923250874597</v>
+        <v>0.03555398978017474</v>
       </c>
       <c r="K237" t="n">
         <v>0.1520128531139017</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06939607526818053</v>
+        <v>0.07155749944953474</v>
       </c>
       <c r="M237" t="n">
         <v>0.1514727178607254</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1045745798440673</v>
+        <v>0.1067257721890121</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1515281504148932</v>
+        <v>0.151550930352475</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03402702542785427</v>
+        <v>0.02514043381581268</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1528966487715407</v>
+        <v>0.05513001758216827</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03402702542785427</v>
+        <v>0.03543075304568391</v>
       </c>
       <c r="K238" t="n">
         <v>0.1528966487715407</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06984272226678068</v>
+        <v>0.07064029876421452</v>
       </c>
       <c r="M238" t="n">
         <v>0.152353373197125</v>
       </c>
       <c r="N238" t="n">
-        <v>0.107801853345171</v>
+        <v>0.1062466201868306</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1524091280335845</v>
+        <v>0.1524320404126638</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03486796909701705</v>
+        <v>0.02438748320704914</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1537804444291796</v>
+        <v>0.05509893081371246</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03486796909701705</v>
+        <v>0.03503753199683149</v>
       </c>
       <c r="K239" t="n">
         <v>0.1537804444291796</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07060896497933947</v>
+        <v>0.07095284382273487</v>
       </c>
       <c r="M239" t="n">
         <v>0.1532340285335246</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1049696954949626</v>
+        <v>0.1102359634256284</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1532901056522757</v>
+        <v>0.1533131504728526</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03472512856852501</v>
+        <v>0.02363279808139956</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1546642400868186</v>
+        <v>0.05506697830240952</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03472512856852501</v>
+        <v>0.0339874297909568</v>
       </c>
       <c r="K240" t="n">
         <v>0.1546642400868186</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07130900610739563</v>
+        <v>0.07068948219293653</v>
       </c>
       <c r="M240" t="n">
         <v>0.1541146838699242</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1114198296490921</v>
+        <v>0.1043615253289015</v>
       </c>
       <c r="O240" t="n">
-        <v>0.154171083270967</v>
+        <v>0.1541942605330414</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03464295533109626</v>
+        <v>0.02287637843886395</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1555480357444576</v>
+        <v>0.05503416004825942</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03464295533109626</v>
+        <v>0.03396628756609128</v>
       </c>
       <c r="K241" t="n">
         <v>0.1555480357444576</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07179748455313234</v>
+        <v>0.07016780025807356</v>
       </c>
       <c r="M241" t="n">
         <v>0.1549953392063237</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1079502566014826</v>
+        <v>0.1051392156711305</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1550520608896582</v>
+        <v>0.1550753705932302</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03477772969188649</v>
+        <v>0.02211822427944229</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1564318314020965</v>
+        <v>0.05500047605126218</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03477772969188649</v>
+        <v>0.0350946926526465</v>
       </c>
       <c r="K242" t="n">
         <v>0.1564318314020965</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07021222883204659</v>
+        <v>0.07216305818497798</v>
       </c>
       <c r="M242" t="n">
         <v>0.1558759945427233</v>
       </c>
       <c r="N242" t="n">
-        <v>0.10783458892462</v>
+        <v>0.1106608800679248</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1559330385083494</v>
+        <v>0.155956480653419</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03488807638231226</v>
+        <v>0.02135833560313462</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1573156270597355</v>
+        <v>0.05496592631141781</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03488807638231226</v>
+        <v>0.03395679022086608</v>
       </c>
       <c r="K243" t="n">
         <v>0.1573156270597355</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07315006153298645</v>
+        <v>0.07341545397052271</v>
       </c>
       <c r="M243" t="n">
         <v>0.1567566498791229</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1056292174012922</v>
+        <v>0.1061825333446813</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1568140161270407</v>
+        <v>0.1568375907136078</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03409387856849706</v>
+        <v>0.0205967124099409</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1581994227173744</v>
+        <v>0.05493051082872628</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03409387856849706</v>
+        <v>0.03527616278352759</v>
       </c>
       <c r="K244" t="n">
         <v>0.1581994227173744</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07333702845235668</v>
+        <v>0.06975485365606052</v>
       </c>
       <c r="M244" t="n">
         <v>0.1576373052155224</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1110905858885771</v>
+        <v>0.1057161420874317</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1576949937457319</v>
+        <v>0.1577187007737966</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.03531658870991922</v>
+        <v>0.01983335469986117</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1590832183750134</v>
+        <v>0.05489422960318762</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03531658870991922</v>
+        <v>0.03442390801632485</v>
       </c>
       <c r="K245" t="n">
         <v>0.1590832183750134</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07170373073167174</v>
+        <v>0.0722467120140674</v>
       </c>
       <c r="M245" t="n">
         <v>0.158517960551922</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1105872926983347</v>
+        <v>0.1117019403403617</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1585759713644231</v>
+        <v>0.1585998108339854</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0350881385425113</v>
+        <v>0.0190682624728954</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1599670140326524</v>
+        <v>0.05485708263480181</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0350881385425113</v>
+        <v>0.03421232258977465</v>
       </c>
       <c r="K246" t="n">
         <v>0.1599670140326524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0730752749129876</v>
+        <v>0.07163387236977523</v>
       </c>
       <c r="M246" t="n">
         <v>0.1593986158883215</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.1096437036650785</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1594569489831144</v>
+        <v>0.1594809208941742</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03417663717797777</v>
+        <v>0.01830143572904359</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1608508096902913</v>
+        <v>0.05481906992356887</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03417663717797777</v>
+        <v>0.03454337920242533</v>
       </c>
       <c r="K247" t="n">
         <v>0.1608508096902913</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07352587683883582</v>
+        <v>0.07218369979734848</v>
       </c>
       <c r="M247" t="n">
         <v>0.1602792712247211</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1060152925234589</v>
+        <v>0.1053357843291605</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1603379266018056</v>
+        <v>0.160362030954363</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.03529656894595051</v>
+        <v>0.01753287446830575</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1617346053479303</v>
+        <v>0.05478019146948878</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03529656894595051</v>
+        <v>0.03401871521347828</v>
       </c>
       <c r="K248" t="n">
         <v>0.1617346053479303</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07035851511313915</v>
+        <v>0.07406467842119605</v>
       </c>
       <c r="M248" t="n">
         <v>0.1611599265611207</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1105551236192681</v>
+        <v>0.1083221534761035</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1612189042204969</v>
+        <v>0.1612431410145518</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.034026405928561</v>
+        <v>0.01676257869068189</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1626184010055693</v>
+        <v>0.05474044727256155</v>
       </c>
       <c r="J249" t="n">
-        <v>0.034026405928561</v>
+        <v>0.03477147959243322</v>
       </c>
       <c r="K249" t="n">
         <v>0.1626184010055693</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0717607714540521</v>
+        <v>0.07230543724954555</v>
       </c>
       <c r="M249" t="n">
         <v>0.1620405818975202</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1059977976054386</v>
+        <v>0.1048747054154131</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1620998818391881</v>
+        <v>0.1621242510747407</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03529657770134771</v>
+        <v>0.01599054839617198</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1635021966632082</v>
+        <v>0.05469983733278716</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03529657770134771</v>
+        <v>0.03442225805249556</v>
       </c>
       <c r="K250" t="n">
         <v>0.1635021966632082</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07361849177833737</v>
+        <v>0.07301849177833736</v>
       </c>
       <c r="M250" t="n">
         <v>0.1629212372339198</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1094687623264457</v>
+        <v>0.1049176622353951</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1629808594578794</v>
+        <v>0.1630053611349295</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.03563928513418768</v>
+        <v>0.01521678358477605</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1643859923208472</v>
+        <v>0.05465836165016564</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03563928513418768</v>
+        <v>0.03471583046943588</v>
       </c>
       <c r="K251" t="n">
         <v>0.1643859923208472</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07050279223660655</v>
+        <v>0.07226730412832633</v>
       </c>
       <c r="M251" t="n">
         <v>0.1638018925703194</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1089233615353091</v>
+        <v>0.105825856651024</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1638618370765706</v>
+        <v>0.1638864711951183</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.03548815611723154</v>
+        <v>0.01444128425649407</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1652697879784861</v>
+        <v>0.05461602022469698</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03548815611723154</v>
+        <v>0.03533533863877021</v>
       </c>
       <c r="K252" t="n">
         <v>0.1652697879784861</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07311280955903854</v>
+        <v>0.07137014786409146</v>
       </c>
       <c r="M252" t="n">
         <v>0.1646825479067189</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1102509442490586</v>
+        <v>0.106814745956076</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1647428146952618</v>
+        <v>0.1647675812553071</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.03512901570684132</v>
+        <v>0.01366405041132608</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1661535836361251</v>
+        <v>0.05457281305638118</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03512901570684132</v>
+        <v>0.03466676065956435</v>
       </c>
       <c r="K253" t="n">
         <v>0.1661535836361251</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06974018517607644</v>
+        <v>0.07082755330002563</v>
       </c>
       <c r="M253" t="n">
         <v>0.1655632032431185</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1095768947756425</v>
+        <v>0.1071740849562157</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1656237923139531</v>
+        <v>0.1656486913154959</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.03457876056264192</v>
+        <v>0.01288508204927205</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1670373792937641</v>
+        <v>0.05452874014521822</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03457876056264192</v>
+        <v>0.03400326507107401</v>
       </c>
       <c r="K254" t="n">
         <v>0.1670373792937641</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0711161826500033</v>
+        <v>0.0730917255327953</v>
       </c>
       <c r="M254" t="n">
         <v>0.1664438585795181</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1074217148134742</v>
+        <v>0.1098913022040329</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1665047699326443</v>
+        <v>0.1665298013756847</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03444970667743651</v>
+        <v>0.012104379170332</v>
       </c>
       <c r="G255" t="n">
-        <v>0.167921174951403</v>
+        <v>0.05448380149120813</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03444970667743651</v>
+        <v>0.03524131250259778</v>
       </c>
       <c r="K255" t="n">
         <v>0.167921174951403</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07238077303250032</v>
+        <v>0.07135922565329186</v>
       </c>
       <c r="M255" t="n">
         <v>0.1673245139159177</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1100168036295446</v>
+        <v>0.1061981198033217</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1673857475513356</v>
+        <v>0.1674109114358735</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.03422865184179187</v>
+        <v>0.01132194177450591</v>
       </c>
       <c r="G256" t="n">
-        <v>0.168804970609042</v>
+        <v>0.0544379970943509</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03422865184179187</v>
+        <v>0.03570053791313679</v>
       </c>
       <c r="K256" t="n">
         <v>0.168804970609042</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07209008856517418</v>
+        <v>0.07197888468409325</v>
       </c>
       <c r="M256" t="n">
         <v>0.1682051692523172</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1093229037993426</v>
+        <v>0.1085124841710824</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1682667251700268</v>
+        <v>0.1682920214960623</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03511386959799959</v>
+        <v>0.01053776986179377</v>
       </c>
       <c r="G257" t="n">
-        <v>0.169688766266681</v>
+        <v>0.05439132695464653</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03511386959799959</v>
+        <v>0.03533466997721003</v>
       </c>
       <c r="K257" t="n">
         <v>0.169688766266681</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06956678109000541</v>
+        <v>0.07195396868956605</v>
       </c>
       <c r="M257" t="n">
         <v>0.1690858245887168</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1062984893072267</v>
+        <v>0.1085706781782411</v>
       </c>
       <c r="O257" t="n">
-        <v>0.169147702788718</v>
+        <v>0.1691731315562511</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0349984259712781</v>
+        <v>0.009751863432195612</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1705725619243199</v>
+        <v>0.05434379107209499</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0349984259712781</v>
+        <v>0.03556361061210395</v>
       </c>
       <c r="K258" t="n">
         <v>0.1705725619243199</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07128320614118827</v>
+        <v>0.07272682668657934</v>
       </c>
       <c r="M258" t="n">
         <v>0.1699664799251163</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1090945061759576</v>
+        <v>0.1077172450846088</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1700286804074093</v>
+        <v>0.1700542416164399</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.03520327781221211</v>
+        <v>0.008964222485711416</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1714563575819589</v>
+        <v>0.05429538944669634</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03520327781221211</v>
+        <v>0.03544108065756675</v>
       </c>
       <c r="K259" t="n">
         <v>0.1714563575819589</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07319868550974168</v>
+        <v>0.07210020343781814</v>
       </c>
       <c r="M259" t="n">
         <v>0.1708471352615159</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1108040692638907</v>
+        <v>0.1086240531790152</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1709096580261005</v>
+        <v>0.1709353516766287</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.03500843592171111</v>
+        <v>0.008174847022341204</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1723401532395978</v>
+        <v>0.05424612207845052</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03500843592171111</v>
+        <v>0.0346451467306258</v>
       </c>
       <c r="K260" t="n">
         <v>0.1723401532395978</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07219338873779765</v>
+        <v>0.07327026059673766</v>
       </c>
       <c r="M260" t="n">
         <v>0.1717277905979155</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1056432811589657</v>
+        <v>0.1075260607847717</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1717906356447918</v>
+        <v>0.1718164617368175</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03465086936924429</v>
+        <v>0.007383737042084955</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1732239488972368</v>
+        <v>0.05419598896735759</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03465086936924429</v>
+        <v>0.03501608506439301</v>
       </c>
       <c r="K261" t="n">
         <v>0.1732239488972368</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06972182785332481</v>
+        <v>0.07186459544197546</v>
       </c>
       <c r="M261" t="n">
         <v>0.172608445934315</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1113025250907853</v>
+        <v>0.109891526540166</v>
       </c>
       <c r="O261" t="n">
-        <v>0.172671613263483</v>
+        <v>0.1726975717970063</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.03407082033728073</v>
+        <v>0.006590892544942661</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1741077445548758</v>
+        <v>0.05414499011341749</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03407082033728073</v>
+        <v>0.03459549652465349</v>
       </c>
       <c r="K262" t="n">
         <v>0.1741077445548758</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07138975120333743</v>
+        <v>0.07252188899323139</v>
       </c>
       <c r="M262" t="n">
         <v>0.1734891012707146</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1109117456294483</v>
+        <v>0.1091852583827709</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1735525908821742</v>
+        <v>0.1735786818571952</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.03540705004857243</v>
+        <v>0.005796313530914345</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1749915402125147</v>
+        <v>0.05409312551663027</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03540705004857243</v>
+        <v>0.03557499889274235</v>
       </c>
       <c r="K263" t="n">
         <v>0.1749915402125147</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07337898923550243</v>
+        <v>0.07060350342382185</v>
       </c>
       <c r="M263" t="n">
         <v>0.1743697566071142</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1055916935958375</v>
+        <v>0.110231987844474</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1744335685008655</v>
+        <v>0.1744597919173839</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.03416068580507793</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1758753358701537</v>
+        <v>0.05404039517699588</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03416068580507793</v>
+        <v>0.03549226257918656</v>
       </c>
       <c r="K264" t="n">
         <v>0.1758753358701537</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07329021157458565</v>
+        <v>0.07015983357615366</v>
       </c>
       <c r="M264" t="n">
         <v>0.1752504119435137</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1060129807918278</v>
+        <v>0.1071776142598876</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1753145461195567</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1753409019775728</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05404039517699588</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005636380870981693</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05400828271761027</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006274394228444349</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05397703600107179</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006914040072387988</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05394665502738047</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007555318402812587</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05391713979653627</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008198229219718162</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05388849030853923</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008842772523104718</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05386070656338934</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009488948312972229</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05383378856108657</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01013675658932073</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05380773630163096</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01078619735215017</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05378254978502248</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01143727060146061</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05375822901126116</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01208997633725201</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05373477398034696</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01274431455952438</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05371218469227991</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01340028526827775</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05369046114706002</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01405788846351205</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05366960334468725</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471712414522735</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05364961128516164</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153779923134236</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05363048496848316</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01604049296810083</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05361222439465183</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01670462610925903</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05359482956366763</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01737039173689821</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.0535783004755306</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01803778985101837</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.0535626371302407</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01870682045161947</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05354783952779794</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01937748353870157</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05353390766820233</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02004977911226462</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05352084155145383</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02072370717230865</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05350864117755251</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02139926771883366</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05349730654649831</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02207646075183964</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05348683765829127</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02275528627132657</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05347723451293138</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0234357442772945</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05346849711041861</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02411783476974337</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.053460625450753</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02480155774867324</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05345361953393452</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02548691321408406</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05344747935996318</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02617390116597586</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05344220492883898</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02686252160434864</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05343779624056194</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02755277452920239</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05343425329513205</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0282446599405371</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05343157609254928</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02893817783835279</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05342976463281367</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02963332822264945</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05342881891592519</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03033011109342706</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05342873894188385</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03102852645068566</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05342952471068965</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03172857429442524</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05343117622234262</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.0324302546246458</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05343369347684273</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03313356744134729</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05343707647418994</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03383851274452979</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05344132521438433</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03454509053419325</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05344643969742586</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03525330081033767</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05345241992331452</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03596314357296307</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05345926589205032</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03667461882206945</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05346697760363329</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03738772655765678</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05347555505806338</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03810246677972509</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05348499825534062</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0388188394882744</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.053495307195465</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03953684468330465</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05350648187843652</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.04025648236481588</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05351852230425519</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.04097775253280807</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05353142847292099</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.04170065518728125</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05354520038443394</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04242519032823538</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05355983803879404</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0431513579556705</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05357534143600128</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04387915806958657</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05359171057605566</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04460859066998364</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05360894545895718</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.04533965575686168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05362704608470585</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04607235333022067</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05364601245330165</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04680668339006064</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0536658445647446</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04754264593638158</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0536865424190347</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0482802409691835</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05370810601617193</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04901946848846638</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05373053535615632</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04976032849423022</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05375383043898784</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.05050282098647506</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.0537779912646665</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.05124694596520085</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05380301783319232</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.05199270343040761</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05382891014456526</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.05274009338209537</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05385566819878535</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.05348911582026408</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05388329199585259</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.05423977074491376</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05391178153576696</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0549920581560444</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05394113681852849</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.05574597805365604</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05397135784413715</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05650153043774864</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05400244461259297</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05725871530832222</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05403439712389591</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05801753266537675</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.054067215378046</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05877798250891225</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05410089937504323</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05954006483892874</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05413544911488762</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.06030377965542617</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05417086459757912</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.06106912695840462</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0542071458231178</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.06183610674786402</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05424429279150361</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.06260471902380439</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05428230550273656</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.06337496378622572</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05432118395681665</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.06414684103512804</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.0543609281537439</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.06492035077051132</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05440153809351826</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.06569549299237556</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05444301377613979</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.06647226770072079</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05448535520160844</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.06725067489554698</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05452856236992425</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.06803071457685417</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.0545726352810872</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.0688123867446423</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05461757393509729</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.06959569139891141</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05466337833195454</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0703806285396615</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0547100484716589</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.07116719816689253</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05475758435421042</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.07195540028060456</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05480598597960908</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.07274523488079757</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0548552533478549</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.07353670196747153</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05490538645894785</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.07432980154062646</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05495638531288793</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.07512453360026237</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05500824990967516</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.07592089814637924</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.07542089814637924</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05506098024930954</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.07594219359856852</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05681985431505533</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.07645951735320569</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05857872838080113</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.07697275196534276</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06033760244654692</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.07748177999003175</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06209647651229271</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0779864839823247</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06385535057803851</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.07848674649727359</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.0656142246437843</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.07898245008993045</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06737309870953009</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.0794734773153473</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.0691319727752759</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.07995971072857616</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07089084684102169</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08044103288466904</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07264972090676747</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08091732633867797</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07440859497251327</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08138847364565499</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07616746903825906</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08185435736065205</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07792634310400486</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.0823148600387212</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07968521716975066</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08276986423491446</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08144409123549645</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.08321925250428386</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08320296530124223</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.08366290740188145</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08496183936698803</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.08410071148275916</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08672071343273383</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.08453254730196907</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08847958749847962</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.08495829741456318</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09023846156422542</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.08537784437559351</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09199733562997121</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.08579107074011208</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.093756209695717</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.08619785906317085</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.0955150837614628</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.08659809189982196</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09727395782720859</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.08699165180511731</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09903283189295438</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.08737842133410897</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1007917059587002</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.08775828304184899</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.102550580024446</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.08813111948338931</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1043094540901918</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.088496813213782</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1060683281559376</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08885524678807907</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1078272022216833</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.08921075555453625</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1095860762874291</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08956803611097014</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1113449503531749</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08992650110672717</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1131038244189208</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.09028555695157545</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1148626984846665</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0906446100552831</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1166215725504123</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.09100306682761819</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1183804466161581</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.09136033367834884</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1201393206819039</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.09171581701724318</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1218981947476497</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.09206892325406932</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1236570688133955</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.09241905879859533</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1254159428791413</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.09276563006058938</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1271748169448871</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.09310804344981949</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1289336910106329</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.09344570537605387</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1306925650763787</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.09377802224906054</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1324514391421245</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0941044004786076</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1342103132078703</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.09442424647446324</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1359691872736161</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.0947369666463955</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1377280613393619</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.09504196740417253</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1394869354051076</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.09533865515756243</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1412458094708534</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0956264363163333</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1430046835365992</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.09590471729025321</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.144763557602345</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0961729044890903</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1465224316680908</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.09643040432261268</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1482813057338366</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.09667662320058845</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.09691096753278572</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1517990538653282</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.0971328437289726</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.153557927931074</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.09734165819891727</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1553168019968198</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.09753681735238767</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1570756760625656</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.09771772759915204</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1588345501283114</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.09788379534897843</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1605934241940571</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.09803442701163495</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.162352298259803</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09816974094500533</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1641111723255488</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.09830046244977517</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1658700463912945</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09843026065008206</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1676289204570404</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09855898578380837</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1693877945227862</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.09868648808883648</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1711466685885319</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.09881261780304881</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1729055426542777</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.09893722516432765</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1746644167200235</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.09906016041055535</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1764232907857693</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.09918127377961436</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1781821648515151</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.09930041550938701</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1799410389172609</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.09941743583775567</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1816999129830067</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.09953218500260272</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1834587870487525</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.09964451324181048</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1852176611144983</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.09975427079326135</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1869765351802441</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.09986130789483771</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1887354092459899</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.09996547478442194</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1904942833117357</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1000666216998964</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1922531573774814</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1001645988791434</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1940120314432272</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1002592565600453</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1957709055089731</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1003504449804846</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1975297795747188</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1004380143783435</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1992886536404646</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.1005218149915046</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2010475277062105</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.10060169705785</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2028064017719562</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.1006775108152622</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.204565275837702</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.1007491065016236</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2063241499034478</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.1008163343548165</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2080830239691936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.1008790446127233</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2098418980349394</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.1009370875132264</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2116007721006852</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.1009903132942081</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.213359646166431</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.1010385721935508</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2151185202321768</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.1010817144491368</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2168773942979226</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.1011195902988486</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2186362683636684</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.1011520499805685</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2203951424294142</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.1011789437321789</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.22215401649516</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.101200121791562</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2239128905609057</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.1012154343966004</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2256717646266515</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2274306386923973</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.1012278641951723</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2291895127581431</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
